--- a/Code/Results/Cases/Case_4_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_22/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005662422709673</v>
+        <v>1.005662422709672</v>
       </c>
       <c r="D2">
-        <v>1.024325518498897</v>
+        <v>1.024325518498896</v>
       </c>
       <c r="E2">
-        <v>1.016137201013076</v>
+        <v>1.016137201013075</v>
       </c>
       <c r="F2">
-        <v>1.02344224954372</v>
+        <v>1.023442249543719</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049181963584815</v>
+        <v>1.049181963584813</v>
       </c>
       <c r="J2">
-        <v>1.027675080728863</v>
+        <v>1.027675080728861</v>
       </c>
       <c r="K2">
-        <v>1.035456051339181</v>
+        <v>1.03545605133918</v>
       </c>
       <c r="L2">
-        <v>1.027376205210799</v>
+        <v>1.027376205210797</v>
       </c>
       <c r="M2">
-        <v>1.034584378423806</v>
+        <v>1.034584378423805</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015364967880649</v>
+        <v>1.01536496788065</v>
       </c>
       <c r="D3">
-        <v>1.032078759495314</v>
+        <v>1.032078759495316</v>
       </c>
       <c r="E3">
-        <v>1.025311942651196</v>
+        <v>1.025311942651197</v>
       </c>
       <c r="F3">
-        <v>1.032516330507483</v>
+        <v>1.032516330507484</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053160714050868</v>
+        <v>1.053160714050869</v>
       </c>
       <c r="J3">
-        <v>1.035445355343017</v>
+        <v>1.035445355343018</v>
       </c>
       <c r="K3">
-        <v>1.042317001879548</v>
+        <v>1.04231700187955</v>
       </c>
       <c r="L3">
-        <v>1.035630880663213</v>
+        <v>1.035630880663215</v>
       </c>
       <c r="M3">
-        <v>1.042749399869795</v>
+        <v>1.042749399869797</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021389326500268</v>
+        <v>1.021389326500267</v>
       </c>
       <c r="D4">
-        <v>1.03689572234653</v>
+        <v>1.036895722346529</v>
       </c>
       <c r="E4">
-        <v>1.031014244446091</v>
+        <v>1.03101424444609</v>
       </c>
       <c r="F4">
-        <v>1.038160004930617</v>
+        <v>1.038160004930616</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055615447829658</v>
+        <v>1.055615447829657</v>
       </c>
       <c r="J4">
-        <v>1.04026127709643</v>
+        <v>1.040261277096429</v>
       </c>
       <c r="K4">
-        <v>1.046568343330949</v>
+        <v>1.046568343330948</v>
       </c>
       <c r="L4">
-        <v>1.040752227676714</v>
+        <v>1.040752227676713</v>
       </c>
       <c r="M4">
-        <v>1.047818694483116</v>
+        <v>1.047818694483115</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023865713749326</v>
+        <v>1.023865713749329</v>
       </c>
       <c r="D5">
-        <v>1.038876352567525</v>
+        <v>1.038876352567528</v>
       </c>
       <c r="E5">
-        <v>1.033359510895313</v>
+        <v>1.033359510895316</v>
       </c>
       <c r="F5">
-        <v>1.040482061573603</v>
+        <v>1.040482061573606</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056620664527613</v>
+        <v>1.056620664527615</v>
       </c>
       <c r="J5">
-        <v>1.042238779844861</v>
+        <v>1.042238779844864</v>
       </c>
       <c r="K5">
-        <v>1.048313746002355</v>
+        <v>1.048313746002358</v>
       </c>
       <c r="L5">
-        <v>1.042856383399906</v>
+        <v>1.042856383399909</v>
       </c>
       <c r="M5">
-        <v>1.049902288404504</v>
+        <v>1.049902288404507</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024278332778449</v>
+        <v>1.024278332778448</v>
       </c>
       <c r="D6">
-        <v>1.039206396711022</v>
+        <v>1.039206396711021</v>
       </c>
       <c r="E6">
         <v>1.033750354288921</v>
       </c>
       <c r="F6">
-        <v>1.040869088995165</v>
+        <v>1.040869088995164</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056787927747486</v>
+        <v>1.056787927747485</v>
       </c>
       <c r="J6">
-        <v>1.04256814642491</v>
+        <v>1.042568146424909</v>
       </c>
       <c r="K6">
-        <v>1.048604437660503</v>
+        <v>1.048604437660502</v>
       </c>
       <c r="L6">
-        <v>1.043206917681919</v>
+        <v>1.043206917681918</v>
       </c>
       <c r="M6">
-        <v>1.050249444909406</v>
+        <v>1.050249444909405</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021422631572226</v>
+        <v>1.021422631572227</v>
       </c>
       <c r="D7">
-        <v>1.036922357924834</v>
+        <v>1.036922357924835</v>
       </c>
       <c r="E7">
-        <v>1.031045781166544</v>
+        <v>1.031045781166546</v>
       </c>
       <c r="F7">
-        <v>1.038191226021292</v>
+        <v>1.038191226021293</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.055628982332146</v>
       </c>
       <c r="J7">
-        <v>1.040287881211699</v>
+        <v>1.0402878812117</v>
       </c>
       <c r="K7">
-        <v>1.046591826043333</v>
+        <v>1.046591826043334</v>
       </c>
       <c r="L7">
-        <v>1.040780530791799</v>
+        <v>1.040780530791801</v>
       </c>
       <c r="M7">
-        <v>1.047846717789404</v>
+        <v>1.047846717789406</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008996898906212</v>
+        <v>1.008996898906213</v>
       </c>
       <c r="D8">
-        <v>1.026989356281038</v>
+        <v>1.026989356281039</v>
       </c>
       <c r="E8">
-        <v>1.019289022108712</v>
+        <v>1.019289022108713</v>
       </c>
       <c r="F8">
-        <v>1.026558626785469</v>
+        <v>1.02655862678547</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050552635933941</v>
+        <v>1.050552635933942</v>
       </c>
       <c r="J8">
-        <v>1.030347300701336</v>
+        <v>1.030347300701337</v>
       </c>
       <c r="K8">
-        <v>1.037815740545019</v>
+        <v>1.03781574054502</v>
       </c>
       <c r="L8">
-        <v>1.030213899643276</v>
+        <v>1.030213899643277</v>
       </c>
       <c r="M8">
-        <v>1.03739047170073</v>
+        <v>1.037390471700731</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>0.9849200081403804</v>
+        <v>0.9849200081403791</v>
       </c>
       <c r="D9">
-        <v>1.007775119107248</v>
+        <v>1.007775119107247</v>
       </c>
       <c r="E9">
-        <v>0.9965607227080854</v>
+        <v>0.9965607227080839</v>
       </c>
       <c r="F9">
-        <v>1.004105377522446</v>
+        <v>1.004105377522444</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040589273220777</v>
+        <v>1.040589273220776</v>
       </c>
       <c r="J9">
-        <v>1.011016753455186</v>
+        <v>1.011016753455184</v>
       </c>
       <c r="K9">
-        <v>1.020743297488663</v>
+        <v>1.020743297488662</v>
       </c>
       <c r="L9">
-        <v>1.009709847337141</v>
+        <v>1.00970984733714</v>
       </c>
       <c r="M9">
-        <v>1.017132197155184</v>
+        <v>1.017132197155182</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9670016862320508</v>
+        <v>0.9670016862320482</v>
       </c>
       <c r="D10">
-        <v>0.9935118983516351</v>
+        <v>0.993511898351633</v>
       </c>
       <c r="E10">
-        <v>0.9796911214077367</v>
+        <v>0.9796911214077338</v>
       </c>
       <c r="F10">
-        <v>0.9874680390399175</v>
+        <v>0.9874680390399151</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033092545007251</v>
+        <v>1.033092545007249</v>
       </c>
       <c r="J10">
-        <v>0.9965885878641205</v>
+        <v>0.996588587864118</v>
       </c>
       <c r="K10">
-        <v>1.007999293995494</v>
+        <v>1.007999293995492</v>
       </c>
       <c r="L10">
-        <v>0.994437002790773</v>
+        <v>0.9944370027907701</v>
       </c>
       <c r="M10">
-        <v>1.002067309398027</v>
+        <v>1.002067309398024</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9586835514983246</v>
+        <v>0.9586835514983229</v>
       </c>
       <c r="D11">
-        <v>0.9869030837903559</v>
+        <v>0.9869030837903541</v>
       </c>
       <c r="E11">
-        <v>0.9718731392047167</v>
+        <v>0.9718731392047154</v>
       </c>
       <c r="F11">
-        <v>0.9797655211981067</v>
+        <v>0.9797655211981052</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02959446706742</v>
+        <v>1.029594467067419</v>
       </c>
       <c r="J11">
-        <v>0.9898822110759279</v>
+        <v>0.9898822110759263</v>
       </c>
       <c r="K11">
-        <v>1.002076288672874</v>
+        <v>1.002076288672873</v>
       </c>
       <c r="L11">
-        <v>0.9873457218648845</v>
+        <v>0.9873457218648831</v>
       </c>
       <c r="M11">
-        <v>0.9950793919150444</v>
+        <v>0.9950793919150428</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9554971334239554</v>
+        <v>0.9554971334239543</v>
       </c>
       <c r="D12">
-        <v>0.9843737430154433</v>
+        <v>0.9843737430154422</v>
       </c>
       <c r="E12">
-        <v>0.9688805846125363</v>
+        <v>0.968880584612535</v>
       </c>
       <c r="F12">
-        <v>0.9768184575189303</v>
+        <v>0.976818457518929</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.028251939575866</v>
       </c>
       <c r="J12">
-        <v>0.9873121060642918</v>
+        <v>0.9873121060642904</v>
       </c>
       <c r="K12">
-        <v>0.9998065682565072</v>
+        <v>0.9998065682565063</v>
       </c>
       <c r="L12">
-        <v>0.9846292963472949</v>
+        <v>0.9846292963472937</v>
       </c>
       <c r="M12">
-        <v>0.992403675702071</v>
+        <v>0.9924036757020697</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.956185240836067</v>
+        <v>0.9561852408360665</v>
       </c>
       <c r="D13">
-        <v>0.9849198439943395</v>
+        <v>0.9849198439943392</v>
       </c>
       <c r="E13">
-        <v>0.9695267199959412</v>
+        <v>0.9695267199959406</v>
       </c>
       <c r="F13">
-        <v>0.9774547103595755</v>
+        <v>0.9774547103595751</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.028541969169693</v>
       </c>
       <c r="J13">
-        <v>0.9878671670712176</v>
+        <v>0.9878671670712169</v>
       </c>
       <c r="K13">
         <v>1.000296746480895</v>
       </c>
       <c r="L13">
-        <v>0.9852159039341225</v>
+        <v>0.985215903934122</v>
       </c>
       <c r="M13">
-        <v>0.9929814403434191</v>
+        <v>0.9929814403434186</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9584222170228351</v>
+        <v>0.958422217022834</v>
       </c>
       <c r="D14">
-        <v>0.9866955907393816</v>
+        <v>0.986695590739381</v>
       </c>
       <c r="E14">
-        <v>0.9716276568733136</v>
+        <v>0.9716276568733133</v>
       </c>
       <c r="F14">
-        <v>0.9795237436477405</v>
+        <v>0.9795237436477402</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.029484409381239</v>
       </c>
       <c r="J14">
-        <v>0.9896714447280383</v>
+        <v>0.9896714447280377</v>
       </c>
       <c r="K14">
         <v>1.001890151931746</v>
       </c>
       <c r="L14">
-        <v>0.9871229320652922</v>
+        <v>0.9871229320652914</v>
       </c>
       <c r="M14">
-        <v>0.9948599178341805</v>
+        <v>0.9948599178341802</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9597872526282868</v>
+        <v>0.9597872526282841</v>
       </c>
       <c r="D15">
-        <v>0.9877794901457745</v>
+        <v>0.9877794901457724</v>
       </c>
       <c r="E15">
-        <v>0.9729099850873086</v>
+        <v>0.972909985087306</v>
       </c>
       <c r="F15">
-        <v>0.9807867722445098</v>
+        <v>0.9807867722445073</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030059175803861</v>
+        <v>1.03005917580386</v>
       </c>
       <c r="J15">
-        <v>0.9907723030050434</v>
+        <v>0.9907723030050412</v>
       </c>
       <c r="K15">
-        <v>1.00286237423717</v>
+        <v>1.002862374237167</v>
       </c>
       <c r="L15">
-        <v>0.9882866384845393</v>
+        <v>0.9882866384845368</v>
       </c>
       <c r="M15">
-        <v>0.9960063507770411</v>
+        <v>0.996006350777039</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,31 +953,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9675409298890413</v>
+        <v>0.9675409298890406</v>
       </c>
       <c r="D16">
-        <v>0.9939406197633234</v>
+        <v>0.9939406197633225</v>
       </c>
       <c r="E16">
-        <v>0.9801982352366315</v>
+        <v>0.9801982352366307</v>
       </c>
       <c r="F16">
-        <v>0.9879678328785128</v>
+        <v>0.987967832878512</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033318963246423</v>
+        <v>1.033318963246422</v>
       </c>
       <c r="J16">
-        <v>0.9970231854976269</v>
+        <v>0.9970231854976261</v>
       </c>
       <c r="K16">
-        <v>1.008383144584637</v>
+        <v>1.008383144584636</v>
       </c>
       <c r="L16">
-        <v>0.9948967036771724</v>
+        <v>0.9948967036771715</v>
       </c>
       <c r="M16">
         <v>1.002520456204253</v>
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9722467405050974</v>
+        <v>0.9722467405050977</v>
       </c>
       <c r="D17">
-        <v>0.9976833716661835</v>
+        <v>0.997683371666184</v>
       </c>
       <c r="E17">
-        <v>0.9846251662507576</v>
+        <v>0.9846251662507578</v>
       </c>
       <c r="F17">
-        <v>0.9923317459420821</v>
+        <v>0.9923317459420824</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1012,13 +1012,13 @@
         <v>1.000814858144195</v>
       </c>
       <c r="K17">
-        <v>1.011732142060196</v>
+        <v>1.011732142060197</v>
       </c>
       <c r="L17">
-        <v>0.9989082514833723</v>
+        <v>0.9989082514833726</v>
       </c>
       <c r="M17">
-        <v>1.006475576732042</v>
+        <v>1.006475576732043</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9749385714048215</v>
+        <v>0.9749385714048258</v>
       </c>
       <c r="D18">
-        <v>0.9998254406882336</v>
+        <v>0.9998254406882372</v>
       </c>
       <c r="E18">
-        <v>0.987158683116264</v>
+        <v>0.9871586831162683</v>
       </c>
       <c r="F18">
-        <v>0.9948299138529705</v>
+        <v>0.9948299138529741</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036420319140406</v>
+        <v>1.036420319140408</v>
       </c>
       <c r="J18">
-        <v>1.002982986550166</v>
+        <v>1.002982986550169</v>
       </c>
       <c r="K18">
-        <v>1.013647187933662</v>
+        <v>1.013647187933666</v>
       </c>
       <c r="L18">
-        <v>1.001202818090787</v>
+        <v>1.001202818090791</v>
       </c>
       <c r="M18">
-        <v>1.008738490492929</v>
+        <v>1.008738490492933</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9758477692168394</v>
+        <v>0.9758477692168404</v>
       </c>
       <c r="D19">
-        <v>1.00054913085214</v>
+        <v>1.000549130852141</v>
       </c>
       <c r="E19">
-        <v>0.9880146069142105</v>
+        <v>0.9880146069142116</v>
       </c>
       <c r="F19">
-        <v>0.9956740137144253</v>
+        <v>0.9956740137144261</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.036800841566363</v>
       </c>
       <c r="J19">
-        <v>1.003715158419263</v>
+        <v>1.003715158419264</v>
       </c>
       <c r="K19">
-        <v>1.014293899735064</v>
+        <v>1.014293899735065</v>
       </c>
       <c r="L19">
-        <v>1.001977807645305</v>
+        <v>1.001977807645306</v>
       </c>
       <c r="M19">
-        <v>1.009502892581611</v>
+        <v>1.009502892581612</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9717474151561937</v>
+        <v>0.9717474151561962</v>
       </c>
       <c r="D20">
-        <v>0.9972861144686371</v>
+        <v>0.9972861144686391</v>
       </c>
       <c r="E20">
-        <v>0.9841553043567908</v>
+        <v>0.9841553043567935</v>
       </c>
       <c r="F20">
-        <v>0.991868497239334</v>
+        <v>0.9918684972393363</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035083593675072</v>
+        <v>1.035083593675073</v>
       </c>
       <c r="J20">
-        <v>1.000412612123245</v>
+        <v>1.000412612123248</v>
       </c>
       <c r="K20">
-        <v>1.011376852733528</v>
+        <v>1.011376852733529</v>
       </c>
       <c r="L20">
-        <v>0.9984826053782507</v>
+        <v>0.9984826053782533</v>
       </c>
       <c r="M20">
-        <v>1.006055852342771</v>
+        <v>1.006055852342773</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9577662683546865</v>
+        <v>0.9577662683546884</v>
       </c>
       <c r="D21">
-        <v>0.986174822093516</v>
+        <v>0.9861748220935178</v>
       </c>
       <c r="E21">
-        <v>0.9710115344426804</v>
+        <v>0.9710115344426822</v>
       </c>
       <c r="F21">
-        <v>0.9789169408196495</v>
+        <v>0.9789169408196514</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029208125141708</v>
+        <v>1.029208125141709</v>
       </c>
       <c r="J21">
-        <v>0.9891424048842857</v>
+        <v>0.9891424048842874</v>
       </c>
       <c r="K21">
-        <v>1.001422937367873</v>
+        <v>1.001422937367875</v>
       </c>
       <c r="L21">
-        <v>0.986563731565688</v>
+        <v>0.9865637315656893</v>
       </c>
       <c r="M21">
-        <v>0.9943090579619787</v>
+        <v>0.9943090579619805</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9484077973293611</v>
+        <v>0.9484077973293659</v>
       </c>
       <c r="D22">
-        <v>0.9787510883778017</v>
+        <v>0.9787510883778051</v>
       </c>
       <c r="E22">
-        <v>0.9622271329318751</v>
+        <v>0.9622271329318796</v>
       </c>
       <c r="F22">
-        <v>0.9702686991532913</v>
+        <v>0.9702686991532949</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025260539938108</v>
+        <v>1.02526053993811</v>
       </c>
       <c r="J22">
-        <v>0.98159216185224</v>
+        <v>0.9815921618522442</v>
       </c>
       <c r="K22">
-        <v>0.994755579196179</v>
+        <v>0.9947555791961826</v>
       </c>
       <c r="L22">
-        <v>0.9785859463274429</v>
+        <v>0.9785859463274472</v>
       </c>
       <c r="M22">
-        <v>0.9864530787753352</v>
+        <v>0.9864530787753388</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9534277563142856</v>
+        <v>0.953427756314285</v>
       </c>
       <c r="D23">
-        <v>0.9827318001464921</v>
+        <v>0.9827318001464915</v>
       </c>
       <c r="E23">
-        <v>0.966937788896576</v>
+        <v>0.9669377888965752</v>
       </c>
       <c r="F23">
-        <v>0.9749055766627547</v>
+        <v>0.9749055766627543</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.027379365094389</v>
       </c>
       <c r="J23">
-        <v>0.9856426993161214</v>
+        <v>0.9856426993161209</v>
       </c>
       <c r="K23">
-        <v>0.998332336254754</v>
+        <v>0.9983323362547534</v>
       </c>
       <c r="L23">
-        <v>0.982865186464367</v>
+        <v>0.9828651864643665</v>
       </c>
       <c r="M23">
-        <v>0.9906663307330268</v>
+        <v>0.9906663307330263</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9719732016106561</v>
+        <v>0.9719732016106583</v>
       </c>
       <c r="D24">
-        <v>0.9974657439457039</v>
+        <v>0.9974657439457058</v>
       </c>
       <c r="E24">
-        <v>0.9843677641816053</v>
+        <v>0.9843677641816077</v>
       </c>
       <c r="F24">
-        <v>0.9920779645222563</v>
+        <v>0.992077964522258</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035178229433534</v>
+        <v>1.035178229433535</v>
       </c>
       <c r="J24">
-        <v>1.000594503440152</v>
+        <v>1.000594503440154</v>
       </c>
       <c r="K24">
-        <v>1.011537510605348</v>
+        <v>1.01153751060535</v>
       </c>
       <c r="L24">
-        <v>0.9986750757486436</v>
+        <v>0.9986750757486459</v>
       </c>
       <c r="M24">
-        <v>1.006245643073309</v>
+        <v>1.006245643073311</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.991439894360853</v>
+        <v>0.9914398943608539</v>
       </c>
       <c r="D25">
         <v>1.012973249673347</v>
       </c>
       <c r="E25">
-        <v>1.002708599773489</v>
+        <v>1.00270859977349</v>
       </c>
       <c r="F25">
-        <v>1.010174469168049</v>
+        <v>1.01017446916805</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1316,13 +1316,13 @@
         <v>1.016258814716779</v>
       </c>
       <c r="K25">
-        <v>1.025373456282415</v>
+        <v>1.025373456282416</v>
       </c>
       <c r="L25">
-        <v>1.015265013233429</v>
+        <v>1.01526501323343</v>
       </c>
       <c r="M25">
-        <v>1.022616866439159</v>
+        <v>1.02261686643916</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_22/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005662422709672</v>
+        <v>1.005662422709673</v>
       </c>
       <c r="D2">
-        <v>1.024325518498896</v>
+        <v>1.024325518498897</v>
       </c>
       <c r="E2">
-        <v>1.016137201013075</v>
+        <v>1.016137201013076</v>
       </c>
       <c r="F2">
-        <v>1.023442249543719</v>
+        <v>1.02344224954372</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049181963584813</v>
+        <v>1.049181963584815</v>
       </c>
       <c r="J2">
-        <v>1.027675080728861</v>
+        <v>1.027675080728863</v>
       </c>
       <c r="K2">
-        <v>1.03545605133918</v>
+        <v>1.035456051339181</v>
       </c>
       <c r="L2">
-        <v>1.027376205210797</v>
+        <v>1.027376205210799</v>
       </c>
       <c r="M2">
-        <v>1.034584378423805</v>
+        <v>1.034584378423806</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01536496788065</v>
+        <v>1.015364967880649</v>
       </c>
       <c r="D3">
-        <v>1.032078759495316</v>
+        <v>1.032078759495314</v>
       </c>
       <c r="E3">
-        <v>1.025311942651197</v>
+        <v>1.025311942651196</v>
       </c>
       <c r="F3">
-        <v>1.032516330507484</v>
+        <v>1.032516330507483</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053160714050869</v>
+        <v>1.053160714050868</v>
       </c>
       <c r="J3">
-        <v>1.035445355343018</v>
+        <v>1.035445355343017</v>
       </c>
       <c r="K3">
-        <v>1.04231700187955</v>
+        <v>1.042317001879548</v>
       </c>
       <c r="L3">
-        <v>1.035630880663215</v>
+        <v>1.035630880663213</v>
       </c>
       <c r="M3">
-        <v>1.042749399869797</v>
+        <v>1.042749399869795</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021389326500267</v>
+        <v>1.021389326500268</v>
       </c>
       <c r="D4">
-        <v>1.036895722346529</v>
+        <v>1.03689572234653</v>
       </c>
       <c r="E4">
-        <v>1.03101424444609</v>
+        <v>1.031014244446091</v>
       </c>
       <c r="F4">
-        <v>1.038160004930616</v>
+        <v>1.038160004930617</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055615447829657</v>
+        <v>1.055615447829658</v>
       </c>
       <c r="J4">
-        <v>1.040261277096429</v>
+        <v>1.04026127709643</v>
       </c>
       <c r="K4">
-        <v>1.046568343330948</v>
+        <v>1.046568343330949</v>
       </c>
       <c r="L4">
-        <v>1.040752227676713</v>
+        <v>1.040752227676714</v>
       </c>
       <c r="M4">
-        <v>1.047818694483115</v>
+        <v>1.047818694483116</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023865713749329</v>
+        <v>1.023865713749326</v>
       </c>
       <c r="D5">
-        <v>1.038876352567528</v>
+        <v>1.038876352567525</v>
       </c>
       <c r="E5">
-        <v>1.033359510895316</v>
+        <v>1.033359510895313</v>
       </c>
       <c r="F5">
-        <v>1.040482061573606</v>
+        <v>1.040482061573603</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056620664527615</v>
+        <v>1.056620664527613</v>
       </c>
       <c r="J5">
-        <v>1.042238779844864</v>
+        <v>1.042238779844861</v>
       </c>
       <c r="K5">
-        <v>1.048313746002358</v>
+        <v>1.048313746002355</v>
       </c>
       <c r="L5">
-        <v>1.042856383399909</v>
+        <v>1.042856383399906</v>
       </c>
       <c r="M5">
-        <v>1.049902288404507</v>
+        <v>1.049902288404504</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024278332778448</v>
+        <v>1.024278332778449</v>
       </c>
       <c r="D6">
-        <v>1.039206396711021</v>
+        <v>1.039206396711022</v>
       </c>
       <c r="E6">
         <v>1.033750354288921</v>
       </c>
       <c r="F6">
-        <v>1.040869088995164</v>
+        <v>1.040869088995165</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056787927747485</v>
+        <v>1.056787927747486</v>
       </c>
       <c r="J6">
-        <v>1.042568146424909</v>
+        <v>1.04256814642491</v>
       </c>
       <c r="K6">
-        <v>1.048604437660502</v>
+        <v>1.048604437660503</v>
       </c>
       <c r="L6">
-        <v>1.043206917681918</v>
+        <v>1.043206917681919</v>
       </c>
       <c r="M6">
-        <v>1.050249444909405</v>
+        <v>1.050249444909406</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021422631572227</v>
+        <v>1.021422631572226</v>
       </c>
       <c r="D7">
-        <v>1.036922357924835</v>
+        <v>1.036922357924834</v>
       </c>
       <c r="E7">
-        <v>1.031045781166546</v>
+        <v>1.031045781166544</v>
       </c>
       <c r="F7">
-        <v>1.038191226021293</v>
+        <v>1.038191226021292</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.055628982332146</v>
       </c>
       <c r="J7">
-        <v>1.0402878812117</v>
+        <v>1.040287881211699</v>
       </c>
       <c r="K7">
-        <v>1.046591826043334</v>
+        <v>1.046591826043333</v>
       </c>
       <c r="L7">
-        <v>1.040780530791801</v>
+        <v>1.040780530791799</v>
       </c>
       <c r="M7">
-        <v>1.047846717789406</v>
+        <v>1.047846717789404</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008996898906213</v>
+        <v>1.008996898906212</v>
       </c>
       <c r="D8">
-        <v>1.026989356281039</v>
+        <v>1.026989356281038</v>
       </c>
       <c r="E8">
-        <v>1.019289022108713</v>
+        <v>1.019289022108712</v>
       </c>
       <c r="F8">
-        <v>1.02655862678547</v>
+        <v>1.026558626785469</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050552635933942</v>
+        <v>1.050552635933941</v>
       </c>
       <c r="J8">
-        <v>1.030347300701337</v>
+        <v>1.030347300701336</v>
       </c>
       <c r="K8">
-        <v>1.03781574054502</v>
+        <v>1.037815740545019</v>
       </c>
       <c r="L8">
-        <v>1.030213899643277</v>
+        <v>1.030213899643276</v>
       </c>
       <c r="M8">
-        <v>1.037390471700731</v>
+        <v>1.03739047170073</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9849200081403791</v>
+        <v>0.9849200081403804</v>
       </c>
       <c r="D9">
-        <v>1.007775119107247</v>
+        <v>1.007775119107248</v>
       </c>
       <c r="E9">
-        <v>0.9965607227080839</v>
+        <v>0.9965607227080854</v>
       </c>
       <c r="F9">
-        <v>1.004105377522444</v>
+        <v>1.004105377522446</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040589273220776</v>
+        <v>1.040589273220777</v>
       </c>
       <c r="J9">
-        <v>1.011016753455184</v>
+        <v>1.011016753455186</v>
       </c>
       <c r="K9">
-        <v>1.020743297488662</v>
+        <v>1.020743297488663</v>
       </c>
       <c r="L9">
-        <v>1.00970984733714</v>
+        <v>1.009709847337141</v>
       </c>
       <c r="M9">
-        <v>1.017132197155182</v>
+        <v>1.017132197155184</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9670016862320482</v>
+        <v>0.9670016862320508</v>
       </c>
       <c r="D10">
-        <v>0.993511898351633</v>
+        <v>0.9935118983516351</v>
       </c>
       <c r="E10">
-        <v>0.9796911214077338</v>
+        <v>0.9796911214077367</v>
       </c>
       <c r="F10">
-        <v>0.9874680390399151</v>
+        <v>0.9874680390399175</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033092545007249</v>
+        <v>1.033092545007251</v>
       </c>
       <c r="J10">
-        <v>0.996588587864118</v>
+        <v>0.9965885878641205</v>
       </c>
       <c r="K10">
-        <v>1.007999293995492</v>
+        <v>1.007999293995494</v>
       </c>
       <c r="L10">
-        <v>0.9944370027907701</v>
+        <v>0.994437002790773</v>
       </c>
       <c r="M10">
-        <v>1.002067309398024</v>
+        <v>1.002067309398027</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9586835514983229</v>
+        <v>0.9586835514983246</v>
       </c>
       <c r="D11">
-        <v>0.9869030837903541</v>
+        <v>0.9869030837903559</v>
       </c>
       <c r="E11">
-        <v>0.9718731392047154</v>
+        <v>0.9718731392047167</v>
       </c>
       <c r="F11">
-        <v>0.9797655211981052</v>
+        <v>0.9797655211981067</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029594467067419</v>
+        <v>1.02959446706742</v>
       </c>
       <c r="J11">
-        <v>0.9898822110759263</v>
+        <v>0.9898822110759279</v>
       </c>
       <c r="K11">
-        <v>1.002076288672873</v>
+        <v>1.002076288672874</v>
       </c>
       <c r="L11">
-        <v>0.9873457218648831</v>
+        <v>0.9873457218648845</v>
       </c>
       <c r="M11">
-        <v>0.9950793919150428</v>
+        <v>0.9950793919150444</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9554971334239543</v>
+        <v>0.9554971334239554</v>
       </c>
       <c r="D12">
-        <v>0.9843737430154422</v>
+        <v>0.9843737430154433</v>
       </c>
       <c r="E12">
-        <v>0.968880584612535</v>
+        <v>0.9688805846125363</v>
       </c>
       <c r="F12">
-        <v>0.976818457518929</v>
+        <v>0.9768184575189303</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.028251939575866</v>
       </c>
       <c r="J12">
-        <v>0.9873121060642904</v>
+        <v>0.9873121060642918</v>
       </c>
       <c r="K12">
-        <v>0.9998065682565063</v>
+        <v>0.9998065682565072</v>
       </c>
       <c r="L12">
-        <v>0.9846292963472937</v>
+        <v>0.9846292963472949</v>
       </c>
       <c r="M12">
-        <v>0.9924036757020697</v>
+        <v>0.992403675702071</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9561852408360665</v>
+        <v>0.956185240836067</v>
       </c>
       <c r="D13">
-        <v>0.9849198439943392</v>
+        <v>0.9849198439943395</v>
       </c>
       <c r="E13">
-        <v>0.9695267199959406</v>
+        <v>0.9695267199959412</v>
       </c>
       <c r="F13">
-        <v>0.9774547103595751</v>
+        <v>0.9774547103595755</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.028541969169693</v>
       </c>
       <c r="J13">
-        <v>0.9878671670712169</v>
+        <v>0.9878671670712176</v>
       </c>
       <c r="K13">
         <v>1.000296746480895</v>
       </c>
       <c r="L13">
-        <v>0.985215903934122</v>
+        <v>0.9852159039341225</v>
       </c>
       <c r="M13">
-        <v>0.9929814403434186</v>
+        <v>0.9929814403434191</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.958422217022834</v>
+        <v>0.9584222170228351</v>
       </c>
       <c r="D14">
-        <v>0.986695590739381</v>
+        <v>0.9866955907393816</v>
       </c>
       <c r="E14">
-        <v>0.9716276568733133</v>
+        <v>0.9716276568733136</v>
       </c>
       <c r="F14">
-        <v>0.9795237436477402</v>
+        <v>0.9795237436477405</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.029484409381239</v>
       </c>
       <c r="J14">
-        <v>0.9896714447280377</v>
+        <v>0.9896714447280383</v>
       </c>
       <c r="K14">
         <v>1.001890151931746</v>
       </c>
       <c r="L14">
-        <v>0.9871229320652914</v>
+        <v>0.9871229320652922</v>
       </c>
       <c r="M14">
-        <v>0.9948599178341802</v>
+        <v>0.9948599178341805</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9597872526282841</v>
+        <v>0.9597872526282868</v>
       </c>
       <c r="D15">
-        <v>0.9877794901457724</v>
+        <v>0.9877794901457745</v>
       </c>
       <c r="E15">
-        <v>0.972909985087306</v>
+        <v>0.9729099850873086</v>
       </c>
       <c r="F15">
-        <v>0.9807867722445073</v>
+        <v>0.9807867722445098</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03005917580386</v>
+        <v>1.030059175803861</v>
       </c>
       <c r="J15">
-        <v>0.9907723030050412</v>
+        <v>0.9907723030050434</v>
       </c>
       <c r="K15">
-        <v>1.002862374237167</v>
+        <v>1.00286237423717</v>
       </c>
       <c r="L15">
-        <v>0.9882866384845368</v>
+        <v>0.9882866384845393</v>
       </c>
       <c r="M15">
-        <v>0.996006350777039</v>
+        <v>0.9960063507770411</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,31 +953,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9675409298890406</v>
+        <v>0.9675409298890413</v>
       </c>
       <c r="D16">
-        <v>0.9939406197633225</v>
+        <v>0.9939406197633234</v>
       </c>
       <c r="E16">
-        <v>0.9801982352366307</v>
+        <v>0.9801982352366315</v>
       </c>
       <c r="F16">
-        <v>0.987967832878512</v>
+        <v>0.9879678328785128</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033318963246422</v>
+        <v>1.033318963246423</v>
       </c>
       <c r="J16">
-        <v>0.9970231854976261</v>
+        <v>0.9970231854976269</v>
       </c>
       <c r="K16">
-        <v>1.008383144584636</v>
+        <v>1.008383144584637</v>
       </c>
       <c r="L16">
-        <v>0.9948967036771715</v>
+        <v>0.9948967036771724</v>
       </c>
       <c r="M16">
         <v>1.002520456204253</v>
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9722467405050977</v>
+        <v>0.9722467405050974</v>
       </c>
       <c r="D17">
-        <v>0.997683371666184</v>
+        <v>0.9976833716661835</v>
       </c>
       <c r="E17">
-        <v>0.9846251662507578</v>
+        <v>0.9846251662507576</v>
       </c>
       <c r="F17">
-        <v>0.9923317459420824</v>
+        <v>0.9923317459420821</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1012,13 +1012,13 @@
         <v>1.000814858144195</v>
       </c>
       <c r="K17">
-        <v>1.011732142060197</v>
+        <v>1.011732142060196</v>
       </c>
       <c r="L17">
-        <v>0.9989082514833726</v>
+        <v>0.9989082514833723</v>
       </c>
       <c r="M17">
-        <v>1.006475576732043</v>
+        <v>1.006475576732042</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9749385714048258</v>
+        <v>0.9749385714048215</v>
       </c>
       <c r="D18">
-        <v>0.9998254406882372</v>
+        <v>0.9998254406882336</v>
       </c>
       <c r="E18">
-        <v>0.9871586831162683</v>
+        <v>0.987158683116264</v>
       </c>
       <c r="F18">
-        <v>0.9948299138529741</v>
+        <v>0.9948299138529705</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036420319140408</v>
+        <v>1.036420319140406</v>
       </c>
       <c r="J18">
-        <v>1.002982986550169</v>
+        <v>1.002982986550166</v>
       </c>
       <c r="K18">
-        <v>1.013647187933666</v>
+        <v>1.013647187933662</v>
       </c>
       <c r="L18">
-        <v>1.001202818090791</v>
+        <v>1.001202818090787</v>
       </c>
       <c r="M18">
-        <v>1.008738490492933</v>
+        <v>1.008738490492929</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9758477692168404</v>
+        <v>0.9758477692168394</v>
       </c>
       <c r="D19">
-        <v>1.000549130852141</v>
+        <v>1.00054913085214</v>
       </c>
       <c r="E19">
-        <v>0.9880146069142116</v>
+        <v>0.9880146069142105</v>
       </c>
       <c r="F19">
-        <v>0.9956740137144261</v>
+        <v>0.9956740137144253</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.036800841566363</v>
       </c>
       <c r="J19">
-        <v>1.003715158419264</v>
+        <v>1.003715158419263</v>
       </c>
       <c r="K19">
-        <v>1.014293899735065</v>
+        <v>1.014293899735064</v>
       </c>
       <c r="L19">
-        <v>1.001977807645306</v>
+        <v>1.001977807645305</v>
       </c>
       <c r="M19">
-        <v>1.009502892581612</v>
+        <v>1.009502892581611</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9717474151561962</v>
+        <v>0.9717474151561937</v>
       </c>
       <c r="D20">
-        <v>0.9972861144686391</v>
+        <v>0.9972861144686371</v>
       </c>
       <c r="E20">
-        <v>0.9841553043567935</v>
+        <v>0.9841553043567908</v>
       </c>
       <c r="F20">
-        <v>0.9918684972393363</v>
+        <v>0.991868497239334</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035083593675073</v>
+        <v>1.035083593675072</v>
       </c>
       <c r="J20">
-        <v>1.000412612123248</v>
+        <v>1.000412612123245</v>
       </c>
       <c r="K20">
-        <v>1.011376852733529</v>
+        <v>1.011376852733528</v>
       </c>
       <c r="L20">
-        <v>0.9984826053782533</v>
+        <v>0.9984826053782507</v>
       </c>
       <c r="M20">
-        <v>1.006055852342773</v>
+        <v>1.006055852342771</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9577662683546884</v>
+        <v>0.9577662683546865</v>
       </c>
       <c r="D21">
-        <v>0.9861748220935178</v>
+        <v>0.986174822093516</v>
       </c>
       <c r="E21">
-        <v>0.9710115344426822</v>
+        <v>0.9710115344426804</v>
       </c>
       <c r="F21">
-        <v>0.9789169408196514</v>
+        <v>0.9789169408196495</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029208125141709</v>
+        <v>1.029208125141708</v>
       </c>
       <c r="J21">
-        <v>0.9891424048842874</v>
+        <v>0.9891424048842857</v>
       </c>
       <c r="K21">
-        <v>1.001422937367875</v>
+        <v>1.001422937367873</v>
       </c>
       <c r="L21">
-        <v>0.9865637315656893</v>
+        <v>0.986563731565688</v>
       </c>
       <c r="M21">
-        <v>0.9943090579619805</v>
+        <v>0.9943090579619787</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9484077973293659</v>
+        <v>0.9484077973293611</v>
       </c>
       <c r="D22">
-        <v>0.9787510883778051</v>
+        <v>0.9787510883778017</v>
       </c>
       <c r="E22">
-        <v>0.9622271329318796</v>
+        <v>0.9622271329318751</v>
       </c>
       <c r="F22">
-        <v>0.9702686991532949</v>
+        <v>0.9702686991532913</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02526053993811</v>
+        <v>1.025260539938108</v>
       </c>
       <c r="J22">
-        <v>0.9815921618522442</v>
+        <v>0.98159216185224</v>
       </c>
       <c r="K22">
-        <v>0.9947555791961826</v>
+        <v>0.994755579196179</v>
       </c>
       <c r="L22">
-        <v>0.9785859463274472</v>
+        <v>0.9785859463274429</v>
       </c>
       <c r="M22">
-        <v>0.9864530787753388</v>
+        <v>0.9864530787753352</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.953427756314285</v>
+        <v>0.9534277563142856</v>
       </c>
       <c r="D23">
-        <v>0.9827318001464915</v>
+        <v>0.9827318001464921</v>
       </c>
       <c r="E23">
-        <v>0.9669377888965752</v>
+        <v>0.966937788896576</v>
       </c>
       <c r="F23">
-        <v>0.9749055766627543</v>
+        <v>0.9749055766627547</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.027379365094389</v>
       </c>
       <c r="J23">
-        <v>0.9856426993161209</v>
+        <v>0.9856426993161214</v>
       </c>
       <c r="K23">
-        <v>0.9983323362547534</v>
+        <v>0.998332336254754</v>
       </c>
       <c r="L23">
-        <v>0.9828651864643665</v>
+        <v>0.982865186464367</v>
       </c>
       <c r="M23">
-        <v>0.9906663307330263</v>
+        <v>0.9906663307330268</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9719732016106583</v>
+        <v>0.9719732016106561</v>
       </c>
       <c r="D24">
-        <v>0.9974657439457058</v>
+        <v>0.9974657439457039</v>
       </c>
       <c r="E24">
-        <v>0.9843677641816077</v>
+        <v>0.9843677641816053</v>
       </c>
       <c r="F24">
-        <v>0.992077964522258</v>
+        <v>0.9920779645222563</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035178229433535</v>
+        <v>1.035178229433534</v>
       </c>
       <c r="J24">
-        <v>1.000594503440154</v>
+        <v>1.000594503440152</v>
       </c>
       <c r="K24">
-        <v>1.01153751060535</v>
+        <v>1.011537510605348</v>
       </c>
       <c r="L24">
-        <v>0.9986750757486459</v>
+        <v>0.9986750757486436</v>
       </c>
       <c r="M24">
-        <v>1.006245643073311</v>
+        <v>1.006245643073309</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9914398943608539</v>
+        <v>0.991439894360853</v>
       </c>
       <c r="D25">
         <v>1.012973249673347</v>
       </c>
       <c r="E25">
-        <v>1.00270859977349</v>
+        <v>1.002708599773489</v>
       </c>
       <c r="F25">
-        <v>1.01017446916805</v>
+        <v>1.010174469168049</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1316,13 +1316,13 @@
         <v>1.016258814716779</v>
       </c>
       <c r="K25">
-        <v>1.025373456282416</v>
+        <v>1.025373456282415</v>
       </c>
       <c r="L25">
-        <v>1.01526501323343</v>
+        <v>1.015265013233429</v>
       </c>
       <c r="M25">
-        <v>1.02261686643916</v>
+        <v>1.022616866439159</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_22/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005662422709673</v>
+        <v>1.005718112476692</v>
       </c>
       <c r="D2">
-        <v>1.024325518498897</v>
+        <v>1.024371601301542</v>
       </c>
       <c r="E2">
-        <v>1.016137201013076</v>
+        <v>1.016191982845027</v>
       </c>
       <c r="F2">
-        <v>1.02344224954372</v>
+        <v>1.02349160926912</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049181963584815</v>
+        <v>1.049208877240478</v>
       </c>
       <c r="J2">
-        <v>1.027675080728863</v>
+        <v>1.02772913060039</v>
       </c>
       <c r="K2">
-        <v>1.035456051339181</v>
+        <v>1.035501529829383</v>
       </c>
       <c r="L2">
-        <v>1.027376205210799</v>
+        <v>1.027430254047474</v>
       </c>
       <c r="M2">
-        <v>1.034584378423806</v>
+        <v>1.034633089465772</v>
+      </c>
+      <c r="N2">
+        <v>1.013495204942832</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015364967880649</v>
+        <v>1.015406581729881</v>
       </c>
       <c r="D3">
-        <v>1.032078759495314</v>
+        <v>1.032113245771647</v>
       </c>
       <c r="E3">
-        <v>1.025311942651196</v>
+        <v>1.025352925681649</v>
       </c>
       <c r="F3">
-        <v>1.032516330507483</v>
+        <v>1.032553211410736</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053160714050868</v>
+        <v>1.053180879248139</v>
       </c>
       <c r="J3">
-        <v>1.035445355343017</v>
+        <v>1.035485880860627</v>
       </c>
       <c r="K3">
-        <v>1.042317001879548</v>
+        <v>1.042351080257371</v>
       </c>
       <c r="L3">
-        <v>1.035630880663213</v>
+        <v>1.035671370984985</v>
       </c>
       <c r="M3">
-        <v>1.042749399869795</v>
+        <v>1.042785845010303</v>
+      </c>
+      <c r="N3">
+        <v>1.019735845917889</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021389326500268</v>
+        <v>1.021422543090312</v>
       </c>
       <c r="D4">
-        <v>1.03689572234653</v>
+        <v>1.036923273984768</v>
       </c>
       <c r="E4">
-        <v>1.031014244446091</v>
+        <v>1.031046979957605</v>
       </c>
       <c r="F4">
-        <v>1.038160004930617</v>
+        <v>1.038189441772699</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055615447829658</v>
+        <v>1.055631570395863</v>
       </c>
       <c r="J4">
-        <v>1.04026127709643</v>
+        <v>1.040293691161127</v>
       </c>
       <c r="K4">
-        <v>1.046568343330949</v>
+        <v>1.046595590926067</v>
       </c>
       <c r="L4">
-        <v>1.040752227676714</v>
+        <v>1.040784596850642</v>
       </c>
       <c r="M4">
-        <v>1.047818694483116</v>
+        <v>1.047847807450243</v>
+      </c>
+      <c r="N4">
+        <v>1.023584974345933</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023865713749326</v>
+        <v>1.023895550337427</v>
       </c>
       <c r="D5">
-        <v>1.038876352567525</v>
+        <v>1.038901109443532</v>
       </c>
       <c r="E5">
-        <v>1.033359510895313</v>
+        <v>1.033388923415815</v>
       </c>
       <c r="F5">
-        <v>1.040482061573603</v>
+        <v>1.040508502255018</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056620664527613</v>
+        <v>1.056635156251018</v>
       </c>
       <c r="J5">
-        <v>1.042238779844861</v>
+        <v>1.042267919665098</v>
       </c>
       <c r="K5">
-        <v>1.048313746002355</v>
+        <v>1.048338237709706</v>
       </c>
       <c r="L5">
-        <v>1.042856383399906</v>
+        <v>1.04288547674782</v>
       </c>
       <c r="M5">
-        <v>1.049902288404504</v>
+        <v>1.049928446952056</v>
+      </c>
+      <c r="N5">
+        <v>1.025160994781414</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024278332778449</v>
+        <v>1.024307610138403</v>
       </c>
       <c r="D6">
-        <v>1.039206396711022</v>
+        <v>1.039230690995264</v>
       </c>
       <c r="E6">
-        <v>1.033750354288921</v>
+        <v>1.033779216834297</v>
       </c>
       <c r="F6">
-        <v>1.040869088995165</v>
+        <v>1.040895033967159</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056787927747486</v>
+        <v>1.05680214944051</v>
       </c>
       <c r="J6">
-        <v>1.04256814642491</v>
+        <v>1.042596743996994</v>
       </c>
       <c r="K6">
-        <v>1.048604437660503</v>
+        <v>1.048628473042639</v>
       </c>
       <c r="L6">
-        <v>1.043206917681919</v>
+        <v>1.043235468650204</v>
       </c>
       <c r="M6">
-        <v>1.050249444909406</v>
+        <v>1.050275114468568</v>
+      </c>
+      <c r="N6">
+        <v>1.025423226824594</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021422631572226</v>
+        <v>1.021455802432225</v>
       </c>
       <c r="D7">
-        <v>1.036922357924834</v>
+        <v>1.036949871764423</v>
       </c>
       <c r="E7">
-        <v>1.031045781166544</v>
+        <v>1.031078471731799</v>
       </c>
       <c r="F7">
-        <v>1.038191226021292</v>
+        <v>1.038220622325804</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055628982332146</v>
+        <v>1.055645082847776</v>
       </c>
       <c r="J7">
-        <v>1.040287881211699</v>
+        <v>1.040320251012959</v>
       </c>
       <c r="K7">
-        <v>1.046591826043333</v>
+        <v>1.046619036377128</v>
       </c>
       <c r="L7">
-        <v>1.040780530791799</v>
+        <v>1.04081285567192</v>
       </c>
       <c r="M7">
-        <v>1.047846717789404</v>
+        <v>1.047875790796453</v>
+      </c>
+      <c r="N7">
+        <v>1.023606195025138</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008996898906212</v>
+        <v>1.009047671329806</v>
       </c>
       <c r="D8">
-        <v>1.026989356281038</v>
+        <v>1.027031391837717</v>
       </c>
       <c r="E8">
-        <v>1.019289022108712</v>
+        <v>1.0193389871373</v>
       </c>
       <c r="F8">
-        <v>1.026558626785469</v>
+        <v>1.026603627061979</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050552635933941</v>
+        <v>1.050577195961673</v>
       </c>
       <c r="J8">
-        <v>1.030347300701336</v>
+        <v>1.030396636105418</v>
       </c>
       <c r="K8">
-        <v>1.037815740545019</v>
+        <v>1.037857243494544</v>
       </c>
       <c r="L8">
-        <v>1.030213899643276</v>
+        <v>1.030263219580169</v>
       </c>
       <c r="M8">
-        <v>1.03739047170073</v>
+        <v>1.037434901210452</v>
+      </c>
+      <c r="N8">
+        <v>1.015645369739865</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9849200081403804</v>
+        <v>0.9850083655808043</v>
       </c>
       <c r="D9">
-        <v>1.007775119107248</v>
+        <v>1.007847982600802</v>
       </c>
       <c r="E9">
-        <v>0.9965607227080854</v>
+        <v>0.9966474025078782</v>
       </c>
       <c r="F9">
-        <v>1.004105377522446</v>
+        <v>1.00418369593034</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040589273220777</v>
+        <v>1.04063172141474</v>
       </c>
       <c r="J9">
-        <v>1.011016753455186</v>
+        <v>1.011101855316211</v>
       </c>
       <c r="K9">
-        <v>1.020743297488663</v>
+        <v>1.020815002187646</v>
       </c>
       <c r="L9">
-        <v>1.009709847337141</v>
+        <v>1.009795108470552</v>
       </c>
       <c r="M9">
-        <v>1.017132197155184</v>
+        <v>1.017209258320054</v>
+      </c>
+      <c r="N9">
+        <v>1.000008129181211</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9670016862320508</v>
+        <v>0.9671215956746441</v>
       </c>
       <c r="D10">
-        <v>0.9935118983516351</v>
+        <v>0.9936104549162504</v>
       </c>
       <c r="E10">
-        <v>0.9796911214077367</v>
+        <v>0.9798084439193697</v>
       </c>
       <c r="F10">
-        <v>0.9874680390399175</v>
+        <v>0.9875743146027429</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033092545007251</v>
+        <v>1.033149840704987</v>
       </c>
       <c r="J10">
-        <v>0.9965885878641205</v>
+        <v>0.9967032642411808</v>
       </c>
       <c r="K10">
-        <v>1.007999293995494</v>
+        <v>1.008096040921139</v>
       </c>
       <c r="L10">
-        <v>0.994437002790773</v>
+        <v>0.9945520909130828</v>
       </c>
       <c r="M10">
-        <v>1.002067309398027</v>
+        <v>1.002171602315331</v>
+      </c>
+      <c r="N10">
+        <v>0.9882286489040301</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9586835514983246</v>
+        <v>0.9588193446720557</v>
       </c>
       <c r="D11">
-        <v>0.9869030837903559</v>
+        <v>0.9870145120293761</v>
       </c>
       <c r="E11">
-        <v>0.9718731392047167</v>
+        <v>0.9720058276628775</v>
       </c>
       <c r="F11">
-        <v>0.9797655211981067</v>
+        <v>0.9798858632255444</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02959446706742</v>
+        <v>1.029659183239118</v>
       </c>
       <c r="J11">
-        <v>0.9898822110759279</v>
+        <v>0.9900116315602013</v>
       </c>
       <c r="K11">
-        <v>1.002076288672874</v>
+        <v>1.002185542058363</v>
       </c>
       <c r="L11">
-        <v>0.9873457218648845</v>
+        <v>0.9874757139520709</v>
       </c>
       <c r="M11">
-        <v>0.9950793919150444</v>
+        <v>0.9951973399355712</v>
+      </c>
+      <c r="N11">
+        <v>0.9827277495070306</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9554971334239554</v>
+        <v>0.9556392421177066</v>
       </c>
       <c r="D12">
-        <v>0.9843737430154433</v>
+        <v>0.984490277771943</v>
       </c>
       <c r="E12">
-        <v>0.9688805846125363</v>
+        <v>0.9690193718143371</v>
       </c>
       <c r="F12">
-        <v>0.9768184575189303</v>
+        <v>0.9769443907985117</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028251939575866</v>
+        <v>1.028319596635491</v>
       </c>
       <c r="J12">
-        <v>0.9873121060642918</v>
+        <v>0.9874473634692074</v>
       </c>
       <c r="K12">
-        <v>0.9998065682565072</v>
+        <v>0.9999207765506142</v>
       </c>
       <c r="L12">
-        <v>0.9846292963472949</v>
+        <v>0.9847651945968569</v>
       </c>
       <c r="M12">
-        <v>0.992403675702071</v>
+        <v>0.9925270433972936</v>
+      </c>
+      <c r="N12">
+        <v>0.9806157845201493</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.956185240836067</v>
+        <v>0.9563259744185627</v>
       </c>
       <c r="D13">
-        <v>0.9849198439943395</v>
+        <v>0.9850352674281138</v>
       </c>
       <c r="E13">
-        <v>0.9695267199959412</v>
+        <v>0.9696641798089514</v>
       </c>
       <c r="F13">
-        <v>0.9774547103595755</v>
+        <v>0.9775794263140918</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028541969169693</v>
+        <v>1.028608986349104</v>
       </c>
       <c r="J13">
-        <v>0.9878671670712176</v>
+        <v>0.9880011547824457</v>
       </c>
       <c r="K13">
-        <v>1.000296746480895</v>
+        <v>1.000409876762361</v>
       </c>
       <c r="L13">
-        <v>0.9852159039341225</v>
+        <v>0.9853505171458026</v>
       </c>
       <c r="M13">
-        <v>0.9929814403434191</v>
+        <v>0.9931036284501582</v>
+      </c>
+      <c r="N13">
+        <v>0.9810720743220688</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9584222170228351</v>
+        <v>0.9585585231936153</v>
       </c>
       <c r="D14">
-        <v>0.9866955907393816</v>
+        <v>0.9868074340103725</v>
       </c>
       <c r="E14">
-        <v>0.9716276568733136</v>
+        <v>0.9717608409497281</v>
       </c>
       <c r="F14">
-        <v>0.9795237436477405</v>
+        <v>0.9796445398793213</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029484409381239</v>
+        <v>1.029549364635407</v>
       </c>
       <c r="J14">
-        <v>0.9896714447280383</v>
+        <v>0.9898013398659852</v>
       </c>
       <c r="K14">
-        <v>1.001890151931746</v>
+        <v>1.001999808166498</v>
       </c>
       <c r="L14">
-        <v>0.9871229320652922</v>
+        <v>0.9872534043124848</v>
       </c>
       <c r="M14">
-        <v>0.9948599178341805</v>
+        <v>0.9949783062885821</v>
+      </c>
+      <c r="N14">
+        <v>0.9825546311710744</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9597872526282868</v>
+        <v>0.9599208888880614</v>
       </c>
       <c r="D15">
-        <v>0.9877794901457745</v>
+        <v>0.9878891729026542</v>
       </c>
       <c r="E15">
-        <v>0.9729099850873086</v>
+        <v>0.9730405892552795</v>
       </c>
       <c r="F15">
-        <v>0.9807867722445098</v>
+        <v>0.9809052044830935</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030059175803861</v>
+        <v>1.030122886355058</v>
       </c>
       <c r="J15">
-        <v>0.9907723030050434</v>
+        <v>0.9908997267531126</v>
       </c>
       <c r="K15">
-        <v>1.00286237423717</v>
+        <v>1.00296993310386</v>
       </c>
       <c r="L15">
-        <v>0.9882866384845393</v>
+        <v>0.9884146109148522</v>
       </c>
       <c r="M15">
-        <v>0.9960063507770411</v>
+        <v>0.9961224465804027</v>
+      </c>
+      <c r="N15">
+        <v>0.9834586942403271</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9675409298890413</v>
+        <v>0.9676598384053441</v>
       </c>
       <c r="D16">
-        <v>0.9939406197633234</v>
+        <v>0.9940383638224728</v>
       </c>
       <c r="E16">
-        <v>0.9801982352366315</v>
+        <v>0.9803145881216286</v>
       </c>
       <c r="F16">
-        <v>0.9879678328785128</v>
+        <v>0.9880732218403036</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033318963246423</v>
+        <v>1.033375790159962</v>
       </c>
       <c r="J16">
-        <v>0.9970231854976269</v>
+        <v>0.9971369296226532</v>
       </c>
       <c r="K16">
-        <v>1.008383144584637</v>
+        <v>1.008479101218332</v>
       </c>
       <c r="L16">
-        <v>0.9948967036771724</v>
+        <v>0.9950108501797169</v>
       </c>
       <c r="M16">
-        <v>1.002520456204253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.00262388744728</v>
+      </c>
+      <c r="N16">
+        <v>0.9885846033100412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9722467405050974</v>
+        <v>0.9723570557387409</v>
       </c>
       <c r="D17">
-        <v>0.9976833716661835</v>
+        <v>0.9977741332602905</v>
       </c>
       <c r="E17">
-        <v>0.9846251662507576</v>
+        <v>0.9847331880120613</v>
       </c>
       <c r="F17">
-        <v>0.9923317459420821</v>
+        <v>0.9924295222911177</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035292868549662</v>
+        <v>1.035345664920372</v>
       </c>
       <c r="J17">
-        <v>1.000814858144195</v>
+        <v>1.00092058288388</v>
       </c>
       <c r="K17">
-        <v>1.011732142060196</v>
+        <v>1.011821302866815</v>
       </c>
       <c r="L17">
-        <v>0.9989082514833723</v>
+        <v>0.9990143017345889</v>
       </c>
       <c r="M17">
-        <v>1.006475576732042</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.006571604349186</v>
+      </c>
+      <c r="N17">
+        <v>0.9916872958456393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9749385714048215</v>
+        <v>0.975044082017513</v>
       </c>
       <c r="D18">
-        <v>0.9998254406882336</v>
+        <v>0.9999122929220038</v>
       </c>
       <c r="E18">
-        <v>0.987158683116264</v>
+        <v>0.9872620416810346</v>
       </c>
       <c r="F18">
-        <v>0.9948299138529705</v>
+        <v>0.9949234332624377</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036420319140406</v>
+        <v>1.036470857331466</v>
       </c>
       <c r="J18">
-        <v>1.002982986550166</v>
+        <v>1.003084215122167</v>
       </c>
       <c r="K18">
-        <v>1.013647187933662</v>
+        <v>1.01373254047609</v>
       </c>
       <c r="L18">
-        <v>1.001202818090787</v>
+        <v>1.001304332028728</v>
       </c>
       <c r="M18">
-        <v>1.008738490492929</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.00883037402725</v>
+      </c>
+      <c r="N18">
+        <v>0.9934590831962347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9758477692168394</v>
+        <v>0.9759516747139473</v>
       </c>
       <c r="D19">
-        <v>1.00054913085214</v>
+        <v>1.000634676193574</v>
       </c>
       <c r="E19">
-        <v>0.9880146069142105</v>
+        <v>0.9881164067816786</v>
       </c>
       <c r="F19">
-        <v>0.9956740137144253</v>
+        <v>0.9957661108833047</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036800841566363</v>
+        <v>1.036850624597253</v>
       </c>
       <c r="J19">
-        <v>1.003715158419263</v>
+        <v>1.003814882909906</v>
       </c>
       <c r="K19">
-        <v>1.014293899735064</v>
+        <v>1.014377978625842</v>
       </c>
       <c r="L19">
-        <v>1.001977807645305</v>
+        <v>1.002077804551486</v>
       </c>
       <c r="M19">
-        <v>1.009502892581611</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.009593390928084</v>
+      </c>
+      <c r="N19">
+        <v>0.9940570087497229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9717474151561937</v>
+        <v>0.9718586303729054</v>
       </c>
       <c r="D20">
-        <v>0.9972861144686371</v>
+        <v>0.9973776079195121</v>
       </c>
       <c r="E20">
-        <v>0.9841553043567908</v>
+        <v>0.9842641991978673</v>
       </c>
       <c r="F20">
-        <v>0.991868497239334</v>
+        <v>0.9919670709337773</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035083593675072</v>
+        <v>1.03513681266593</v>
       </c>
       <c r="J20">
-        <v>1.000412612123245</v>
+        <v>1.000519178069975</v>
       </c>
       <c r="K20">
-        <v>1.011376852733528</v>
+        <v>1.011466726197039</v>
       </c>
       <c r="L20">
-        <v>0.9984826053782507</v>
+        <v>0.9985895045844843</v>
       </c>
       <c r="M20">
-        <v>1.006055852342771</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.006152655844017</v>
+      </c>
+      <c r="N20">
+        <v>0.9913583887074454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9577662683546865</v>
+        <v>0.9579038660259604</v>
       </c>
       <c r="D21">
-        <v>0.986174822093516</v>
+        <v>0.986287710043972</v>
       </c>
       <c r="E21">
-        <v>0.9710115344426804</v>
+        <v>0.9711459660873238</v>
       </c>
       <c r="F21">
-        <v>0.9789169408196495</v>
+        <v>0.9790388805077562</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029208125141708</v>
+        <v>1.029273682142929</v>
       </c>
       <c r="J21">
-        <v>0.9891424048842857</v>
+        <v>0.9892734945724276</v>
       </c>
       <c r="K21">
-        <v>1.001422937367873</v>
+        <v>1.001533607507155</v>
       </c>
       <c r="L21">
-        <v>0.986563731565688</v>
+        <v>0.9866954123185538</v>
       </c>
       <c r="M21">
-        <v>0.9943090579619787</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9944285550742278</v>
+      </c>
+      <c r="N21">
+        <v>0.9821200293083524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9484077973293611</v>
+        <v>0.9485644493622961</v>
       </c>
       <c r="D22">
-        <v>0.9787510883778017</v>
+        <v>0.9788793581983967</v>
       </c>
       <c r="E22">
-        <v>0.9622271329318751</v>
+        <v>0.9623799411453252</v>
       </c>
       <c r="F22">
-        <v>0.9702686991532913</v>
+        <v>0.9704075038711057</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025260539938108</v>
+        <v>1.025334949236904</v>
       </c>
       <c r="J22">
-        <v>0.98159216185224</v>
+        <v>0.9817408072996423</v>
       </c>
       <c r="K22">
-        <v>0.994755579196179</v>
+        <v>0.9948811603973348</v>
       </c>
       <c r="L22">
-        <v>0.9785859463274429</v>
+        <v>0.9787354037824586</v>
       </c>
       <c r="M22">
-        <v>0.9864530787753352</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9865889062570606</v>
+      </c>
+      <c r="N22">
+        <v>0.9759083708944948</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9534277563142856</v>
+        <v>0.9535740386161667</v>
       </c>
       <c r="D23">
-        <v>0.9827318001464921</v>
+        <v>0.9828517060331465</v>
       </c>
       <c r="E23">
-        <v>0.966937788896576</v>
+        <v>0.9670806030922663</v>
       </c>
       <c r="F23">
-        <v>0.9749055766627547</v>
+        <v>0.9750352043463905</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027379365094389</v>
+        <v>1.027448962722614</v>
       </c>
       <c r="J23">
-        <v>0.9856426993161214</v>
+        <v>0.9857818062944456</v>
       </c>
       <c r="K23">
-        <v>0.998332336254754</v>
+        <v>0.9984498135758186</v>
       </c>
       <c r="L23">
-        <v>0.982865186464367</v>
+        <v>0.9830049817590776</v>
       </c>
       <c r="M23">
-        <v>0.9906663307330268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9907932770261235</v>
+      </c>
+      <c r="N23">
+        <v>0.9792428821620297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9719732016106561</v>
+        <v>0.9720840095278198</v>
       </c>
       <c r="D24">
-        <v>0.9974657439457039</v>
+        <v>0.9975569062016238</v>
       </c>
       <c r="E24">
-        <v>0.9843677641816053</v>
+        <v>0.9844762639146629</v>
       </c>
       <c r="F24">
-        <v>0.9920779645222563</v>
+        <v>0.9921761773691443</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035178229433534</v>
+        <v>1.035231257176433</v>
       </c>
       <c r="J24">
-        <v>1.000594503440152</v>
+        <v>1.000700688726026</v>
       </c>
       <c r="K24">
-        <v>1.011537510605348</v>
+        <v>1.011627061573256</v>
       </c>
       <c r="L24">
-        <v>0.9986750757486436</v>
+        <v>0.9987815907787188</v>
       </c>
       <c r="M24">
-        <v>1.006245643073309</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.006342095452083</v>
+      </c>
+      <c r="N24">
+        <v>0.9915071243675533</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.991439894360853</v>
+        <v>0.991517574376547</v>
       </c>
       <c r="D25">
-        <v>1.012973249673347</v>
+        <v>1.013037380185261</v>
       </c>
       <c r="E25">
-        <v>1.002708599773489</v>
+        <v>1.002784873143558</v>
       </c>
       <c r="F25">
-        <v>1.010174469168049</v>
+        <v>1.010243323345379</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043301397788485</v>
+        <v>1.043338787397866</v>
       </c>
       <c r="J25">
-        <v>1.016258814716779</v>
+        <v>1.016333817352512</v>
       </c>
       <c r="K25">
-        <v>1.025373456282415</v>
+        <v>1.02543662352638</v>
       </c>
       <c r="L25">
-        <v>1.015265013233429</v>
+        <v>1.015340110824826</v>
       </c>
       <c r="M25">
-        <v>1.022616866439159</v>
+        <v>1.02268467909026</v>
+      </c>
+      <c r="N25">
+        <v>1.004266633268884</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_22/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005718112476692</v>
+        <v>1.038022540929286</v>
       </c>
       <c r="D2">
-        <v>1.024371601301542</v>
+        <v>1.052227927183002</v>
       </c>
       <c r="E2">
-        <v>1.016191982845027</v>
+        <v>1.055411403813262</v>
       </c>
       <c r="F2">
-        <v>1.02349160926912</v>
+        <v>1.061443071524171</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049208877240478</v>
+        <v>1.057246834399922</v>
       </c>
       <c r="J2">
-        <v>1.02772913060039</v>
+        <v>1.059122574803118</v>
       </c>
       <c r="K2">
-        <v>1.035501529829383</v>
+        <v>1.063004613934213</v>
       </c>
       <c r="L2">
-        <v>1.027430254047474</v>
+        <v>1.066149197384206</v>
       </c>
       <c r="M2">
-        <v>1.034633089465772</v>
+        <v>1.072107968881302</v>
       </c>
       <c r="N2">
-        <v>1.013495204942832</v>
+        <v>1.060626650342396</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015406581729881</v>
+        <v>1.04646207881122</v>
       </c>
       <c r="D3">
-        <v>1.032113245771647</v>
+        <v>1.058925029485624</v>
       </c>
       <c r="E3">
-        <v>1.025352925681649</v>
+        <v>1.063239177579406</v>
       </c>
       <c r="F3">
-        <v>1.032553211410736</v>
+        <v>1.068943774840312</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053180879248139</v>
+        <v>1.059878644118044</v>
       </c>
       <c r="J3">
-        <v>1.035485880860627</v>
+        <v>1.065761572361118</v>
       </c>
       <c r="K3">
-        <v>1.042351080257371</v>
+        <v>1.068855633726333</v>
       </c>
       <c r="L3">
-        <v>1.035671370984985</v>
+        <v>1.073122125747887</v>
       </c>
       <c r="M3">
-        <v>1.042785845010303</v>
+        <v>1.078764432079407</v>
       </c>
       <c r="N3">
-        <v>1.019735845917889</v>
+        <v>1.067275076038432</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021422543090312</v>
+        <v>1.051751655792228</v>
       </c>
       <c r="D4">
-        <v>1.036923273984768</v>
+        <v>1.063124019357446</v>
       </c>
       <c r="E4">
-        <v>1.031046979957605</v>
+        <v>1.068150644235824</v>
       </c>
       <c r="F4">
-        <v>1.038189441772699</v>
+        <v>1.073649513863362</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055631570395863</v>
+        <v>1.061514966707529</v>
       </c>
       <c r="J4">
-        <v>1.040293691161127</v>
+        <v>1.069918197329043</v>
       </c>
       <c r="K4">
-        <v>1.046595590926067</v>
+        <v>1.072515915528801</v>
       </c>
       <c r="L4">
-        <v>1.040784596850642</v>
+        <v>1.077490660169791</v>
       </c>
       <c r="M4">
-        <v>1.047847807450243</v>
+        <v>1.082933453053956</v>
       </c>
       <c r="N4">
-        <v>1.023584974345933</v>
+        <v>1.071437603890583</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023895550337427</v>
+        <v>1.053936857587291</v>
       </c>
       <c r="D5">
-        <v>1.038901109443532</v>
+        <v>1.064858929035665</v>
       </c>
       <c r="E5">
-        <v>1.033388923415815</v>
+        <v>1.070180834104985</v>
       </c>
       <c r="F5">
-        <v>1.040508502255018</v>
+        <v>1.075594520338645</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056635156251018</v>
+        <v>1.062187721688987</v>
       </c>
       <c r="J5">
-        <v>1.042267919665098</v>
+        <v>1.071634225687477</v>
       </c>
       <c r="K5">
-        <v>1.048338237709706</v>
+        <v>1.074026287161665</v>
       </c>
       <c r="L5">
-        <v>1.04288547674782</v>
+        <v>1.079294849260565</v>
       </c>
       <c r="M5">
-        <v>1.049928446952056</v>
+        <v>1.084654930024181</v>
       </c>
       <c r="N5">
-        <v>1.025160994781414</v>
+        <v>1.073156069206117</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024307610138403</v>
+        <v>1.054301570980271</v>
       </c>
       <c r="D6">
-        <v>1.039230690995264</v>
+        <v>1.065148499247766</v>
       </c>
       <c r="E6">
-        <v>1.033779216834297</v>
+        <v>1.070519743473043</v>
       </c>
       <c r="F6">
-        <v>1.040895033967159</v>
+        <v>1.075919200531044</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05680214944051</v>
+        <v>1.062299813372595</v>
       </c>
       <c r="J6">
-        <v>1.042596743996994</v>
+        <v>1.071920564729402</v>
       </c>
       <c r="K6">
-        <v>1.048628473042639</v>
+        <v>1.074278265416236</v>
       </c>
       <c r="L6">
-        <v>1.043235468650204</v>
+        <v>1.079595938537768</v>
       </c>
       <c r="M6">
-        <v>1.050275114468568</v>
+        <v>1.084942197163625</v>
       </c>
       <c r="N6">
-        <v>1.025423226824594</v>
+        <v>1.073442814882325</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021455802432225</v>
+        <v>1.051781002864031</v>
       </c>
       <c r="D7">
-        <v>1.036949871764423</v>
+        <v>1.063147318219689</v>
       </c>
       <c r="E7">
-        <v>1.031078471731799</v>
+        <v>1.068177904903296</v>
       </c>
       <c r="F7">
-        <v>1.038220622325804</v>
+        <v>1.073675631317983</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055645082847776</v>
+        <v>1.06152401463981</v>
       </c>
       <c r="J7">
-        <v>1.040320251012959</v>
+        <v>1.069941248019966</v>
       </c>
       <c r="K7">
-        <v>1.046619036377128</v>
+        <v>1.072536206705699</v>
       </c>
       <c r="L7">
-        <v>1.04081285567192</v>
+        <v>1.077514892417492</v>
       </c>
       <c r="M7">
-        <v>1.047875790796453</v>
+        <v>1.082956575647444</v>
       </c>
       <c r="N7">
-        <v>1.023606195025138</v>
+        <v>1.071460687316132</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009047671329806</v>
+        <v>1.040911778672485</v>
       </c>
       <c r="D8">
-        <v>1.027031391837717</v>
+        <v>1.054520257918424</v>
       </c>
       <c r="E8">
-        <v>1.0193389871373</v>
+        <v>1.058090027742197</v>
       </c>
       <c r="F8">
-        <v>1.026603627061979</v>
+        <v>1.064009867258495</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050577195961673</v>
+        <v>1.058150567407746</v>
       </c>
       <c r="J8">
-        <v>1.030396636105418</v>
+        <v>1.061396300660315</v>
       </c>
       <c r="K8">
-        <v>1.037857243494544</v>
+        <v>1.065009089656831</v>
       </c>
       <c r="L8">
-        <v>1.030263219580169</v>
+        <v>1.068536684327933</v>
       </c>
       <c r="M8">
-        <v>1.037434901210452</v>
+        <v>1.074387354871823</v>
       </c>
       <c r="N8">
-        <v>1.015645369739865</v>
+        <v>1.06290360515111</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9850083655808043</v>
+        <v>1.020320828228868</v>
       </c>
       <c r="D9">
-        <v>1.007847982600802</v>
+        <v>1.038195267957271</v>
       </c>
       <c r="E9">
-        <v>0.9966474025078782</v>
+        <v>1.039027201210566</v>
       </c>
       <c r="F9">
-        <v>1.00418369593034</v>
+        <v>1.045741698571746</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04063172141474</v>
+        <v>1.051655676540523</v>
       </c>
       <c r="J9">
-        <v>1.011101855316211</v>
+        <v>1.045175862861482</v>
       </c>
       <c r="K9">
-        <v>1.020815002187646</v>
+        <v>1.050697623905509</v>
       </c>
       <c r="L9">
-        <v>1.009795108470552</v>
+        <v>1.051517304482716</v>
       </c>
       <c r="M9">
-        <v>1.017209258320054</v>
+        <v>1.058133815632726</v>
       </c>
       <c r="N9">
-        <v>1.000008129181211</v>
+        <v>1.046660132470093</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9671215956746441</v>
+        <v>1.005425724664565</v>
       </c>
       <c r="D10">
-        <v>0.9936104549162504</v>
+        <v>1.02640839399325</v>
       </c>
       <c r="E10">
-        <v>0.9798084439193697</v>
+        <v>1.025277614677646</v>
       </c>
       <c r="F10">
-        <v>0.9875743146027429</v>
+        <v>1.032565084691867</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033149840704987</v>
+        <v>1.046891636432605</v>
       </c>
       <c r="J10">
-        <v>0.9967032642411808</v>
+        <v>1.033425715620728</v>
       </c>
       <c r="K10">
-        <v>1.008096040921139</v>
+        <v>1.04031666364666</v>
       </c>
       <c r="L10">
-        <v>0.9945520909130828</v>
+        <v>1.039204995185889</v>
       </c>
       <c r="M10">
-        <v>1.002171602315331</v>
+        <v>1.046370248252001</v>
       </c>
       <c r="N10">
-        <v>0.9882286489040301</v>
+        <v>1.034893298672496</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9588193446720557</v>
+        <v>0.9986449512920673</v>
       </c>
       <c r="D11">
-        <v>0.9870145120293761</v>
+        <v>1.021050478216623</v>
       </c>
       <c r="E11">
-        <v>0.9720058276628775</v>
+        <v>1.01902980237353</v>
       </c>
       <c r="F11">
-        <v>0.9798858632255444</v>
+        <v>1.02657807478212</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029659183239118</v>
+        <v>1.044708651151713</v>
       </c>
       <c r="J11">
-        <v>0.9900116315602013</v>
+        <v>1.028074210729035</v>
       </c>
       <c r="K11">
-        <v>1.002185542058363</v>
+        <v>1.035586040077569</v>
       </c>
       <c r="L11">
-        <v>0.9874757139520709</v>
+        <v>1.033601551330948</v>
       </c>
       <c r="M11">
-        <v>0.9951973399355712</v>
+        <v>1.041015589757452</v>
       </c>
       <c r="N11">
-        <v>0.9827277495070306</v>
+        <v>1.02953419403003</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9556392421177066</v>
+        <v>0.9960710676001254</v>
       </c>
       <c r="D12">
-        <v>0.984490277771943</v>
+        <v>1.01901812890197</v>
       </c>
       <c r="E12">
-        <v>0.9690193718143371</v>
+        <v>1.016660140476395</v>
       </c>
       <c r="F12">
-        <v>0.9769443907985117</v>
+        <v>1.024307444827671</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028319596635491</v>
+        <v>1.043878021550973</v>
       </c>
       <c r="J12">
-        <v>0.9874473634692074</v>
+        <v>1.026042642730044</v>
       </c>
       <c r="K12">
-        <v>0.9999207765506142</v>
+        <v>1.033789821833184</v>
       </c>
       <c r="L12">
-        <v>0.9847651945968569</v>
+        <v>1.03147497065657</v>
       </c>
       <c r="M12">
-        <v>0.9925270433972936</v>
+        <v>1.038983313373338</v>
       </c>
       <c r="N12">
-        <v>0.9806157845201493</v>
+        <v>1.027499740971457</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9563259744185627</v>
+        <v>0.9966257693080551</v>
       </c>
       <c r="D13">
-        <v>0.9850352674281138</v>
+        <v>1.019456054382003</v>
       </c>
       <c r="E13">
-        <v>0.9696641798089514</v>
+        <v>1.017170740165079</v>
       </c>
       <c r="F13">
-        <v>0.9775794263140918</v>
+        <v>1.024796699698581</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028608986349104</v>
+        <v>1.044057119660649</v>
       </c>
       <c r="J13">
-        <v>0.9880011547824457</v>
+        <v>1.026480476152061</v>
       </c>
       <c r="K13">
-        <v>1.000409876762361</v>
+        <v>1.034176948827263</v>
       </c>
       <c r="L13">
-        <v>0.9853505171458026</v>
+        <v>1.031933252066357</v>
       </c>
       <c r="M13">
-        <v>0.9931036284501582</v>
+        <v>1.039421276638772</v>
       </c>
       <c r="N13">
-        <v>0.9810720743220688</v>
+        <v>1.027938196167153</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9585585231936153</v>
+        <v>0.998433353952015</v>
       </c>
       <c r="D14">
-        <v>0.9868074340103725</v>
+        <v>1.02088336936206</v>
       </c>
       <c r="E14">
-        <v>0.9717608409497281</v>
+        <v>1.018834953936538</v>
       </c>
       <c r="F14">
-        <v>0.9796445398793213</v>
+        <v>1.026391366735948</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029549364635407</v>
+        <v>1.044640405282605</v>
       </c>
       <c r="J14">
-        <v>0.9898013398659852</v>
+        <v>1.027907200214499</v>
       </c>
       <c r="K14">
-        <v>1.001999808166498</v>
+        <v>1.035438383936229</v>
       </c>
       <c r="L14">
-        <v>0.9872534043124848</v>
+        <v>1.033426717192834</v>
       </c>
       <c r="M14">
-        <v>0.9949783062885821</v>
+        <v>1.040848510830707</v>
       </c>
       <c r="N14">
-        <v>0.9825546311710744</v>
+        <v>1.029366946341407</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9599208888880614</v>
+        <v>0.9995395740667088</v>
       </c>
       <c r="D15">
-        <v>0.9878891729026542</v>
+        <v>1.021757065911407</v>
       </c>
       <c r="E15">
-        <v>0.9730405892552795</v>
+        <v>1.019853690681048</v>
       </c>
       <c r="F15">
-        <v>0.9809052044830935</v>
+        <v>1.027367547610671</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030122886355058</v>
+        <v>1.044997110891647</v>
       </c>
       <c r="J15">
-        <v>0.9908997267531126</v>
+        <v>1.02878031493652</v>
       </c>
       <c r="K15">
-        <v>1.00296993310386</v>
+        <v>1.036210301897855</v>
       </c>
       <c r="L15">
-        <v>0.9884146109148522</v>
+        <v>1.034340758715087</v>
       </c>
       <c r="M15">
-        <v>0.9961224465804027</v>
+        <v>1.041722003324131</v>
       </c>
       <c r="N15">
-        <v>0.9834586942403271</v>
+        <v>1.030241300986481</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9676598384053441</v>
+        <v>1.005868319079067</v>
       </c>
       <c r="D16">
-        <v>0.9940383638224728</v>
+        <v>1.026758298925653</v>
       </c>
       <c r="E16">
-        <v>0.9803145881216286</v>
+        <v>1.025685674220728</v>
       </c>
       <c r="F16">
-        <v>0.9880732218403036</v>
+        <v>1.032956123691633</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033375790159962</v>
+        <v>1.047033841641835</v>
       </c>
       <c r="J16">
-        <v>0.9971369296226532</v>
+        <v>1.033774980942254</v>
       </c>
       <c r="K16">
-        <v>1.008479101218332</v>
+        <v>1.040625355761372</v>
       </c>
       <c r="L16">
-        <v>0.9950108501797169</v>
+        <v>1.039570788946379</v>
       </c>
       <c r="M16">
-        <v>1.00262388744728</v>
+        <v>1.046719784033457</v>
       </c>
       <c r="N16">
-        <v>0.9885846033100412</v>
+        <v>1.03524305999084</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9723570557387409</v>
+        <v>1.009745927167583</v>
       </c>
       <c r="D17">
-        <v>0.9977741332602905</v>
+        <v>1.029824759846516</v>
       </c>
       <c r="E17">
-        <v>0.9847331880120613</v>
+        <v>1.029262030926371</v>
       </c>
       <c r="F17">
-        <v>0.9924295222911177</v>
+        <v>1.036383362295882</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035345664920372</v>
+        <v>1.048278128451014</v>
       </c>
       <c r="J17">
-        <v>1.00092058288388</v>
+        <v>1.036834667777819</v>
       </c>
       <c r="K17">
-        <v>1.011821302866815</v>
+        <v>1.043329308814533</v>
       </c>
       <c r="L17">
-        <v>0.9990143017345889</v>
+        <v>1.04277573249502</v>
       </c>
       <c r="M17">
-        <v>1.006571604349186</v>
+        <v>1.049782177544476</v>
       </c>
       <c r="N17">
-        <v>0.9916872958456393</v>
+        <v>1.038307091932662</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.975044082017513</v>
+        <v>1.011976133890123</v>
       </c>
       <c r="D18">
-        <v>0.9999122929220038</v>
+        <v>1.031589155122625</v>
       </c>
       <c r="E18">
-        <v>0.9872620416810346</v>
+        <v>1.031320034043502</v>
       </c>
       <c r="F18">
-        <v>0.9949234332624377</v>
+        <v>1.038355594005258</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036470857331466</v>
+        <v>1.04899243865738</v>
       </c>
       <c r="J18">
-        <v>1.003084215122167</v>
+        <v>1.03859420924356</v>
       </c>
       <c r="K18">
-        <v>1.01373254047609</v>
+        <v>1.044884020846017</v>
       </c>
       <c r="L18">
-        <v>1.001304332028728</v>
+        <v>1.044619189084025</v>
       </c>
       <c r="M18">
-        <v>1.00883037402725</v>
+        <v>1.051543549288966</v>
       </c>
       <c r="N18">
-        <v>0.9934590831962347</v>
+        <v>1.040069132149107</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9759516747139473</v>
+        <v>1.012731380268681</v>
       </c>
       <c r="D19">
-        <v>1.000634676193574</v>
+        <v>1.032186772367632</v>
       </c>
       <c r="E19">
-        <v>0.9881164067816786</v>
+        <v>1.032017139427044</v>
       </c>
       <c r="F19">
-        <v>0.9957661108833047</v>
+        <v>1.039023651264643</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036850624597253</v>
+        <v>1.049234104266884</v>
       </c>
       <c r="J19">
-        <v>1.003814882909906</v>
+        <v>1.039190023163838</v>
       </c>
       <c r="K19">
-        <v>1.014377978625842</v>
+        <v>1.04541043063426</v>
       </c>
       <c r="L19">
-        <v>1.002077804551486</v>
+        <v>1.045243482641282</v>
       </c>
       <c r="M19">
-        <v>1.009593390928084</v>
+        <v>1.052140028199678</v>
       </c>
       <c r="N19">
-        <v>0.9940570087497229</v>
+        <v>1.040665792193493</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9718586303729054</v>
+        <v>1.009333195313049</v>
       </c>
       <c r="D20">
-        <v>0.9973776079195121</v>
+        <v>1.029498289785869</v>
       </c>
       <c r="E20">
-        <v>0.9842641991978673</v>
+        <v>1.028881252581037</v>
       </c>
       <c r="F20">
-        <v>0.9919670709337773</v>
+        <v>1.036018456420684</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03513681266593</v>
+        <v>1.048145825395035</v>
       </c>
       <c r="J20">
-        <v>1.000519178069975</v>
+        <v>1.036509019032343</v>
       </c>
       <c r="K20">
-        <v>1.011466726197039</v>
+        <v>1.043041547891296</v>
       </c>
       <c r="L20">
-        <v>0.9985895045844843</v>
+        <v>1.04243458395418</v>
       </c>
       <c r="M20">
-        <v>1.006152655844017</v>
+        <v>1.049456211958985</v>
       </c>
       <c r="N20">
-        <v>0.9913583887074454</v>
+        <v>1.037980980728615</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.9579038660259604</v>
+        <v>0.9979026372573508</v>
       </c>
       <c r="D21">
-        <v>0.986287710043972</v>
+        <v>1.020464260245363</v>
       </c>
       <c r="E21">
-        <v>0.9711459660873238</v>
+        <v>1.018346277418738</v>
       </c>
       <c r="F21">
-        <v>0.9790388805077562</v>
+        <v>1.025923108205149</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029273682142929</v>
+        <v>1.044469203150168</v>
       </c>
       <c r="J21">
-        <v>0.9892734945724276</v>
+        <v>1.027488310828811</v>
       </c>
       <c r="K21">
-        <v>1.001533607507155</v>
+        <v>1.035068032976576</v>
       </c>
       <c r="L21">
-        <v>0.9866954123185538</v>
+        <v>1.032988215066915</v>
       </c>
       <c r="M21">
-        <v>0.9944285550742278</v>
+        <v>1.04042945787096</v>
       </c>
       <c r="N21">
-        <v>0.9821200293083524</v>
+        <v>1.028947462084745</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9485644493622961</v>
+        <v>0.9903930504157205</v>
       </c>
       <c r="D22">
-        <v>0.9788793581983967</v>
+        <v>1.014537712134998</v>
       </c>
       <c r="E22">
-        <v>0.9623799411453252</v>
+        <v>1.011436418544339</v>
       </c>
       <c r="F22">
-        <v>0.9704075038711057</v>
+        <v>1.019302303087007</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025334949236904</v>
+        <v>1.042042117207924</v>
       </c>
       <c r="J22">
-        <v>0.9817408072996423</v>
+        <v>1.021560770939297</v>
       </c>
       <c r="K22">
-        <v>0.9948811603973348</v>
+        <v>1.029826572528628</v>
       </c>
       <c r="L22">
-        <v>0.9787354037824586</v>
+        <v>1.026784671954758</v>
       </c>
       <c r="M22">
-        <v>0.9865889062570606</v>
+        <v>1.034500836475388</v>
       </c>
       <c r="N22">
-        <v>0.9759083708944948</v>
+        <v>1.023011504408689</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9535740386161667</v>
+        <v>0.9944066700545137</v>
       </c>
       <c r="D23">
-        <v>0.9828517060331465</v>
+        <v>1.017704353915305</v>
       </c>
       <c r="E23">
-        <v>0.9670806030922663</v>
+        <v>1.015128369648727</v>
       </c>
       <c r="F23">
-        <v>0.9750352043463905</v>
+        <v>1.022839728270215</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027448962722614</v>
+        <v>1.043340351222614</v>
       </c>
       <c r="J23">
-        <v>0.9857818062944456</v>
+        <v>1.02472889306188</v>
       </c>
       <c r="K23">
-        <v>0.9984498135758186</v>
+        <v>1.032628173134188</v>
       </c>
       <c r="L23">
-        <v>0.9830049817590776</v>
+        <v>1.030099958972909</v>
       </c>
       <c r="M23">
-        <v>0.9907932770261235</v>
+        <v>1.037669249515685</v>
       </c>
       <c r="N23">
-        <v>0.9792428821620297</v>
+        <v>1.026184125628074</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9720840095278198</v>
+        <v>1.009519788126291</v>
       </c>
       <c r="D24">
-        <v>0.9975569062016238</v>
+        <v>1.029645882103503</v>
       </c>
       <c r="E24">
-        <v>0.9844762639146629</v>
+        <v>1.029053396180289</v>
       </c>
       <c r="F24">
-        <v>0.9921761773691443</v>
+        <v>1.036183424223417</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035231257176433</v>
+        <v>1.048205642742275</v>
       </c>
       <c r="J24">
-        <v>1.000700688726026</v>
+        <v>1.0366562430094</v>
       </c>
       <c r="K24">
-        <v>1.011627061573256</v>
+        <v>1.043171643797809</v>
       </c>
       <c r="L24">
-        <v>0.9987815907787188</v>
+        <v>1.04258881411561</v>
       </c>
       <c r="M24">
-        <v>1.006342095452083</v>
+        <v>1.049603578329849</v>
       </c>
       <c r="N24">
-        <v>0.9915071243675533</v>
+        <v>1.038128413780607</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.991517574376547</v>
+        <v>1.025833602837342</v>
       </c>
       <c r="D25">
-        <v>1.013037380185261</v>
+        <v>1.042562896480364</v>
       </c>
       <c r="E25">
-        <v>1.002784873143558</v>
+        <v>1.044124628040703</v>
       </c>
       <c r="F25">
-        <v>1.010243323345379</v>
+        <v>1.050626808730533</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043338787397866</v>
+        <v>1.053406091096881</v>
       </c>
       <c r="J25">
-        <v>1.016333817352512</v>
+        <v>1.049521779426073</v>
       </c>
       <c r="K25">
-        <v>1.02543662352638</v>
+        <v>1.054534549296748</v>
       </c>
       <c r="L25">
-        <v>1.015340110824826</v>
+        <v>1.056074513624575</v>
       </c>
       <c r="M25">
-        <v>1.02268467909026</v>
+        <v>1.062486943874293</v>
       </c>
       <c r="N25">
-        <v>1.004266633268884</v>
+        <v>1.051012220734688</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_22/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038022540929286</v>
+        <v>1.024717817717583</v>
       </c>
       <c r="D2">
-        <v>1.052227927183002</v>
+        <v>1.042061166915785</v>
       </c>
       <c r="E2">
-        <v>1.055411403813262</v>
+        <v>1.042771220995463</v>
       </c>
       <c r="F2">
-        <v>1.061443071524171</v>
+        <v>1.050194147858469</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057246834399922</v>
+        <v>1.053230051852265</v>
       </c>
       <c r="J2">
-        <v>1.059122574803118</v>
+        <v>1.046183546320117</v>
       </c>
       <c r="K2">
-        <v>1.063004613934213</v>
+        <v>1.052964047089126</v>
       </c>
       <c r="L2">
-        <v>1.066149197384206</v>
+        <v>1.053665188073516</v>
       </c>
       <c r="M2">
-        <v>1.072107968881302</v>
+        <v>1.060995835300037</v>
       </c>
       <c r="N2">
-        <v>1.060626650342396</v>
+        <v>1.017992351669655</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.04646207881122</v>
+        <v>1.031537449621576</v>
       </c>
       <c r="D3">
-        <v>1.058925029485624</v>
+        <v>1.047389989636244</v>
       </c>
       <c r="E3">
-        <v>1.063239177579406</v>
+        <v>1.049016443715615</v>
       </c>
       <c r="F3">
-        <v>1.068943774840312</v>
+        <v>1.056226290410076</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059878644118044</v>
+        <v>1.055200428932587</v>
       </c>
       <c r="J3">
-        <v>1.065761572361118</v>
+        <v>1.051203795140535</v>
       </c>
       <c r="K3">
-        <v>1.068855633726333</v>
+        <v>1.057450392936217</v>
       </c>
       <c r="L3">
-        <v>1.073122125747887</v>
+        <v>1.059058332055868</v>
       </c>
       <c r="M3">
-        <v>1.078764432079407</v>
+        <v>1.066186949745628</v>
       </c>
       <c r="N3">
-        <v>1.067275076038432</v>
+        <v>1.01977308869695</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.051751655792228</v>
+        <v>1.035832970911994</v>
       </c>
       <c r="D4">
-        <v>1.063124019357446</v>
+        <v>1.050748441173103</v>
       </c>
       <c r="E4">
-        <v>1.068150644235824</v>
+        <v>1.052955558712659</v>
       </c>
       <c r="F4">
-        <v>1.073649513863362</v>
+        <v>1.060030509568381</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061514966707529</v>
+        <v>1.056429774178841</v>
       </c>
       <c r="J4">
-        <v>1.069918197329043</v>
+        <v>1.054362451233303</v>
       </c>
       <c r="K4">
-        <v>1.072515915528801</v>
+        <v>1.060270656168994</v>
       </c>
       <c r="L4">
-        <v>1.077490660169791</v>
+        <v>1.062454257379545</v>
       </c>
       <c r="M4">
-        <v>1.082933453053956</v>
+        <v>1.069454632877213</v>
       </c>
       <c r="N4">
-        <v>1.071437603890583</v>
+        <v>1.020892135524528</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.053936857587291</v>
+        <v>1.037612161415254</v>
       </c>
       <c r="D5">
-        <v>1.064858929035665</v>
+        <v>1.052139878930037</v>
       </c>
       <c r="E5">
-        <v>1.070180834104985</v>
+        <v>1.054588355447863</v>
       </c>
       <c r="F5">
-        <v>1.075594520338645</v>
+        <v>1.061607255767691</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062187721688987</v>
+        <v>1.056936090609789</v>
       </c>
       <c r="J5">
-        <v>1.071634225687477</v>
+        <v>1.05566986572942</v>
       </c>
       <c r="K5">
-        <v>1.074026287161665</v>
+        <v>1.061437391036172</v>
       </c>
       <c r="L5">
-        <v>1.079294849260565</v>
+        <v>1.063860514645311</v>
       </c>
       <c r="M5">
-        <v>1.084654930024181</v>
+        <v>1.07080752683578</v>
       </c>
       <c r="N5">
-        <v>1.073156069206117</v>
+        <v>1.021354979868394</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.054301570980271</v>
+        <v>1.037909372111064</v>
       </c>
       <c r="D6">
-        <v>1.065148499247766</v>
+        <v>1.052372335912766</v>
       </c>
       <c r="E6">
-        <v>1.070519743473043</v>
+        <v>1.054861181684731</v>
       </c>
       <c r="F6">
-        <v>1.075919200531044</v>
+        <v>1.061870708063308</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062299813372595</v>
+        <v>1.057020499307247</v>
       </c>
       <c r="J6">
-        <v>1.071920564729402</v>
+        <v>1.055888213139609</v>
       </c>
       <c r="K6">
-        <v>1.074278265416236</v>
+        <v>1.061632207261726</v>
       </c>
       <c r="L6">
-        <v>1.079595938537768</v>
+        <v>1.064095406691991</v>
       </c>
       <c r="M6">
-        <v>1.084942197163625</v>
+        <v>1.071033489936901</v>
       </c>
       <c r="N6">
-        <v>1.073442814882325</v>
+        <v>1.02143225726478</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.051781002864031</v>
+        <v>1.035856847444702</v>
       </c>
       <c r="D7">
-        <v>1.063147318219689</v>
+        <v>1.05076711272758</v>
       </c>
       <c r="E7">
-        <v>1.068177904903296</v>
+        <v>1.052977465884144</v>
       </c>
       <c r="F7">
-        <v>1.073675631317983</v>
+        <v>1.060051665266072</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.06152401463981</v>
+        <v>1.056436580327661</v>
       </c>
       <c r="J7">
-        <v>1.069941248019966</v>
+        <v>1.054380000178984</v>
       </c>
       <c r="K7">
-        <v>1.072536206705699</v>
+        <v>1.060286319279489</v>
       </c>
       <c r="L7">
-        <v>1.077514892417492</v>
+        <v>1.062473130551626</v>
       </c>
       <c r="M7">
-        <v>1.082956575647444</v>
+        <v>1.069472790903191</v>
       </c>
       <c r="N7">
-        <v>1.071460687316132</v>
+        <v>1.02089834950654</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040911778672485</v>
+        <v>1.027047707864688</v>
       </c>
       <c r="D8">
-        <v>1.054520257918424</v>
+        <v>1.043881261090673</v>
       </c>
       <c r="E8">
-        <v>1.058090027742197</v>
+        <v>1.044903687411985</v>
       </c>
       <c r="F8">
-        <v>1.064009867258495</v>
+        <v>1.052253951619369</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058150567407746</v>
+        <v>1.053905659656825</v>
       </c>
       <c r="J8">
-        <v>1.061396300660315</v>
+        <v>1.047899383991657</v>
       </c>
       <c r="K8">
-        <v>1.065009089656831</v>
+        <v>1.054497912917759</v>
       </c>
       <c r="L8">
-        <v>1.068536684327933</v>
+        <v>1.055507915076656</v>
       </c>
       <c r="M8">
-        <v>1.074387354871823</v>
+        <v>1.062769742803664</v>
       </c>
       <c r="N8">
-        <v>1.06290360515111</v>
+        <v>1.018601253592799</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.020320828228868</v>
+        <v>1.010557170186124</v>
       </c>
       <c r="D9">
-        <v>1.038195267957271</v>
+        <v>1.031011455941834</v>
       </c>
       <c r="E9">
-        <v>1.039027201210566</v>
+        <v>1.029836745656693</v>
       </c>
       <c r="F9">
-        <v>1.045741698571746</v>
+        <v>1.0376989790747</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051655676540523</v>
+        <v>1.049075774577205</v>
       </c>
       <c r="J9">
-        <v>1.045175862861482</v>
+        <v>1.035742557472239</v>
       </c>
       <c r="K9">
-        <v>1.050697623905509</v>
+        <v>1.043620661578254</v>
       </c>
       <c r="L9">
-        <v>1.051517304482716</v>
+        <v>1.042463604089938</v>
       </c>
       <c r="M9">
-        <v>1.058133815632726</v>
+        <v>1.050208656228185</v>
       </c>
       <c r="N9">
-        <v>1.046660132470093</v>
+        <v>1.014282085102038</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.005425724664565</v>
+        <v>0.9988045796120377</v>
       </c>
       <c r="D10">
-        <v>1.02640839399325</v>
+        <v>1.021860319385212</v>
       </c>
       <c r="E10">
-        <v>1.025277614677646</v>
+        <v>1.019136125925103</v>
       </c>
       <c r="F10">
-        <v>1.032565084691867</v>
+        <v>1.027361003538988</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046891636432605</v>
+        <v>1.045575035496694</v>
       </c>
       <c r="J10">
-        <v>1.033425715620728</v>
+        <v>1.027065706881491</v>
       </c>
       <c r="K10">
-        <v>1.04031666364666</v>
+        <v>1.035845786291349</v>
       </c>
       <c r="L10">
-        <v>1.039204995185889</v>
+        <v>1.033168258775347</v>
       </c>
       <c r="M10">
-        <v>1.046370248252001</v>
+        <v>1.041253215621123</v>
       </c>
       <c r="N10">
-        <v>1.034893298672496</v>
+        <v>1.011193791390156</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9986449512920673</v>
+        <v>0.9935077763496577</v>
       </c>
       <c r="D11">
-        <v>1.021050478216623</v>
+        <v>1.017742754384875</v>
       </c>
       <c r="E11">
-        <v>1.01902980237353</v>
+        <v>1.014323685206007</v>
       </c>
       <c r="F11">
-        <v>1.02657807478212</v>
+        <v>1.022711737254691</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044708651151713</v>
+        <v>1.043984385809111</v>
       </c>
       <c r="J11">
-        <v>1.028074210729035</v>
+        <v>1.023153155927282</v>
       </c>
       <c r="K11">
-        <v>1.035586040077569</v>
+        <v>1.032337649692298</v>
       </c>
       <c r="L11">
-        <v>1.033601551330948</v>
+        <v>1.028980440434002</v>
       </c>
       <c r="M11">
-        <v>1.041015589757452</v>
+        <v>1.037217687611673</v>
       </c>
       <c r="N11">
-        <v>1.02953419403003</v>
+        <v>1.00980023932331</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9960710676001254</v>
+        <v>0.9915063859928895</v>
       </c>
       <c r="D12">
-        <v>1.01901812890197</v>
+        <v>1.016188126236181</v>
       </c>
       <c r="E12">
-        <v>1.016660140476395</v>
+        <v>1.012506979921661</v>
       </c>
       <c r="F12">
-        <v>1.024307444827671</v>
+        <v>1.020956671999317</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043878021550973</v>
+        <v>1.043381518296562</v>
       </c>
       <c r="J12">
-        <v>1.026042642730044</v>
+        <v>1.021674612080404</v>
       </c>
       <c r="K12">
-        <v>1.033789821833184</v>
+        <v>1.031011622813255</v>
       </c>
       <c r="L12">
-        <v>1.03147497065657</v>
+        <v>1.027398425565322</v>
       </c>
       <c r="M12">
-        <v>1.038983313373338</v>
+        <v>1.035693095194012</v>
       </c>
       <c r="N12">
-        <v>1.027499740971457</v>
+        <v>1.00927350127525</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9966257693080551</v>
+        <v>0.9919372727360629</v>
       </c>
       <c r="D13">
-        <v>1.019456054382003</v>
+        <v>1.016522771343384</v>
       </c>
       <c r="E13">
-        <v>1.017170740165079</v>
+        <v>1.01289802755547</v>
       </c>
       <c r="F13">
-        <v>1.024796699698581</v>
+        <v>1.021334449186902</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044057119660649</v>
+        <v>1.043511393450394</v>
       </c>
       <c r="J13">
-        <v>1.026480476152061</v>
+        <v>1.021992940144803</v>
       </c>
       <c r="K13">
-        <v>1.034176948827263</v>
+        <v>1.031297127626098</v>
       </c>
       <c r="L13">
-        <v>1.031933252066357</v>
+        <v>1.0277390057259</v>
       </c>
       <c r="M13">
-        <v>1.039421276638772</v>
+        <v>1.036021317831141</v>
       </c>
       <c r="N13">
-        <v>1.027938196167153</v>
+        <v>1.009386911938473</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.998433353952015</v>
+        <v>0.9933430494836596</v>
       </c>
       <c r="D14">
-        <v>1.02088336936206</v>
+        <v>1.017614773679252</v>
       </c>
       <c r="E14">
-        <v>1.018834953936538</v>
+        <v>1.014174124409027</v>
       </c>
       <c r="F14">
-        <v>1.026391366735948</v>
+        <v>1.022567249973012</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044640405282605</v>
+        <v>1.043934802876696</v>
       </c>
       <c r="J14">
-        <v>1.027907200214499</v>
+        <v>1.023031465835252</v>
       </c>
       <c r="K14">
-        <v>1.035438383936229</v>
+        <v>1.032228518437679</v>
       </c>
       <c r="L14">
-        <v>1.033426717192834</v>
+        <v>1.02885022301788</v>
       </c>
       <c r="M14">
-        <v>1.040848510830707</v>
+        <v>1.037092198767264</v>
       </c>
       <c r="N14">
-        <v>1.029366946341407</v>
+        <v>1.009756888883055</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9995395740667088</v>
+        <v>0.9942046140854649</v>
       </c>
       <c r="D15">
-        <v>1.021757065911407</v>
+        <v>1.018284195635304</v>
       </c>
       <c r="E15">
-        <v>1.019853690681048</v>
+        <v>1.014956435196395</v>
       </c>
       <c r="F15">
-        <v>1.027367547610671</v>
+        <v>1.023323024482516</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044997110891647</v>
+        <v>1.044194060230687</v>
       </c>
       <c r="J15">
-        <v>1.02878031493652</v>
+        <v>1.023667929702188</v>
       </c>
       <c r="K15">
-        <v>1.036210301897855</v>
+        <v>1.032799284639064</v>
       </c>
       <c r="L15">
-        <v>1.034340758715087</v>
+        <v>1.029531309010911</v>
       </c>
       <c r="M15">
-        <v>1.041722003324131</v>
+        <v>1.037748548296803</v>
       </c>
       <c r="N15">
-        <v>1.030241300986481</v>
+        <v>1.009983615863718</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.005868319079067</v>
+        <v>0.9991515087576444</v>
       </c>
       <c r="D16">
-        <v>1.026758298925653</v>
+        <v>1.022130165472852</v>
       </c>
       <c r="E16">
-        <v>1.025685674220728</v>
+        <v>1.019451553419731</v>
       </c>
       <c r="F16">
-        <v>1.032956123691633</v>
+        <v>1.027665739970453</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047033841641835</v>
+        <v>1.045678960094482</v>
       </c>
       <c r="J16">
-        <v>1.033774980942254</v>
+        <v>1.027321938302372</v>
       </c>
       <c r="K16">
-        <v>1.040625355761372</v>
+        <v>1.036075487978801</v>
       </c>
       <c r="L16">
-        <v>1.039570788946379</v>
+        <v>1.033442593057146</v>
       </c>
       <c r="M16">
-        <v>1.046719784033457</v>
+        <v>1.041517557768235</v>
       </c>
       <c r="N16">
-        <v>1.03524305999084</v>
+        <v>1.011285036635174</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.009745927167583</v>
+        <v>1.002197109266589</v>
       </c>
       <c r="D17">
-        <v>1.029824759846516</v>
+        <v>1.024499859736626</v>
       </c>
       <c r="E17">
-        <v>1.029262030926371</v>
+        <v>1.022221782298721</v>
       </c>
       <c r="F17">
-        <v>1.036383362295882</v>
+        <v>1.03034208740379</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048278128451014</v>
+        <v>1.04658983956136</v>
       </c>
       <c r="J17">
-        <v>1.036834667777819</v>
+        <v>1.029571116849612</v>
       </c>
       <c r="K17">
-        <v>1.043329308814533</v>
+        <v>1.038091534327287</v>
       </c>
       <c r="L17">
-        <v>1.04277573249502</v>
+        <v>1.035851087489336</v>
       </c>
       <c r="M17">
-        <v>1.049782177544476</v>
+        <v>1.043838233537</v>
       </c>
       <c r="N17">
-        <v>1.038307091932662</v>
+        <v>1.012085872135332</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.011976133890123</v>
+        <v>1.003953699155016</v>
       </c>
       <c r="D18">
-        <v>1.031589155122625</v>
+        <v>1.025867238917805</v>
       </c>
       <c r="E18">
-        <v>1.031320034043502</v>
+        <v>1.023820504125587</v>
       </c>
       <c r="F18">
-        <v>1.038355594005258</v>
+        <v>1.031886635045049</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04899243865738</v>
+        <v>1.047113980238929</v>
       </c>
       <c r="J18">
-        <v>1.03859420924356</v>
+        <v>1.030868168132739</v>
       </c>
       <c r="K18">
-        <v>1.044884020846017</v>
+        <v>1.039253924136862</v>
       </c>
       <c r="L18">
-        <v>1.044619189084025</v>
+        <v>1.037240353345135</v>
       </c>
       <c r="M18">
-        <v>1.051543549288966</v>
+        <v>1.045176762797271</v>
       </c>
       <c r="N18">
-        <v>1.040069132149107</v>
+        <v>1.012547601489592</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012731380268681</v>
+        <v>1.00454935963134</v>
       </c>
       <c r="D19">
-        <v>1.032186772367632</v>
+        <v>1.026331019456825</v>
       </c>
       <c r="E19">
-        <v>1.032017139427044</v>
+        <v>1.024362790011991</v>
       </c>
       <c r="F19">
-        <v>1.039023651264643</v>
+        <v>1.032410545189054</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049234104266884</v>
+        <v>1.047291506818441</v>
       </c>
       <c r="J19">
-        <v>1.039190023163838</v>
+        <v>1.031307963412375</v>
       </c>
       <c r="K19">
-        <v>1.04541043063426</v>
+        <v>1.039648021113594</v>
       </c>
       <c r="L19">
-        <v>1.045243482641282</v>
+        <v>1.037711473687021</v>
       </c>
       <c r="M19">
-        <v>1.052140028199678</v>
+        <v>1.045630663310994</v>
       </c>
       <c r="N19">
-        <v>1.040665792193493</v>
+        <v>1.012704144611069</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.009333195313049</v>
+        <v>1.00187241758361</v>
       </c>
       <c r="D20">
-        <v>1.029498289785869</v>
+        <v>1.024247160176336</v>
       </c>
       <c r="E20">
-        <v>1.028881252581037</v>
+        <v>1.02192634780113</v>
       </c>
       <c r="F20">
-        <v>1.036018456420684</v>
+        <v>1.03005666423302</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048145825395035</v>
+        <v>1.046492856831245</v>
       </c>
       <c r="J20">
-        <v>1.036509019032343</v>
+        <v>1.029331350997418</v>
       </c>
       <c r="K20">
-        <v>1.043041547891296</v>
+        <v>1.03787664326316</v>
       </c>
       <c r="L20">
-        <v>1.04243458395418</v>
+        <v>1.035594302882448</v>
       </c>
       <c r="M20">
-        <v>1.049456211958985</v>
+        <v>1.043590820117613</v>
       </c>
       <c r="N20">
-        <v>1.037980980728615</v>
+        <v>1.012000511485417</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9979026372573508</v>
+        <v>0.9929300428828545</v>
       </c>
       <c r="D21">
-        <v>1.020464260245363</v>
+        <v>1.017293917534994</v>
       </c>
       <c r="E21">
-        <v>1.018346277418738</v>
+        <v>1.013799169806877</v>
       </c>
       <c r="F21">
-        <v>1.025923108205149</v>
+        <v>1.022205015636906</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044469203150168</v>
+        <v>1.043810458220288</v>
       </c>
       <c r="J21">
-        <v>1.027488310828811</v>
+        <v>1.022726359211342</v>
       </c>
       <c r="K21">
-        <v>1.035068032976576</v>
+        <v>1.031954895005889</v>
       </c>
       <c r="L21">
-        <v>1.032988215066915</v>
+        <v>1.028523745225891</v>
       </c>
       <c r="M21">
-        <v>1.04042945787096</v>
+        <v>1.036777574667872</v>
       </c>
       <c r="N21">
-        <v>1.028947462084745</v>
+        <v>1.009648197004975</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9903930504157205</v>
+        <v>0.9871097834865429</v>
       </c>
       <c r="D22">
-        <v>1.014537712134998</v>
+        <v>1.012775352406534</v>
       </c>
       <c r="E22">
-        <v>1.011436418544339</v>
+        <v>1.008519321137555</v>
       </c>
       <c r="F22">
-        <v>1.019302303087007</v>
+        <v>1.017104423959962</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042042117207924</v>
+        <v>1.042053870075592</v>
       </c>
       <c r="J22">
-        <v>1.021560770939297</v>
+        <v>1.018426355394933</v>
       </c>
       <c r="K22">
-        <v>1.029826572528628</v>
+        <v>1.028097905426494</v>
       </c>
       <c r="L22">
-        <v>1.026784671954758</v>
+        <v>1.023923876959508</v>
       </c>
       <c r="M22">
-        <v>1.034500836475388</v>
+        <v>1.032344487229504</v>
       </c>
       <c r="N22">
-        <v>1.023011504408689</v>
+        <v>1.008116112226078</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9944066700545137</v>
+        <v>0.990214949611312</v>
       </c>
       <c r="D23">
-        <v>1.017704353915305</v>
+        <v>1.015185329570627</v>
       </c>
       <c r="E23">
-        <v>1.015128369648727</v>
+        <v>1.011335203100419</v>
       </c>
       <c r="F23">
-        <v>1.022839728270215</v>
+        <v>1.019824668636633</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043340351222614</v>
+        <v>1.042991999392606</v>
       </c>
       <c r="J23">
-        <v>1.02472889306188</v>
+        <v>1.020720512470065</v>
       </c>
       <c r="K23">
-        <v>1.032628173134188</v>
+        <v>1.03015585918751</v>
       </c>
       <c r="L23">
-        <v>1.030099958972909</v>
+        <v>1.026377713030889</v>
       </c>
       <c r="M23">
-        <v>1.037669249515685</v>
+        <v>1.034709403759331</v>
       </c>
       <c r="N23">
-        <v>1.026184125628074</v>
+        <v>1.008933569552186</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.009519788126291</v>
+        <v>1.002019192944559</v>
       </c>
       <c r="D24">
-        <v>1.029645882103503</v>
+        <v>1.024361389899595</v>
       </c>
       <c r="E24">
-        <v>1.029053396180289</v>
+        <v>1.022059894628793</v>
       </c>
       <c r="F24">
-        <v>1.036183424223417</v>
+        <v>1.030185685572243</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048205642742275</v>
+        <v>1.046536701220037</v>
       </c>
       <c r="J24">
-        <v>1.0366562430094</v>
+        <v>1.029439736635896</v>
       </c>
       <c r="K24">
-        <v>1.043171643797809</v>
+        <v>1.037973784990768</v>
       </c>
       <c r="L24">
-        <v>1.04258881411561</v>
+        <v>1.035710380755248</v>
       </c>
       <c r="M24">
-        <v>1.049603578329849</v>
+        <v>1.043702662057069</v>
       </c>
       <c r="N24">
-        <v>1.038128413780607</v>
+        <v>1.012039098880075</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025833602837342</v>
+        <v>1.014945526833151</v>
       </c>
       <c r="D25">
-        <v>1.042562896480364</v>
+        <v>1.03443324186805</v>
       </c>
       <c r="E25">
-        <v>1.044124628040703</v>
+        <v>1.033840291988081</v>
       </c>
       <c r="F25">
-        <v>1.050626808730533</v>
+        <v>1.041566743398952</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053406091096881</v>
+        <v>1.050371373176079</v>
       </c>
       <c r="J25">
-        <v>1.049521779426073</v>
+        <v>1.038980174498378</v>
       </c>
       <c r="K25">
-        <v>1.054534549296748</v>
+        <v>1.04651954772145</v>
       </c>
       <c r="L25">
-        <v>1.056074513624575</v>
+        <v>1.045935049521341</v>
       </c>
       <c r="M25">
-        <v>1.062486943874293</v>
+        <v>1.053552323531725</v>
       </c>
       <c r="N25">
-        <v>1.051012220734688</v>
+        <v>1.015433411645155</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_22/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.024717817717583</v>
+        <v>1.06719484907255</v>
       </c>
       <c r="D2">
-        <v>1.042061166915785</v>
+        <v>1.069666558488837</v>
       </c>
       <c r="E2">
-        <v>1.042771220995463</v>
+        <v>1.079632953714957</v>
       </c>
       <c r="F2">
-        <v>1.050194147858469</v>
+        <v>1.084202344188526</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053230051852265</v>
+        <v>1.047412803875399</v>
       </c>
       <c r="J2">
-        <v>1.046183546320117</v>
+        <v>1.072140988806746</v>
       </c>
       <c r="K2">
-        <v>1.052964047089126</v>
+        <v>1.072368455464166</v>
       </c>
       <c r="L2">
-        <v>1.053665188073516</v>
+        <v>1.082308494517143</v>
       </c>
       <c r="M2">
-        <v>1.060995835300037</v>
+        <v>1.086865976127654</v>
       </c>
       <c r="N2">
-        <v>1.017992351669655</v>
+        <v>1.027552197144529</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.031537449621576</v>
+        <v>1.068595153063681</v>
       </c>
       <c r="D3">
-        <v>1.047389989636244</v>
+        <v>1.070771339435266</v>
       </c>
       <c r="E3">
-        <v>1.049016443715615</v>
+        <v>1.080964263742628</v>
       </c>
       <c r="F3">
-        <v>1.056226290410076</v>
+        <v>1.085480160068898</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055200428932587</v>
+        <v>1.047735809689218</v>
       </c>
       <c r="J3">
-        <v>1.051203795140535</v>
+        <v>1.07319544925821</v>
       </c>
       <c r="K3">
-        <v>1.057450392936217</v>
+        <v>1.073288735268127</v>
       </c>
       <c r="L3">
-        <v>1.059058332055868</v>
+        <v>1.083456664211223</v>
       </c>
       <c r="M3">
-        <v>1.066186949745628</v>
+        <v>1.087961647803132</v>
       </c>
       <c r="N3">
-        <v>1.01977308869695</v>
+        <v>1.02791720160511</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C4">
-        <v>1.035832970911994</v>
+        <v>1.069500669276834</v>
       </c>
       <c r="D4">
-        <v>1.050748441173103</v>
+        <v>1.071485482384905</v>
       </c>
       <c r="E4">
-        <v>1.052955558712659</v>
+        <v>1.081825421620733</v>
       </c>
       <c r="F4">
-        <v>1.060030509568381</v>
+        <v>1.086306577817918</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056429774178841</v>
+        <v>1.047943159619019</v>
       </c>
       <c r="J4">
-        <v>1.054362451233303</v>
+        <v>1.073876699884925</v>
       </c>
       <c r="K4">
-        <v>1.060270656168994</v>
+        <v>1.073882900476671</v>
       </c>
       <c r="L4">
-        <v>1.062454257379545</v>
+        <v>1.084198767171872</v>
       </c>
       <c r="M4">
-        <v>1.069454632877213</v>
+        <v>1.088669643243165</v>
       </c>
       <c r="N4">
-        <v>1.020892135524528</v>
+        <v>1.028152709191308</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.037612161415254</v>
+        <v>1.069881215244747</v>
       </c>
       <c r="D5">
-        <v>1.052139878930037</v>
+        <v>1.07178553735695</v>
       </c>
       <c r="E5">
-        <v>1.054588355447863</v>
+        <v>1.082187386745757</v>
       </c>
       <c r="F5">
-        <v>1.061607255767691</v>
+        <v>1.086653907794574</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056936090609789</v>
+        <v>1.04802993398792</v>
       </c>
       <c r="J5">
-        <v>1.05566986572942</v>
+        <v>1.074162847909408</v>
       </c>
       <c r="K5">
-        <v>1.061437391036172</v>
+        <v>1.074132374675541</v>
       </c>
       <c r="L5">
-        <v>1.063860514645311</v>
+        <v>1.084510549406263</v>
       </c>
       <c r="M5">
-        <v>1.07080752683578</v>
+        <v>1.088967053475886</v>
       </c>
       <c r="N5">
-        <v>1.021354979868394</v>
+        <v>1.028251555949186</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.037909372111064</v>
+        <v>1.069945102912729</v>
       </c>
       <c r="D6">
-        <v>1.052372335912766</v>
+        <v>1.071835907972554</v>
       </c>
       <c r="E6">
-        <v>1.054861181684731</v>
+        <v>1.082248158534231</v>
       </c>
       <c r="F6">
-        <v>1.061870708063308</v>
+        <v>1.086712220486772</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057020499307247</v>
+        <v>1.048044480620845</v>
       </c>
       <c r="J6">
-        <v>1.055888213139609</v>
+        <v>1.074210878864615</v>
       </c>
       <c r="K6">
-        <v>1.061632207261726</v>
+        <v>1.074174244218498</v>
       </c>
       <c r="L6">
-        <v>1.064095406691991</v>
+        <v>1.084562887504747</v>
       </c>
       <c r="M6">
-        <v>1.071033489936901</v>
+        <v>1.089016976499014</v>
       </c>
       <c r="N6">
-        <v>1.02143225726478</v>
+        <v>1.028268143361204</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.035856847444702</v>
+        <v>1.069505754667999</v>
       </c>
       <c r="D7">
-        <v>1.05076711272758</v>
+        <v>1.071489492401665</v>
       </c>
       <c r="E7">
-        <v>1.052977465884144</v>
+        <v>1.081830258470071</v>
       </c>
       <c r="F7">
-        <v>1.060051665266072</v>
+        <v>1.086311219231473</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056436580327661</v>
+        <v>1.047944320655338</v>
       </c>
       <c r="J7">
-        <v>1.054380000178984</v>
+        <v>1.073880524386385</v>
       </c>
       <c r="K7">
-        <v>1.060286319279489</v>
+        <v>1.073886235189302</v>
       </c>
       <c r="L7">
-        <v>1.062473130551626</v>
+        <v>1.084202933994844</v>
       </c>
       <c r="M7">
-        <v>1.069472790903191</v>
+        <v>1.088673618157468</v>
       </c>
       <c r="N7">
-        <v>1.02089834950654</v>
+        <v>1.028154030616585</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.027047707864688</v>
+        <v>1.067668209882686</v>
       </c>
       <c r="D8">
-        <v>1.043881261090673</v>
+        <v>1.070040075930721</v>
       </c>
       <c r="E8">
-        <v>1.044903687411985</v>
+        <v>1.080082938051498</v>
       </c>
       <c r="F8">
-        <v>1.052253951619369</v>
+        <v>1.084634275819556</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053905659656825</v>
+        <v>1.047522308787432</v>
       </c>
       <c r="J8">
-        <v>1.047899383991657</v>
+        <v>1.072497569083788</v>
       </c>
       <c r="K8">
-        <v>1.054497912917759</v>
+        <v>1.072679742623571</v>
       </c>
       <c r="L8">
-        <v>1.055507915076656</v>
+        <v>1.082696699588505</v>
       </c>
       <c r="M8">
-        <v>1.062769742803664</v>
+        <v>1.08723646765083</v>
       </c>
       <c r="N8">
-        <v>1.018601253592799</v>
+        <v>1.027675692353539</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.010557170186124</v>
+        <v>1.064425627166142</v>
       </c>
       <c r="D9">
-        <v>1.031011455941834</v>
+        <v>1.067480353150963</v>
       </c>
       <c r="E9">
-        <v>1.029836745656693</v>
+        <v>1.077001568732715</v>
       </c>
       <c r="F9">
-        <v>1.0376989790747</v>
+        <v>1.081675968133733</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049075774577205</v>
+        <v>1.046765938095452</v>
       </c>
       <c r="J9">
-        <v>1.035742557472239</v>
+        <v>1.070052403299627</v>
       </c>
       <c r="K9">
-        <v>1.043620661578254</v>
+        <v>1.070543545601639</v>
       </c>
       <c r="L9">
-        <v>1.042463604089938</v>
+        <v>1.080035950034536</v>
       </c>
       <c r="M9">
-        <v>1.050208656228185</v>
+        <v>1.084696406904557</v>
       </c>
       <c r="N9">
-        <v>1.014282085102038</v>
+        <v>1.026827591409824</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9988045796120377</v>
+        <v>1.062260539297211</v>
       </c>
       <c r="D10">
-        <v>1.021860319385212</v>
+        <v>1.065769892795016</v>
       </c>
       <c r="E10">
-        <v>1.019136125925103</v>
+        <v>1.074945510213756</v>
       </c>
       <c r="F10">
-        <v>1.027361003538988</v>
+        <v>1.079701327709284</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045575035496694</v>
+        <v>1.046253065874998</v>
       </c>
       <c r="J10">
-        <v>1.027065706881491</v>
+        <v>1.068416573161213</v>
       </c>
       <c r="K10">
-        <v>1.035845786291349</v>
+        <v>1.069112393542026</v>
       </c>
       <c r="L10">
-        <v>1.033168258775347</v>
+        <v>1.078257498099773</v>
       </c>
       <c r="M10">
-        <v>1.041253215621123</v>
+        <v>1.082997724179572</v>
       </c>
       <c r="N10">
-        <v>1.011193791390156</v>
+        <v>1.0262586318833</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9935077763496577</v>
+        <v>1.061322171719622</v>
       </c>
       <c r="D11">
-        <v>1.017742754384875</v>
+        <v>1.065028262552892</v>
       </c>
       <c r="E11">
-        <v>1.014323685206007</v>
+        <v>1.074054734565939</v>
       </c>
       <c r="F11">
-        <v>1.022711737254691</v>
+        <v>1.078845662937313</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043984385809111</v>
+        <v>1.046028925961745</v>
       </c>
       <c r="J11">
-        <v>1.023153155927282</v>
+        <v>1.067706840766823</v>
       </c>
       <c r="K11">
-        <v>1.032337649692298</v>
+        <v>1.068490987259067</v>
       </c>
       <c r="L11">
-        <v>1.028980440434002</v>
+        <v>1.0774862680407</v>
       </c>
       <c r="M11">
-        <v>1.037217687611673</v>
+        <v>1.082260874320024</v>
       </c>
       <c r="N11">
-        <v>1.00980023932331</v>
+        <v>1.026011408894987</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9915063859928895</v>
+        <v>1.060973484033163</v>
       </c>
       <c r="D12">
-        <v>1.016188126236181</v>
+        <v>1.064752635979335</v>
       </c>
       <c r="E12">
-        <v>1.012506979921661</v>
+        <v>1.073723783025517</v>
       </c>
       <c r="F12">
-        <v>1.020956671999317</v>
+        <v>1.078527731865998</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043381518296562</v>
+        <v>1.045945359158047</v>
       </c>
       <c r="J12">
-        <v>1.021674612080404</v>
+        <v>1.067442999331639</v>
       </c>
       <c r="K12">
-        <v>1.031011622813255</v>
+        <v>1.068259909461559</v>
       </c>
       <c r="L12">
-        <v>1.027398425565322</v>
+        <v>1.07719962230507</v>
       </c>
       <c r="M12">
-        <v>1.035693095194012</v>
+        <v>1.081986975071418</v>
       </c>
       <c r="N12">
-        <v>1.00927350127525</v>
+        <v>1.025919448927037</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9919372727360629</v>
+        <v>1.061048284975991</v>
       </c>
       <c r="D13">
-        <v>1.016522771343384</v>
+        <v>1.064811765751793</v>
       </c>
       <c r="E13">
-        <v>1.01289802755547</v>
+        <v>1.073794776845628</v>
       </c>
       <c r="F13">
-        <v>1.021334449186902</v>
+        <v>1.078595933708887</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043511393450394</v>
+        <v>1.04596329862787</v>
       </c>
       <c r="J13">
-        <v>1.021992940144803</v>
+        <v>1.067499604015878</v>
       </c>
       <c r="K13">
-        <v>1.031297127626098</v>
+        <v>1.068309488243691</v>
       </c>
       <c r="L13">
-        <v>1.0277390057259</v>
+        <v>1.077261116841966</v>
       </c>
       <c r="M13">
-        <v>1.036021317831141</v>
+        <v>1.08204573651885</v>
       </c>
       <c r="N13">
-        <v>1.009386911938473</v>
+        <v>1.025939180569525</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9933430494836596</v>
+        <v>1.061293351896439</v>
       </c>
       <c r="D14">
-        <v>1.017614773679252</v>
+        <v>1.065005482296481</v>
       </c>
       <c r="E14">
-        <v>1.014174124409027</v>
+        <v>1.074027379620912</v>
       </c>
       <c r="F14">
-        <v>1.022567249973012</v>
+        <v>1.078819384700471</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043934802876696</v>
+        <v>1.046022024661066</v>
       </c>
       <c r="J14">
-        <v>1.023031465835252</v>
+        <v>1.067685035964106</v>
       </c>
       <c r="K14">
-        <v>1.032228518437679</v>
+        <v>1.068471891615552</v>
       </c>
       <c r="L14">
-        <v>1.02885022301788</v>
+        <v>1.077462577439507</v>
       </c>
       <c r="M14">
-        <v>1.037092198767264</v>
+        <v>1.08223823783252</v>
       </c>
       <c r="N14">
-        <v>1.009756888883055</v>
+        <v>1.026003810121111</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9942046140854649</v>
+        <v>1.061444327504957</v>
       </c>
       <c r="D15">
-        <v>1.018284195635304</v>
+        <v>1.065124817198881</v>
       </c>
       <c r="E15">
-        <v>1.014956435196395</v>
+        <v>1.074170683426698</v>
       </c>
       <c r="F15">
-        <v>1.023323024482516</v>
+        <v>1.078957046980773</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044194060230687</v>
+        <v>1.046058166423156</v>
       </c>
       <c r="J15">
-        <v>1.023667929702188</v>
+        <v>1.067799258073837</v>
       </c>
       <c r="K15">
-        <v>1.032799284639064</v>
+        <v>1.068571919165276</v>
       </c>
       <c r="L15">
-        <v>1.029531309010911</v>
+        <v>1.07758668044824</v>
       </c>
       <c r="M15">
-        <v>1.037748548296803</v>
+        <v>1.082356817577848</v>
       </c>
       <c r="N15">
-        <v>1.009983615863718</v>
+        <v>1.026043613214007</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9991515087576444</v>
+        <v>1.062322796863851</v>
       </c>
       <c r="D16">
-        <v>1.022130165472852</v>
+        <v>1.065819091211661</v>
       </c>
       <c r="E16">
-        <v>1.019451553419731</v>
+        <v>1.075004617389662</v>
       </c>
       <c r="F16">
-        <v>1.027665739970453</v>
+        <v>1.079758101691369</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045678960094482</v>
+        <v>1.046267897726691</v>
       </c>
       <c r="J16">
-        <v>1.027321938302372</v>
+        <v>1.068463645790598</v>
       </c>
       <c r="K16">
-        <v>1.036075487978801</v>
+        <v>1.069153597969765</v>
       </c>
       <c r="L16">
-        <v>1.033442593057146</v>
+        <v>1.07830865755887</v>
       </c>
       <c r="M16">
-        <v>1.041517557768235</v>
+        <v>1.083046598579844</v>
       </c>
       <c r="N16">
-        <v>1.011285036635174</v>
+        <v>1.026275021044713</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.002197109266589</v>
+        <v>1.062873600659675</v>
       </c>
       <c r="D17">
-        <v>1.024499859736626</v>
+        <v>1.066254323612451</v>
       </c>
       <c r="E17">
-        <v>1.022221782298721</v>
+        <v>1.075527588200291</v>
       </c>
       <c r="F17">
-        <v>1.03034208740379</v>
+        <v>1.080260409966383</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04658983956136</v>
+        <v>1.046398903403631</v>
       </c>
       <c r="J17">
-        <v>1.029571116849612</v>
+        <v>1.068880019231119</v>
       </c>
       <c r="K17">
-        <v>1.038091534327287</v>
+        <v>1.069518010162593</v>
       </c>
       <c r="L17">
-        <v>1.035851087489336</v>
+        <v>1.07876122439767</v>
       </c>
       <c r="M17">
-        <v>1.043838233537</v>
+        <v>1.083478926882697</v>
       </c>
       <c r="N17">
-        <v>1.012085872135332</v>
+        <v>1.026419946055192</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.003953699155016</v>
+        <v>1.063194791598941</v>
       </c>
       <c r="D18">
-        <v>1.025867238917805</v>
+        <v>1.066508092055993</v>
       </c>
       <c r="E18">
-        <v>1.023820504125587</v>
+        <v>1.075832581367434</v>
       </c>
       <c r="F18">
-        <v>1.031886635045049</v>
+        <v>1.080553337140155</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047113980238929</v>
+        <v>1.046475117853996</v>
       </c>
       <c r="J18">
-        <v>1.030868168132739</v>
+        <v>1.069122747304499</v>
       </c>
       <c r="K18">
-        <v>1.039253924136862</v>
+        <v>1.069730401052205</v>
       </c>
       <c r="L18">
-        <v>1.037240353345135</v>
+        <v>1.079025088422302</v>
       </c>
       <c r="M18">
-        <v>1.045176762797271</v>
+        <v>1.083730970619199</v>
       </c>
       <c r="N18">
-        <v>1.012547601489592</v>
+        <v>1.026504395487666</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.00454935963134</v>
+        <v>1.063304295393488</v>
       </c>
       <c r="D19">
-        <v>1.026331019456825</v>
+        <v>1.066594604483032</v>
       </c>
       <c r="E19">
-        <v>1.024362790011991</v>
+        <v>1.075936568339246</v>
       </c>
       <c r="F19">
-        <v>1.032410545189054</v>
+        <v>1.080653207555217</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047291506818441</v>
+        <v>1.046501071307787</v>
       </c>
       <c r="J19">
-        <v>1.031307963412375</v>
+        <v>1.069205488434773</v>
       </c>
       <c r="K19">
-        <v>1.039648021113594</v>
+        <v>1.069802793038821</v>
       </c>
       <c r="L19">
-        <v>1.037711473687021</v>
+        <v>1.079115040603501</v>
       </c>
       <c r="M19">
-        <v>1.045630663310994</v>
+        <v>1.083816889752328</v>
       </c>
       <c r="N19">
-        <v>1.012704144611069</v>
+        <v>1.026533176540096</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.00187241758361</v>
+        <v>1.062814513312805</v>
       </c>
       <c r="D20">
-        <v>1.024247160176336</v>
+        <v>1.066207637173033</v>
       </c>
       <c r="E20">
-        <v>1.02192634780113</v>
+        <v>1.075471483261531</v>
       </c>
       <c r="F20">
-        <v>1.03005666423302</v>
+        <v>1.080206523356098</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046492856831245</v>
+        <v>1.046384868322276</v>
       </c>
       <c r="J20">
-        <v>1.029331350997418</v>
+        <v>1.068835360346717</v>
       </c>
       <c r="K20">
-        <v>1.03787664326316</v>
+        <v>1.069478929230493</v>
       </c>
       <c r="L20">
-        <v>1.035594302882448</v>
+        <v>1.078712679724301</v>
       </c>
       <c r="M20">
-        <v>1.043590820117613</v>
+        <v>1.083432555213324</v>
       </c>
       <c r="N20">
-        <v>1.012000511485417</v>
+        <v>1.026404405554112</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9929300428828545</v>
+        <v>1.061221189599776</v>
       </c>
       <c r="D21">
-        <v>1.017293917534994</v>
+        <v>1.064948441827911</v>
       </c>
       <c r="E21">
-        <v>1.013799169806877</v>
+        <v>1.073958886084058</v>
       </c>
       <c r="F21">
-        <v>1.022205015636906</v>
+        <v>1.078753586720532</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043810458220288</v>
+        <v>1.046004739911091</v>
       </c>
       <c r="J21">
-        <v>1.022726359211342</v>
+        <v>1.067630436849067</v>
       </c>
       <c r="K21">
-        <v>1.031954895005889</v>
+        <v>1.068424075069097</v>
       </c>
       <c r="L21">
-        <v>1.028523745225891</v>
+        <v>1.077403257220615</v>
       </c>
       <c r="M21">
-        <v>1.036777574667872</v>
+        <v>1.082181556555804</v>
       </c>
       <c r="N21">
-        <v>1.009648197004975</v>
+        <v>1.025984781936571</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9871097834865429</v>
+        <v>1.060218613091144</v>
       </c>
       <c r="D22">
-        <v>1.012775352406534</v>
+        <v>1.06415585414724</v>
       </c>
       <c r="E22">
-        <v>1.008519321137555</v>
+        <v>1.073007403876401</v>
       </c>
       <c r="F22">
-        <v>1.017104423959962</v>
+        <v>1.07783949253828</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042053870075592</v>
+        <v>1.045763936568412</v>
       </c>
       <c r="J22">
-        <v>1.018426355394933</v>
+        <v>1.066871606505236</v>
       </c>
       <c r="K22">
-        <v>1.028097905426494</v>
+        <v>1.067759341448693</v>
       </c>
       <c r="L22">
-        <v>1.023923876959508</v>
+        <v>1.076578947854964</v>
       </c>
       <c r="M22">
-        <v>1.032344487229504</v>
+        <v>1.081393842716292</v>
       </c>
       <c r="N22">
-        <v>1.008116112226078</v>
+        <v>1.025720193205284</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.990214949611312</v>
+        <v>1.060750174635397</v>
       </c>
       <c r="D23">
-        <v>1.015185329570627</v>
+        <v>1.064576104577654</v>
       </c>
       <c r="E23">
-        <v>1.011335203100419</v>
+        <v>1.073511846938622</v>
       </c>
       <c r="F23">
-        <v>1.019824668636633</v>
+        <v>1.078324127047281</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042991999392606</v>
+        <v>1.045891762188827</v>
       </c>
       <c r="J23">
-        <v>1.020720512470065</v>
+        <v>1.067273996318479</v>
       </c>
       <c r="K23">
-        <v>1.03015585918751</v>
+        <v>1.068111873051161</v>
       </c>
       <c r="L23">
-        <v>1.026377713030889</v>
+        <v>1.077016028193539</v>
       </c>
       <c r="M23">
-        <v>1.034709403759331</v>
+        <v>1.081811536059194</v>
       </c>
       <c r="N23">
-        <v>1.008933569552186</v>
+        <v>1.025860528629084</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.002019192944559</v>
+        <v>1.062841212599466</v>
       </c>
       <c r="D24">
-        <v>1.024361389899595</v>
+        <v>1.066228733059603</v>
       </c>
       <c r="E24">
-        <v>1.022059894628793</v>
+        <v>1.075496834812941</v>
       </c>
       <c r="F24">
-        <v>1.030185685572243</v>
+        <v>1.080230872583289</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046536701220037</v>
+        <v>1.046391210786064</v>
       </c>
       <c r="J24">
-        <v>1.029439736635896</v>
+        <v>1.06885554019278</v>
       </c>
       <c r="K24">
-        <v>1.037973784990768</v>
+        <v>1.069496588729866</v>
       </c>
       <c r="L24">
-        <v>1.035710380755248</v>
+        <v>1.078734615314031</v>
       </c>
       <c r="M24">
-        <v>1.043702662057069</v>
+        <v>1.083453508963973</v>
       </c>
       <c r="N24">
-        <v>1.012039098880075</v>
+        <v>1.026411427893648</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.014945526833151</v>
+        <v>1.065264485417703</v>
       </c>
       <c r="D25">
-        <v>1.03443324186805</v>
+        <v>1.068142791623984</v>
       </c>
       <c r="E25">
-        <v>1.033840291988081</v>
+        <v>1.07779847976161</v>
       </c>
       <c r="F25">
-        <v>1.041566743398952</v>
+        <v>1.082441175823165</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050371373176079</v>
+        <v>1.04696299349995</v>
       </c>
       <c r="J25">
-        <v>1.038980174498378</v>
+        <v>1.070685531275965</v>
       </c>
       <c r="K25">
-        <v>1.04651954772145</v>
+        <v>1.071097029343156</v>
       </c>
       <c r="L25">
-        <v>1.045935049521341</v>
+        <v>1.080724616948745</v>
       </c>
       <c r="M25">
-        <v>1.053552323531725</v>
+        <v>1.085353995452613</v>
       </c>
       <c r="N25">
-        <v>1.015433411645155</v>
+        <v>1.027047468876305</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_22/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.06719484907255</v>
+        <v>1.024717817717583</v>
       </c>
       <c r="D2">
-        <v>1.069666558488837</v>
+        <v>1.042061166915784</v>
       </c>
       <c r="E2">
-        <v>1.079632953714957</v>
+        <v>1.042771220995463</v>
       </c>
       <c r="F2">
-        <v>1.084202344188526</v>
+        <v>1.050194147858468</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047412803875399</v>
+        <v>1.053230051852265</v>
       </c>
       <c r="J2">
-        <v>1.072140988806746</v>
+        <v>1.046183546320117</v>
       </c>
       <c r="K2">
-        <v>1.072368455464166</v>
+        <v>1.052964047089126</v>
       </c>
       <c r="L2">
-        <v>1.082308494517143</v>
+        <v>1.053665188073517</v>
       </c>
       <c r="M2">
-        <v>1.086865976127654</v>
+        <v>1.060995835300038</v>
       </c>
       <c r="N2">
-        <v>1.027552197144529</v>
+        <v>1.017992351669655</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.068595153063681</v>
+        <v>1.031537449621576</v>
       </c>
       <c r="D3">
-        <v>1.070771339435266</v>
+        <v>1.047389989636244</v>
       </c>
       <c r="E3">
-        <v>1.080964263742628</v>
+        <v>1.049016443715616</v>
       </c>
       <c r="F3">
-        <v>1.085480160068898</v>
+        <v>1.056226290410076</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047735809689218</v>
+        <v>1.055200428932587</v>
       </c>
       <c r="J3">
-        <v>1.07319544925821</v>
+        <v>1.051203795140536</v>
       </c>
       <c r="K3">
-        <v>1.073288735268127</v>
+        <v>1.057450392936218</v>
       </c>
       <c r="L3">
-        <v>1.083456664211223</v>
+        <v>1.059058332055869</v>
       </c>
       <c r="M3">
-        <v>1.087961647803132</v>
+        <v>1.066186949745628</v>
       </c>
       <c r="N3">
-        <v>1.02791720160511</v>
+        <v>1.01977308869695</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.069500669276834</v>
+        <v>1.035832970911993</v>
       </c>
       <c r="D4">
-        <v>1.071485482384905</v>
+        <v>1.050748441173103</v>
       </c>
       <c r="E4">
-        <v>1.081825421620733</v>
+        <v>1.052955558712659</v>
       </c>
       <c r="F4">
-        <v>1.086306577817918</v>
+        <v>1.06003050956838</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047943159619019</v>
+        <v>1.05642977417884</v>
       </c>
       <c r="J4">
-        <v>1.073876699884925</v>
+        <v>1.054362451233302</v>
       </c>
       <c r="K4">
-        <v>1.073882900476671</v>
+        <v>1.060270656168993</v>
       </c>
       <c r="L4">
-        <v>1.084198767171872</v>
+        <v>1.062454257379545</v>
       </c>
       <c r="M4">
-        <v>1.088669643243165</v>
+        <v>1.069454632877212</v>
       </c>
       <c r="N4">
-        <v>1.028152709191308</v>
+        <v>1.020892135524528</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.069881215244747</v>
+        <v>1.037612161415254</v>
       </c>
       <c r="D5">
-        <v>1.07178553735695</v>
+        <v>1.052139878930036</v>
       </c>
       <c r="E5">
-        <v>1.082187386745757</v>
+        <v>1.054588355447862</v>
       </c>
       <c r="F5">
-        <v>1.086653907794574</v>
+        <v>1.06160725576769</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04802993398792</v>
+        <v>1.056936090609789</v>
       </c>
       <c r="J5">
-        <v>1.074162847909408</v>
+        <v>1.05566986572942</v>
       </c>
       <c r="K5">
-        <v>1.074132374675541</v>
+        <v>1.061437391036172</v>
       </c>
       <c r="L5">
-        <v>1.084510549406263</v>
+        <v>1.063860514645311</v>
       </c>
       <c r="M5">
-        <v>1.088967053475886</v>
+        <v>1.07080752683578</v>
       </c>
       <c r="N5">
-        <v>1.028251555949186</v>
+        <v>1.021354979868394</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.069945102912729</v>
+        <v>1.037909372111063</v>
       </c>
       <c r="D6">
-        <v>1.071835907972554</v>
+        <v>1.052372335912766</v>
       </c>
       <c r="E6">
-        <v>1.082248158534231</v>
+        <v>1.05486118168473</v>
       </c>
       <c r="F6">
-        <v>1.086712220486772</v>
+        <v>1.061870708063307</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048044480620845</v>
+        <v>1.057020499307247</v>
       </c>
       <c r="J6">
-        <v>1.074210878864615</v>
+        <v>1.055888213139609</v>
       </c>
       <c r="K6">
-        <v>1.074174244218498</v>
+        <v>1.061632207261726</v>
       </c>
       <c r="L6">
-        <v>1.084562887504747</v>
+        <v>1.064095406691991</v>
       </c>
       <c r="M6">
-        <v>1.089016976499014</v>
+        <v>1.071033489936901</v>
       </c>
       <c r="N6">
-        <v>1.028268143361204</v>
+        <v>1.02143225726478</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.069505754667999</v>
+        <v>1.035856847444701</v>
       </c>
       <c r="D7">
-        <v>1.071489492401665</v>
+        <v>1.05076711272758</v>
       </c>
       <c r="E7">
-        <v>1.081830258470071</v>
+        <v>1.052977465884143</v>
       </c>
       <c r="F7">
-        <v>1.086311219231473</v>
+        <v>1.060051665266071</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047944320655338</v>
+        <v>1.056436580327661</v>
       </c>
       <c r="J7">
-        <v>1.073880524386385</v>
+        <v>1.054380000178983</v>
       </c>
       <c r="K7">
-        <v>1.073886235189302</v>
+        <v>1.060286319279488</v>
       </c>
       <c r="L7">
-        <v>1.084202933994844</v>
+        <v>1.062473130551625</v>
       </c>
       <c r="M7">
-        <v>1.088673618157468</v>
+        <v>1.069472790903191</v>
       </c>
       <c r="N7">
-        <v>1.028154030616585</v>
+        <v>1.02089834950654</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.067668209882686</v>
+        <v>1.027047707864687</v>
       </c>
       <c r="D8">
-        <v>1.070040075930721</v>
+        <v>1.043881261090673</v>
       </c>
       <c r="E8">
-        <v>1.080082938051498</v>
+        <v>1.044903687411985</v>
       </c>
       <c r="F8">
-        <v>1.084634275819556</v>
+        <v>1.052253951619369</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047522308787432</v>
+        <v>1.053905659656825</v>
       </c>
       <c r="J8">
-        <v>1.072497569083788</v>
+        <v>1.047899383991657</v>
       </c>
       <c r="K8">
-        <v>1.072679742623571</v>
+        <v>1.054497912917759</v>
       </c>
       <c r="L8">
-        <v>1.082696699588505</v>
+        <v>1.055507915076656</v>
       </c>
       <c r="M8">
-        <v>1.08723646765083</v>
+        <v>1.062769742803664</v>
       </c>
       <c r="N8">
-        <v>1.027675692353539</v>
+        <v>1.018601253592798</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.064425627166142</v>
+        <v>1.010557170186126</v>
       </c>
       <c r="D9">
-        <v>1.067480353150963</v>
+        <v>1.031011455941836</v>
       </c>
       <c r="E9">
-        <v>1.077001568732715</v>
+        <v>1.029836745656695</v>
       </c>
       <c r="F9">
-        <v>1.081675968133733</v>
+        <v>1.037698979074702</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046765938095452</v>
+        <v>1.049075774577206</v>
       </c>
       <c r="J9">
-        <v>1.070052403299627</v>
+        <v>1.035742557472241</v>
       </c>
       <c r="K9">
-        <v>1.070543545601639</v>
+        <v>1.043620661578255</v>
       </c>
       <c r="L9">
-        <v>1.080035950034536</v>
+        <v>1.04246360408994</v>
       </c>
       <c r="M9">
-        <v>1.084696406904557</v>
+        <v>1.050208656228186</v>
       </c>
       <c r="N9">
-        <v>1.026827591409824</v>
+        <v>1.014282085102038</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.062260539297211</v>
+        <v>0.9988045796120377</v>
       </c>
       <c r="D10">
-        <v>1.065769892795016</v>
+        <v>1.021860319385212</v>
       </c>
       <c r="E10">
-        <v>1.074945510213756</v>
+        <v>1.019136125925103</v>
       </c>
       <c r="F10">
-        <v>1.079701327709284</v>
+        <v>1.027361003538988</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046253065874998</v>
+        <v>1.045575035496695</v>
       </c>
       <c r="J10">
-        <v>1.068416573161213</v>
+        <v>1.027065706881491</v>
       </c>
       <c r="K10">
-        <v>1.069112393542026</v>
+        <v>1.035845786291349</v>
       </c>
       <c r="L10">
-        <v>1.078257498099773</v>
+        <v>1.033168258775347</v>
       </c>
       <c r="M10">
-        <v>1.082997724179572</v>
+        <v>1.041253215621123</v>
       </c>
       <c r="N10">
-        <v>1.0262586318833</v>
+        <v>1.011193791390156</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.061322171719622</v>
+        <v>0.9935077763496589</v>
       </c>
       <c r="D11">
-        <v>1.065028262552892</v>
+        <v>1.017742754384876</v>
       </c>
       <c r="E11">
-        <v>1.074054734565939</v>
+        <v>1.014323685206008</v>
       </c>
       <c r="F11">
-        <v>1.078845662937313</v>
+        <v>1.022711737254693</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046028925961745</v>
+        <v>1.043984385809112</v>
       </c>
       <c r="J11">
-        <v>1.067706840766823</v>
+        <v>1.023153155927284</v>
       </c>
       <c r="K11">
-        <v>1.068490987259067</v>
+        <v>1.032337649692299</v>
       </c>
       <c r="L11">
-        <v>1.0774862680407</v>
+        <v>1.028980440434004</v>
       </c>
       <c r="M11">
-        <v>1.082260874320024</v>
+        <v>1.037217687611674</v>
       </c>
       <c r="N11">
-        <v>1.026011408894987</v>
+        <v>1.00980023932331</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.060973484033163</v>
+        <v>0.9915063859928891</v>
       </c>
       <c r="D12">
-        <v>1.064752635979335</v>
+        <v>1.016188126236181</v>
       </c>
       <c r="E12">
-        <v>1.073723783025517</v>
+        <v>1.012506979921661</v>
       </c>
       <c r="F12">
-        <v>1.078527731865998</v>
+        <v>1.020956671999317</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045945359158047</v>
+        <v>1.043381518296562</v>
       </c>
       <c r="J12">
-        <v>1.067442999331639</v>
+        <v>1.021674612080404</v>
       </c>
       <c r="K12">
-        <v>1.068259909461559</v>
+        <v>1.031011622813255</v>
       </c>
       <c r="L12">
-        <v>1.07719962230507</v>
+        <v>1.027398425565321</v>
       </c>
       <c r="M12">
-        <v>1.081986975071418</v>
+        <v>1.035693095194011</v>
       </c>
       <c r="N12">
-        <v>1.025919448927037</v>
+        <v>1.009273501275249</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.061048284975991</v>
+        <v>0.9919372727360618</v>
       </c>
       <c r="D13">
-        <v>1.064811765751793</v>
+        <v>1.016522771343383</v>
       </c>
       <c r="E13">
-        <v>1.073794776845628</v>
+        <v>1.012898027555469</v>
       </c>
       <c r="F13">
-        <v>1.078595933708887</v>
+        <v>1.021334449186901</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04596329862787</v>
+        <v>1.043511393450393</v>
       </c>
       <c r="J13">
-        <v>1.067499604015878</v>
+        <v>1.021992940144802</v>
       </c>
       <c r="K13">
-        <v>1.068309488243691</v>
+        <v>1.031297127626097</v>
       </c>
       <c r="L13">
-        <v>1.077261116841966</v>
+        <v>1.027739005725899</v>
       </c>
       <c r="M13">
-        <v>1.08204573651885</v>
+        <v>1.03602131783114</v>
       </c>
       <c r="N13">
-        <v>1.025939180569525</v>
+        <v>1.009386911938472</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.061293351896439</v>
+        <v>0.99334304948366</v>
       </c>
       <c r="D14">
-        <v>1.065005482296481</v>
+        <v>1.017614773679253</v>
       </c>
       <c r="E14">
-        <v>1.074027379620912</v>
+        <v>1.014174124409027</v>
       </c>
       <c r="F14">
-        <v>1.078819384700471</v>
+        <v>1.022567249973012</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046022024661066</v>
+        <v>1.043934802876696</v>
       </c>
       <c r="J14">
-        <v>1.067685035964106</v>
+        <v>1.023031465835252</v>
       </c>
       <c r="K14">
-        <v>1.068471891615552</v>
+        <v>1.03222851843768</v>
       </c>
       <c r="L14">
-        <v>1.077462577439507</v>
+        <v>1.02885022301788</v>
       </c>
       <c r="M14">
-        <v>1.08223823783252</v>
+        <v>1.037092198767264</v>
       </c>
       <c r="N14">
-        <v>1.026003810121111</v>
+        <v>1.009756888883055</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.061444327504957</v>
+        <v>0.9942046140854655</v>
       </c>
       <c r="D15">
-        <v>1.065124817198881</v>
+        <v>1.018284195635304</v>
       </c>
       <c r="E15">
-        <v>1.074170683426698</v>
+        <v>1.014956435196395</v>
       </c>
       <c r="F15">
-        <v>1.078957046980773</v>
+        <v>1.023323024482516</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046058166423156</v>
+        <v>1.044194060230687</v>
       </c>
       <c r="J15">
-        <v>1.067799258073837</v>
+        <v>1.023667929702188</v>
       </c>
       <c r="K15">
-        <v>1.068571919165276</v>
+        <v>1.032799284639064</v>
       </c>
       <c r="L15">
-        <v>1.07758668044824</v>
+        <v>1.029531309010911</v>
       </c>
       <c r="M15">
-        <v>1.082356817577848</v>
+        <v>1.037748548296803</v>
       </c>
       <c r="N15">
-        <v>1.026043613214007</v>
+        <v>1.009983615863718</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.062322796863851</v>
+        <v>0.9991515087576455</v>
       </c>
       <c r="D16">
-        <v>1.065819091211661</v>
+        <v>1.022130165472853</v>
       </c>
       <c r="E16">
-        <v>1.075004617389662</v>
+        <v>1.019451553419732</v>
       </c>
       <c r="F16">
-        <v>1.079758101691369</v>
+        <v>1.027665739970455</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046267897726691</v>
+        <v>1.045678960094482</v>
       </c>
       <c r="J16">
-        <v>1.068463645790598</v>
+        <v>1.027321938302373</v>
       </c>
       <c r="K16">
-        <v>1.069153597969765</v>
+        <v>1.036075487978802</v>
       </c>
       <c r="L16">
-        <v>1.07830865755887</v>
+        <v>1.033442593057147</v>
       </c>
       <c r="M16">
-        <v>1.083046598579844</v>
+        <v>1.041517557768236</v>
       </c>
       <c r="N16">
-        <v>1.026275021044713</v>
+        <v>1.011285036635174</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.062873600659675</v>
+        <v>1.002197109266588</v>
       </c>
       <c r="D17">
-        <v>1.066254323612451</v>
+        <v>1.024499859736625</v>
       </c>
       <c r="E17">
-        <v>1.075527588200291</v>
+        <v>1.022221782298721</v>
       </c>
       <c r="F17">
-        <v>1.080260409966383</v>
+        <v>1.030342087403789</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046398903403631</v>
+        <v>1.04658983956136</v>
       </c>
       <c r="J17">
-        <v>1.068880019231119</v>
+        <v>1.029571116849611</v>
       </c>
       <c r="K17">
-        <v>1.069518010162593</v>
+        <v>1.038091534327287</v>
       </c>
       <c r="L17">
-        <v>1.07876122439767</v>
+        <v>1.035851087489336</v>
       </c>
       <c r="M17">
-        <v>1.083478926882697</v>
+        <v>1.043838233536999</v>
       </c>
       <c r="N17">
-        <v>1.026419946055192</v>
+        <v>1.012085872135331</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.063194791598941</v>
+        <v>1.003953699155015</v>
       </c>
       <c r="D18">
-        <v>1.066508092055993</v>
+        <v>1.025867238917804</v>
       </c>
       <c r="E18">
-        <v>1.075832581367434</v>
+        <v>1.023820504125586</v>
       </c>
       <c r="F18">
-        <v>1.080553337140155</v>
+        <v>1.031886635045048</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046475117853996</v>
+        <v>1.047113980238929</v>
       </c>
       <c r="J18">
-        <v>1.069122747304499</v>
+        <v>1.030868168132737</v>
       </c>
       <c r="K18">
-        <v>1.069730401052205</v>
+        <v>1.039253924136861</v>
       </c>
       <c r="L18">
-        <v>1.079025088422302</v>
+        <v>1.037240353345134</v>
       </c>
       <c r="M18">
-        <v>1.083730970619199</v>
+        <v>1.04517676279727</v>
       </c>
       <c r="N18">
-        <v>1.026504395487666</v>
+        <v>1.012547601489591</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.063304295393488</v>
+        <v>1.004549359631341</v>
       </c>
       <c r="D19">
-        <v>1.066594604483032</v>
+        <v>1.026331019456826</v>
       </c>
       <c r="E19">
-        <v>1.075936568339246</v>
+        <v>1.024362790011992</v>
       </c>
       <c r="F19">
-        <v>1.080653207555217</v>
+        <v>1.032410545189055</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046501071307787</v>
+        <v>1.047291506818442</v>
       </c>
       <c r="J19">
-        <v>1.069205488434773</v>
+        <v>1.031307963412376</v>
       </c>
       <c r="K19">
-        <v>1.069802793038821</v>
+        <v>1.039648021113595</v>
       </c>
       <c r="L19">
-        <v>1.079115040603501</v>
+        <v>1.037711473687022</v>
       </c>
       <c r="M19">
-        <v>1.083816889752328</v>
+        <v>1.045630663310995</v>
       </c>
       <c r="N19">
-        <v>1.026533176540096</v>
+        <v>1.012704144611069</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.062814513312805</v>
+        <v>1.001872417583611</v>
       </c>
       <c r="D20">
-        <v>1.066207637173033</v>
+        <v>1.024247160176336</v>
       </c>
       <c r="E20">
-        <v>1.075471483261531</v>
+        <v>1.021926347801131</v>
       </c>
       <c r="F20">
-        <v>1.080206523356098</v>
+        <v>1.030056664233021</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046384868322276</v>
+        <v>1.046492856831245</v>
       </c>
       <c r="J20">
-        <v>1.068835360346717</v>
+        <v>1.029331350997419</v>
       </c>
       <c r="K20">
-        <v>1.069478929230493</v>
+        <v>1.037876643263161</v>
       </c>
       <c r="L20">
-        <v>1.078712679724301</v>
+        <v>1.035594302882448</v>
       </c>
       <c r="M20">
-        <v>1.083432555213324</v>
+        <v>1.043590820117613</v>
       </c>
       <c r="N20">
-        <v>1.026404405554112</v>
+        <v>1.012000511485417</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.061221189599776</v>
+        <v>0.9929300428828544</v>
       </c>
       <c r="D21">
-        <v>1.064948441827911</v>
+        <v>1.017293917534994</v>
       </c>
       <c r="E21">
-        <v>1.073958886084058</v>
+        <v>1.013799169806877</v>
       </c>
       <c r="F21">
-        <v>1.078753586720532</v>
+        <v>1.022205015636906</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046004739911091</v>
+        <v>1.043810458220288</v>
       </c>
       <c r="J21">
-        <v>1.067630436849067</v>
+        <v>1.022726359211342</v>
       </c>
       <c r="K21">
-        <v>1.068424075069097</v>
+        <v>1.031954895005889</v>
       </c>
       <c r="L21">
-        <v>1.077403257220615</v>
+        <v>1.028523745225891</v>
       </c>
       <c r="M21">
-        <v>1.082181556555804</v>
+        <v>1.036777574667872</v>
       </c>
       <c r="N21">
-        <v>1.025984781936571</v>
+        <v>1.009648197004975</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.060218613091144</v>
+        <v>0.9871097834865432</v>
       </c>
       <c r="D22">
-        <v>1.06415585414724</v>
+        <v>1.012775352406534</v>
       </c>
       <c r="E22">
-        <v>1.073007403876401</v>
+        <v>1.008519321137556</v>
       </c>
       <c r="F22">
-        <v>1.07783949253828</v>
+        <v>1.017104423959962</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045763936568412</v>
+        <v>1.042053870075592</v>
       </c>
       <c r="J22">
-        <v>1.066871606505236</v>
+        <v>1.018426355394933</v>
       </c>
       <c r="K22">
-        <v>1.067759341448693</v>
+        <v>1.028097905426495</v>
       </c>
       <c r="L22">
-        <v>1.076578947854964</v>
+        <v>1.023923876959508</v>
       </c>
       <c r="M22">
-        <v>1.081393842716292</v>
+        <v>1.032344487229504</v>
       </c>
       <c r="N22">
-        <v>1.025720193205284</v>
+        <v>1.008116112226078</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.060750174635397</v>
+        <v>0.9902149496113111</v>
       </c>
       <c r="D23">
-        <v>1.064576104577654</v>
+        <v>1.015185329570626</v>
       </c>
       <c r="E23">
-        <v>1.073511846938622</v>
+        <v>1.011335203100418</v>
       </c>
       <c r="F23">
-        <v>1.078324127047281</v>
+        <v>1.019824668636632</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045891762188827</v>
+        <v>1.042991999392606</v>
       </c>
       <c r="J23">
-        <v>1.067273996318479</v>
+        <v>1.020720512470064</v>
       </c>
       <c r="K23">
-        <v>1.068111873051161</v>
+        <v>1.030155859187509</v>
       </c>
       <c r="L23">
-        <v>1.077016028193539</v>
+        <v>1.026377713030888</v>
       </c>
       <c r="M23">
-        <v>1.081811536059194</v>
+        <v>1.03470940375933</v>
       </c>
       <c r="N23">
-        <v>1.025860528629084</v>
+        <v>1.008933569552185</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.062841212599466</v>
+        <v>1.002019192944561</v>
       </c>
       <c r="D24">
-        <v>1.066228733059603</v>
+        <v>1.024361389899596</v>
       </c>
       <c r="E24">
-        <v>1.075496834812941</v>
+        <v>1.022059894628795</v>
       </c>
       <c r="F24">
-        <v>1.080230872583289</v>
+        <v>1.030185685572245</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046391210786064</v>
+        <v>1.046536701220038</v>
       </c>
       <c r="J24">
-        <v>1.06885554019278</v>
+        <v>1.029439736635897</v>
       </c>
       <c r="K24">
-        <v>1.069496588729866</v>
+        <v>1.03797378499077</v>
       </c>
       <c r="L24">
-        <v>1.078734615314031</v>
+        <v>1.03571038075525</v>
       </c>
       <c r="M24">
-        <v>1.083453508963973</v>
+        <v>1.04370266205707</v>
       </c>
       <c r="N24">
-        <v>1.026411427893648</v>
+        <v>1.012039098880075</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.065264485417703</v>
+        <v>1.014945526833151</v>
       </c>
       <c r="D25">
-        <v>1.068142791623984</v>
+        <v>1.034433241868049</v>
       </c>
       <c r="E25">
-        <v>1.07779847976161</v>
+        <v>1.03384029198808</v>
       </c>
       <c r="F25">
-        <v>1.082441175823165</v>
+        <v>1.041566743398952</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04696299349995</v>
+        <v>1.050371373176079</v>
       </c>
       <c r="J25">
-        <v>1.070685531275965</v>
+        <v>1.038980174498377</v>
       </c>
       <c r="K25">
-        <v>1.071097029343156</v>
+        <v>1.04651954772145</v>
       </c>
       <c r="L25">
-        <v>1.080724616948745</v>
+        <v>1.04593504952134</v>
       </c>
       <c r="M25">
-        <v>1.085353995452613</v>
+        <v>1.053552323531725</v>
       </c>
       <c r="N25">
-        <v>1.027047468876305</v>
+        <v>1.015433411645155</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_22/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024717817717583</v>
+        <v>1.011159741360442</v>
       </c>
       <c r="D2">
-        <v>1.042061166915784</v>
+        <v>1.032271630315296</v>
       </c>
       <c r="E2">
-        <v>1.042771220995463</v>
+        <v>1.030291245496879</v>
       </c>
       <c r="F2">
-        <v>1.050194147858468</v>
+        <v>1.039968231514705</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053230051852265</v>
+        <v>1.049396141455183</v>
       </c>
       <c r="J2">
-        <v>1.046183546320117</v>
+        <v>1.033011713930331</v>
       </c>
       <c r="K2">
-        <v>1.052964047089126</v>
+        <v>1.043298958257416</v>
       </c>
       <c r="L2">
-        <v>1.053665188073517</v>
+        <v>1.041344108521036</v>
       </c>
       <c r="M2">
-        <v>1.060995835300038</v>
+        <v>1.050897472033261</v>
       </c>
       <c r="N2">
-        <v>1.017992351669655</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014740098741538</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.048854277932095</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.04168639607478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031537449621576</v>
+        <v>1.0147333581052</v>
       </c>
       <c r="D3">
-        <v>1.047389989636244</v>
+        <v>1.034616646937593</v>
       </c>
       <c r="E3">
-        <v>1.049016443715616</v>
+        <v>1.033222673385368</v>
       </c>
       <c r="F3">
-        <v>1.056226290410076</v>
+        <v>1.04258104833004</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055200428932587</v>
+        <v>1.049990124976773</v>
       </c>
       <c r="J3">
-        <v>1.051203795140536</v>
+        <v>1.034830278987291</v>
       </c>
       <c r="K3">
-        <v>1.057450392936218</v>
+        <v>1.044824961481741</v>
       </c>
       <c r="L3">
-        <v>1.059058332055869</v>
+        <v>1.043447403717933</v>
       </c>
       <c r="M3">
-        <v>1.066186949745628</v>
+        <v>1.052696612177021</v>
       </c>
       <c r="N3">
-        <v>1.01977308869695</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.01536465536103</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.050278159109514</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.042762749851813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035832970911993</v>
+        <v>1.017009019311494</v>
       </c>
       <c r="D4">
-        <v>1.050748441173103</v>
+        <v>1.036113345002154</v>
       </c>
       <c r="E4">
-        <v>1.052955558712659</v>
+        <v>1.035095091262756</v>
       </c>
       <c r="F4">
-        <v>1.06003050956838</v>
+        <v>1.044250293816087</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05642977417884</v>
+        <v>1.050359404476624</v>
       </c>
       <c r="J4">
-        <v>1.054362451233302</v>
+        <v>1.035987417791511</v>
       </c>
       <c r="K4">
-        <v>1.060270656168993</v>
+        <v>1.045794608123632</v>
       </c>
       <c r="L4">
-        <v>1.062454257379545</v>
+        <v>1.044787626069697</v>
       </c>
       <c r="M4">
-        <v>1.069454632877212</v>
+        <v>1.053842452934854</v>
       </c>
       <c r="N4">
-        <v>1.020892135524528</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015761876641097</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.0511850026067</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.043449258552346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037612161415254</v>
+        <v>1.017960133015156</v>
       </c>
       <c r="D5">
-        <v>1.052139878930036</v>
+        <v>1.036741522656182</v>
       </c>
       <c r="E5">
-        <v>1.054588355447862</v>
+        <v>1.035879478442487</v>
       </c>
       <c r="F5">
-        <v>1.06160725576769</v>
+        <v>1.04494980600129</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056936090609789</v>
+        <v>1.050512897062688</v>
       </c>
       <c r="J5">
-        <v>1.05566986572942</v>
+        <v>1.03647218941382</v>
       </c>
       <c r="K5">
-        <v>1.061437391036172</v>
+        <v>1.046201840437085</v>
       </c>
       <c r="L5">
-        <v>1.063860514645311</v>
+        <v>1.045349085903192</v>
       </c>
       <c r="M5">
-        <v>1.07080752683578</v>
+        <v>1.054322607856291</v>
       </c>
       <c r="N5">
-        <v>1.021354979868394</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015928525056915</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.051565007411908</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.043744337814182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037909372111063</v>
+        <v>1.018122947298756</v>
       </c>
       <c r="D6">
-        <v>1.052372335912766</v>
+        <v>1.03685134996495</v>
       </c>
       <c r="E6">
-        <v>1.05486118168473</v>
+        <v>1.036014399993534</v>
       </c>
       <c r="F6">
-        <v>1.061870708063307</v>
+        <v>1.045070333454846</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057020499307247</v>
+        <v>1.050540672837135</v>
       </c>
       <c r="J6">
-        <v>1.055888213139609</v>
+        <v>1.036556845896155</v>
       </c>
       <c r="K6">
-        <v>1.061632207261726</v>
+        <v>1.046274558995573</v>
       </c>
       <c r="L6">
-        <v>1.064095406691991</v>
+        <v>1.045446587166003</v>
       </c>
       <c r="M6">
-        <v>1.071033489936901</v>
+        <v>1.054406309869453</v>
       </c>
       <c r="N6">
-        <v>1.02143225726478</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015957967988747</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.051631250943578</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.043804455818715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035856847444701</v>
+        <v>1.017031485550162</v>
       </c>
       <c r="D7">
-        <v>1.05076711272758</v>
+        <v>1.036134198496953</v>
       </c>
       <c r="E7">
-        <v>1.052977465884143</v>
+        <v>1.035115141862039</v>
       </c>
       <c r="F7">
-        <v>1.060051665266071</v>
+        <v>1.04426870692042</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056436580327661</v>
+        <v>1.050367415269538</v>
       </c>
       <c r="J7">
-        <v>1.054380000178983</v>
+        <v>1.03600339977615</v>
       </c>
       <c r="K7">
-        <v>1.060286319279488</v>
+        <v>1.045812369233467</v>
       </c>
       <c r="L7">
-        <v>1.062473130551625</v>
+        <v>1.044804588868484</v>
       </c>
       <c r="M7">
-        <v>1.069472790903191</v>
+        <v>1.053857834128076</v>
       </c>
       <c r="N7">
-        <v>1.02089834950654</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015768307343714</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.05119717561276</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.043481828981963</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027047707864687</v>
+        <v>1.012387415012796</v>
       </c>
       <c r="D8">
-        <v>1.043881261090673</v>
+        <v>1.033083943143728</v>
       </c>
       <c r="E8">
-        <v>1.044903687411985</v>
+        <v>1.031299029328413</v>
       </c>
       <c r="F8">
-        <v>1.052253951619369</v>
+        <v>1.040867037781405</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053905659656825</v>
+        <v>1.049607442618375</v>
       </c>
       <c r="J8">
-        <v>1.047899383991657</v>
+        <v>1.033642286869428</v>
       </c>
       <c r="K8">
-        <v>1.054497912917759</v>
+        <v>1.043833670493556</v>
       </c>
       <c r="L8">
-        <v>1.055507915076656</v>
+        <v>1.042071090106592</v>
       </c>
       <c r="M8">
-        <v>1.062769742803664</v>
+        <v>1.051520494024273</v>
       </c>
       <c r="N8">
-        <v>1.018601253592798</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014957923756492</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.049347352272934</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.04208728357071</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010557170186126</v>
+        <v>1.003895538760967</v>
       </c>
       <c r="D9">
-        <v>1.031011455941836</v>
+        <v>1.027525566125699</v>
       </c>
       <c r="E9">
-        <v>1.029836745656695</v>
+        <v>1.024365111493001</v>
       </c>
       <c r="F9">
-        <v>1.037698979074702</v>
+        <v>1.034688476828296</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049075774577206</v>
+        <v>1.048141541006702</v>
       </c>
       <c r="J9">
-        <v>1.035742557472241</v>
+        <v>1.029311481508474</v>
       </c>
       <c r="K9">
-        <v>1.043620661578255</v>
+        <v>1.0401873055945</v>
       </c>
       <c r="L9">
-        <v>1.04246360408994</v>
+        <v>1.037074874386423</v>
       </c>
       <c r="M9">
-        <v>1.050208656228186</v>
+        <v>1.047242755980738</v>
       </c>
       <c r="N9">
-        <v>1.014282085102038</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013468606353706</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.045961842588877</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.039505921043711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9988045796120377</v>
+        <v>0.9980784099305781</v>
       </c>
       <c r="D10">
-        <v>1.021860319385212</v>
+        <v>1.023758516065338</v>
       </c>
       <c r="E10">
-        <v>1.019136125925103</v>
+        <v>1.019672112763467</v>
       </c>
       <c r="F10">
-        <v>1.027361003538988</v>
+        <v>1.030541162594444</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045575035496695</v>
+        <v>1.047112347449521</v>
       </c>
       <c r="J10">
-        <v>1.027065706881491</v>
+        <v>1.026368475933115</v>
       </c>
       <c r="K10">
-        <v>1.035845786291349</v>
+        <v>1.037711656051989</v>
       </c>
       <c r="L10">
-        <v>1.033168258775347</v>
+        <v>1.033695038590874</v>
       </c>
       <c r="M10">
-        <v>1.041253215621123</v>
+        <v>1.044380045632566</v>
       </c>
       <c r="N10">
-        <v>1.011193791390156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012460705001191</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.043747324390416</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.03777224816854</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9935077763496589</v>
+        <v>0.9959627814104063</v>
       </c>
       <c r="D11">
-        <v>1.017742754384876</v>
+        <v>1.022536600940408</v>
       </c>
       <c r="E11">
-        <v>1.014323685206008</v>
+        <v>1.018159934955184</v>
       </c>
       <c r="F11">
-        <v>1.022711737254693</v>
+        <v>1.029459878708318</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043984385809112</v>
+        <v>1.046878688479434</v>
       </c>
       <c r="J11">
-        <v>1.023153155927284</v>
+        <v>1.025504483243407</v>
       </c>
       <c r="K11">
-        <v>1.032337649692299</v>
+        <v>1.037045667167263</v>
       </c>
       <c r="L11">
-        <v>1.028980440434004</v>
+        <v>1.032747319331548</v>
       </c>
       <c r="M11">
-        <v>1.037217687611674</v>
+        <v>1.043846817961172</v>
       </c>
       <c r="N11">
-        <v>1.00980023932331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.01220496902298</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.043758903290378</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.037334108282395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9915063859928891</v>
+        <v>0.9953380511840246</v>
       </c>
       <c r="D12">
-        <v>1.016188126236181</v>
+        <v>1.022236552112931</v>
       </c>
       <c r="E12">
-        <v>1.012506979921661</v>
+        <v>1.017796215279256</v>
       </c>
       <c r="F12">
-        <v>1.020956671999317</v>
+        <v>1.029327150640188</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043381518296562</v>
+        <v>1.046873716574723</v>
       </c>
       <c r="J12">
-        <v>1.021674612080404</v>
+        <v>1.025341031987295</v>
       </c>
       <c r="K12">
-        <v>1.031011622813255</v>
+        <v>1.036949784580347</v>
       </c>
       <c r="L12">
-        <v>1.027398425565321</v>
+        <v>1.032590229518251</v>
       </c>
       <c r="M12">
-        <v>1.035693095194011</v>
+        <v>1.043913261132438</v>
       </c>
       <c r="N12">
-        <v>1.009273501275249</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.01218143154806</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.044136044376551</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.037266316596353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9919372727360618</v>
+        <v>0.9958324090911742</v>
       </c>
       <c r="D13">
-        <v>1.016522771343383</v>
+        <v>1.022642235125087</v>
       </c>
       <c r="E13">
-        <v>1.012898027555469</v>
+        <v>1.018306234800757</v>
       </c>
       <c r="F13">
-        <v>1.021334449186901</v>
+        <v>1.02993532341114</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043511393450393</v>
+        <v>1.047056891486857</v>
       </c>
       <c r="J13">
-        <v>1.021992940144802</v>
+        <v>1.025720931695687</v>
       </c>
       <c r="K13">
-        <v>1.031297127626097</v>
+        <v>1.037305510075643</v>
       </c>
       <c r="L13">
-        <v>1.027739005725899</v>
+        <v>1.033048038023419</v>
       </c>
       <c r="M13">
-        <v>1.03602131783114</v>
+        <v>1.04446844920773</v>
       </c>
       <c r="N13">
-        <v>1.009386911938472</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.01234139519482</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.044850318799001</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.037515340131432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.99334304948366</v>
+        <v>0.9966868820623472</v>
       </c>
       <c r="D14">
-        <v>1.017614773679253</v>
+        <v>1.023247860099442</v>
       </c>
       <c r="E14">
-        <v>1.014174124409027</v>
+        <v>1.019060209079571</v>
       </c>
       <c r="F14">
-        <v>1.022567249973012</v>
+        <v>1.030697907081347</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043934802876696</v>
+        <v>1.047270847855838</v>
       </c>
       <c r="J14">
-        <v>1.023031465835252</v>
+        <v>1.026233995185236</v>
       </c>
       <c r="K14">
-        <v>1.03222851843768</v>
+        <v>1.037760693007738</v>
       </c>
       <c r="L14">
-        <v>1.02885022301788</v>
+        <v>1.03364792185205</v>
       </c>
       <c r="M14">
-        <v>1.037092198767264</v>
+        <v>1.045079472790064</v>
       </c>
       <c r="N14">
-        <v>1.009756888883055</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012536957521233</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.045505880483995</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.037838587201663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9942046140854655</v>
+        <v>0.9971431800892608</v>
       </c>
       <c r="D15">
-        <v>1.018284195635304</v>
+        <v>1.023555816633814</v>
       </c>
       <c r="E15">
-        <v>1.014956435196395</v>
+        <v>1.019441670012527</v>
       </c>
       <c r="F15">
-        <v>1.023323024482516</v>
+        <v>1.031056397838131</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044194060230687</v>
+        <v>1.047367521156057</v>
       </c>
       <c r="J15">
-        <v>1.023667929702188</v>
+        <v>1.02648347945724</v>
       </c>
       <c r="K15">
-        <v>1.032799284639064</v>
+        <v>1.037977230201639</v>
       </c>
       <c r="L15">
-        <v>1.029531309010911</v>
+        <v>1.033936083211625</v>
       </c>
       <c r="M15">
-        <v>1.037748548296803</v>
+        <v>1.045346664187846</v>
       </c>
       <c r="N15">
-        <v>1.009983615863718</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012626963652557</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.045754453001176</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.03799753553146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9991515087576455</v>
+        <v>0.99950996635447</v>
       </c>
       <c r="D16">
-        <v>1.022130165472853</v>
+        <v>1.025076366844523</v>
       </c>
       <c r="E16">
-        <v>1.019451553419732</v>
+        <v>1.021334241662789</v>
       </c>
       <c r="F16">
-        <v>1.027665739970455</v>
+        <v>1.03271732446305</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045678960094482</v>
+        <v>1.047784357596282</v>
       </c>
       <c r="J16">
-        <v>1.027321938302373</v>
+        <v>1.027666192547205</v>
       </c>
       <c r="K16">
-        <v>1.036075487978802</v>
+        <v>1.038971761117069</v>
       </c>
       <c r="L16">
-        <v>1.033442593057147</v>
+        <v>1.035293116234163</v>
       </c>
       <c r="M16">
-        <v>1.041517557768236</v>
+        <v>1.046484939030815</v>
       </c>
       <c r="N16">
-        <v>1.011285036635174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01302640081559</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.046615592995177</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.038703855285326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002197109266588</v>
+        <v>1.000879643089706</v>
       </c>
       <c r="D17">
-        <v>1.024499859736625</v>
+        <v>1.025926734172223</v>
       </c>
       <c r="E17">
-        <v>1.022221782298721</v>
+        <v>1.02239212276223</v>
       </c>
       <c r="F17">
-        <v>1.030342087403789</v>
+        <v>1.033589136988784</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04658983956136</v>
+        <v>1.04798935075474</v>
       </c>
       <c r="J17">
-        <v>1.029571116849611</v>
+        <v>1.028304059829436</v>
       </c>
       <c r="K17">
-        <v>1.038091534327287</v>
+        <v>1.039494948282794</v>
       </c>
       <c r="L17">
-        <v>1.035851087489336</v>
+        <v>1.036018606703695</v>
       </c>
       <c r="M17">
-        <v>1.043838233536999</v>
+        <v>1.047032788496974</v>
       </c>
       <c r="N17">
-        <v>1.012085872135331</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.01323003900564</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.046920179883843</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.039076344586739</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003953699155015</v>
+        <v>1.001508744752561</v>
       </c>
       <c r="D18">
-        <v>1.025867238917804</v>
+        <v>1.026260677074847</v>
       </c>
       <c r="E18">
-        <v>1.023820504125586</v>
+        <v>1.022807884107651</v>
       </c>
       <c r="F18">
-        <v>1.031886635045048</v>
+        <v>1.033828218871017</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047113980238929</v>
+        <v>1.048022588837788</v>
       </c>
       <c r="J18">
-        <v>1.030868168132737</v>
+        <v>1.028514874451014</v>
       </c>
       <c r="K18">
-        <v>1.039253924136861</v>
+        <v>1.039641006725515</v>
       </c>
       <c r="L18">
-        <v>1.037240353345134</v>
+        <v>1.036244204236881</v>
       </c>
       <c r="M18">
-        <v>1.04517676279727</v>
+        <v>1.047087508739366</v>
       </c>
       <c r="N18">
-        <v>1.012547601489591</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.0132769601421</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.046726980961996</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.03916801980399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.004549359631341</v>
+        <v>1.001483077737562</v>
       </c>
       <c r="D19">
-        <v>1.026331019456826</v>
+        <v>1.026147024638168</v>
       </c>
       <c r="E19">
-        <v>1.024362790011992</v>
+        <v>1.022655135253303</v>
       </c>
       <c r="F19">
-        <v>1.032410545189055</v>
+        <v>1.033506615945788</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047291506818442</v>
+        <v>1.047912534192641</v>
       </c>
       <c r="J19">
-        <v>1.031307963412376</v>
+        <v>1.02835587271282</v>
       </c>
       <c r="K19">
-        <v>1.039648021113595</v>
+        <v>1.039466981400413</v>
       </c>
       <c r="L19">
-        <v>1.037711473687022</v>
+        <v>1.036031433415815</v>
       </c>
       <c r="M19">
-        <v>1.045630663310995</v>
+        <v>1.04670942228691</v>
       </c>
       <c r="N19">
-        <v>1.012704144611069</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013191817649182</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.046104444233383</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.039051350547335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001872417583611</v>
+        <v>0.9996105948997452</v>
       </c>
       <c r="D20">
-        <v>1.024247160176336</v>
+        <v>1.024764760325213</v>
       </c>
       <c r="E20">
-        <v>1.021926347801131</v>
+        <v>1.020910997900671</v>
       </c>
       <c r="F20">
-        <v>1.030056664233021</v>
+        <v>1.031638687937876</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046492856831245</v>
+        <v>1.047398173403655</v>
       </c>
       <c r="J20">
-        <v>1.029331350997419</v>
+        <v>1.027156535717567</v>
       </c>
       <c r="K20">
-        <v>1.037876643263161</v>
+        <v>1.03838569376045</v>
       </c>
       <c r="L20">
-        <v>1.035594302882448</v>
+        <v>1.034595855240918</v>
       </c>
       <c r="M20">
-        <v>1.043590820117613</v>
+        <v>1.045147123517962</v>
       </c>
       <c r="N20">
-        <v>1.012000511485417</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012733652228127</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.044343899343085</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.038290751418265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9929300428828544</v>
+        <v>0.9951641980657916</v>
       </c>
       <c r="D21">
-        <v>1.017293917534994</v>
+        <v>1.021864024131267</v>
       </c>
       <c r="E21">
-        <v>1.013799169806877</v>
+        <v>1.017299253663532</v>
       </c>
       <c r="F21">
-        <v>1.022205015636906</v>
+        <v>1.028398398365888</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043810458220288</v>
+        <v>1.046566429453057</v>
       </c>
       <c r="J21">
-        <v>1.022726359211342</v>
+        <v>1.024865502831116</v>
       </c>
       <c r="K21">
-        <v>1.031954895005889</v>
+        <v>1.03644268664457</v>
       </c>
       <c r="L21">
-        <v>1.028523745225891</v>
+        <v>1.031960134461282</v>
       </c>
       <c r="M21">
-        <v>1.036777574667872</v>
+        <v>1.042861013813164</v>
       </c>
       <c r="N21">
-        <v>1.009648197004975</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011941344508683</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.042494005256225</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.036920198052486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9871097834865432</v>
+        <v>0.9923353703138964</v>
       </c>
       <c r="D22">
-        <v>1.012775352406534</v>
+        <v>1.020026641010557</v>
       </c>
       <c r="E22">
-        <v>1.008519321137556</v>
+        <v>1.015019179948825</v>
       </c>
       <c r="F22">
-        <v>1.017104423959962</v>
+        <v>1.026369017403619</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042053870075592</v>
+        <v>1.046033289310731</v>
       </c>
       <c r="J22">
-        <v>1.018426355394933</v>
+        <v>1.023415697155408</v>
       </c>
       <c r="K22">
-        <v>1.028097905426495</v>
+        <v>1.03521153893374</v>
       </c>
       <c r="L22">
-        <v>1.023923876959508</v>
+        <v>1.030298862303284</v>
       </c>
       <c r="M22">
-        <v>1.032344487229504</v>
+        <v>1.041435593520634</v>
       </c>
       <c r="N22">
-        <v>1.008116112226078</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011440889313854</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.041365882898232</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.036036259367995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9902149496113111</v>
+        <v>0.9938305647970563</v>
       </c>
       <c r="D23">
-        <v>1.015185329570626</v>
+        <v>1.020991956437337</v>
       </c>
       <c r="E23">
-        <v>1.011335203100418</v>
+        <v>1.016222072486306</v>
       </c>
       <c r="F23">
-        <v>1.019824668636632</v>
+        <v>1.027439186337139</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042991999392606</v>
+        <v>1.046312106499814</v>
       </c>
       <c r="J23">
-        <v>1.020720512470064</v>
+        <v>1.024177854882902</v>
       </c>
       <c r="K23">
-        <v>1.030155859187509</v>
+        <v>1.035855264989076</v>
       </c>
       <c r="L23">
-        <v>1.026377713030888</v>
+        <v>1.031173341156543</v>
       </c>
       <c r="M23">
-        <v>1.03470940375933</v>
+        <v>1.042185290507545</v>
       </c>
       <c r="N23">
-        <v>1.008933569552185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011702941435041</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.041959216842749</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.036481789544555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002019192944561</v>
+        <v>0.999625901541932</v>
       </c>
       <c r="D24">
-        <v>1.024361389899596</v>
+        <v>1.024753006879719</v>
       </c>
       <c r="E24">
-        <v>1.022059894628795</v>
+        <v>1.020902772296761</v>
       </c>
       <c r="F24">
-        <v>1.030185685572245</v>
+        <v>1.031605680382021</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046536701220038</v>
+        <v>1.047380902693533</v>
       </c>
       <c r="J24">
-        <v>1.029439736635897</v>
+        <v>1.027138359687498</v>
       </c>
       <c r="K24">
-        <v>1.03797378499077</v>
+        <v>1.038358942405986</v>
       </c>
       <c r="L24">
-        <v>1.03571038075525</v>
+        <v>1.03457249301054</v>
       </c>
       <c r="M24">
-        <v>1.04370266205707</v>
+        <v>1.045099603068116</v>
       </c>
       <c r="N24">
-        <v>1.012039098880075</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012722333358337</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.044265691518076</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.038244520585197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014945526833151</v>
+        <v>1.006143000951459</v>
       </c>
       <c r="D25">
-        <v>1.034433241868049</v>
+        <v>1.029002323698022</v>
       </c>
       <c r="E25">
-        <v>1.03384029198808</v>
+        <v>1.026197067475108</v>
       </c>
       <c r="F25">
-        <v>1.041566743398952</v>
+        <v>1.036321179218546</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050371373176079</v>
+        <v>1.048544148374371</v>
       </c>
       <c r="J25">
-        <v>1.038980174498377</v>
+        <v>1.030465382545733</v>
       </c>
       <c r="K25">
-        <v>1.04651954772145</v>
+        <v>1.041166500894949</v>
       </c>
       <c r="L25">
-        <v>1.04593504952134</v>
+        <v>1.038401877242967</v>
       </c>
       <c r="M25">
-        <v>1.053552323531725</v>
+        <v>1.048380656599542</v>
       </c>
       <c r="N25">
-        <v>1.015433411645155</v>
+        <v>1.01386720717574</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.046862407327005</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.040226743013876</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_22/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011159741360442</v>
+        <v>1.010544955447823</v>
       </c>
       <c r="D2">
-        <v>1.032271630315296</v>
+        <v>1.031123655063474</v>
       </c>
       <c r="E2">
-        <v>1.030291245496879</v>
+        <v>1.029639743211805</v>
       </c>
       <c r="F2">
-        <v>1.039968231514705</v>
+        <v>1.03923691494825</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049396141455183</v>
+        <v>1.048926576001312</v>
       </c>
       <c r="J2">
-        <v>1.033011713930331</v>
+        <v>1.032414779039549</v>
       </c>
       <c r="K2">
-        <v>1.043298958257416</v>
+        <v>1.042165770051117</v>
       </c>
       <c r="L2">
-        <v>1.041344108521036</v>
+        <v>1.040701033576741</v>
       </c>
       <c r="M2">
-        <v>1.050897472033261</v>
+        <v>1.050175397578661</v>
       </c>
       <c r="N2">
-        <v>1.014740098741538</v>
+        <v>1.015673816898413</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.048854277932095</v>
+        <v>1.048282810719054</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.04168639607478</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.040893879113447</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023221438103749</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.0147333581052</v>
+        <v>1.013988827816199</v>
       </c>
       <c r="D3">
-        <v>1.034616646937593</v>
+        <v>1.033310458397394</v>
       </c>
       <c r="E3">
-        <v>1.033222673385368</v>
+        <v>1.032444742043228</v>
       </c>
       <c r="F3">
-        <v>1.04258104833004</v>
+        <v>1.04173214357919</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049990124976773</v>
+        <v>1.04945035520728</v>
       </c>
       <c r="J3">
-        <v>1.034830278987291</v>
+        <v>1.034105273868008</v>
       </c>
       <c r="K3">
-        <v>1.044824961481741</v>
+        <v>1.04353415333313</v>
       </c>
       <c r="L3">
-        <v>1.043447403717933</v>
+        <v>1.042678657362183</v>
       </c>
       <c r="M3">
-        <v>1.052696612177021</v>
+        <v>1.051857510047147</v>
       </c>
       <c r="N3">
-        <v>1.01536465536103</v>
+        <v>1.016134874545998</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.050278159109514</v>
+        <v>1.049614074589173</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042762749851813</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041858507575713</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023491063327464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017009019311494</v>
+        <v>1.01618276570052</v>
       </c>
       <c r="D4">
-        <v>1.036113345002154</v>
+        <v>1.03470697662831</v>
       </c>
       <c r="E4">
-        <v>1.035095091262756</v>
+        <v>1.034237358558163</v>
       </c>
       <c r="F4">
-        <v>1.044250293816087</v>
+        <v>1.043327088590639</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050359404476624</v>
+        <v>1.0497751451618</v>
       </c>
       <c r="J4">
-        <v>1.035987417791511</v>
+        <v>1.035181381818954</v>
       </c>
       <c r="K4">
-        <v>1.045794608123632</v>
+        <v>1.044403814899227</v>
       </c>
       <c r="L4">
-        <v>1.044787626069697</v>
+        <v>1.043939409324828</v>
       </c>
       <c r="M4">
-        <v>1.053842452934854</v>
+        <v>1.05292927153342</v>
       </c>
       <c r="N4">
-        <v>1.015761876641097</v>
+        <v>1.016428287604356</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.0511850026067</v>
+        <v>1.050462290913977</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.043449258552346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042474401448838</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023660126931959</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017960133015156</v>
+        <v>1.017099927246114</v>
       </c>
       <c r="D5">
-        <v>1.036741522656182</v>
+        <v>1.035293469529991</v>
       </c>
       <c r="E5">
-        <v>1.035879478442487</v>
+        <v>1.034988562371309</v>
       </c>
       <c r="F5">
-        <v>1.04494980600129</v>
+        <v>1.043995700546197</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050512897062688</v>
+        <v>1.049910108412691</v>
       </c>
       <c r="J5">
-        <v>1.03647218941382</v>
+        <v>1.035632409599807</v>
       </c>
       <c r="K5">
-        <v>1.046201840437085</v>
+        <v>1.044769402850681</v>
       </c>
       <c r="L5">
-        <v>1.045349085903192</v>
+        <v>1.044467790583683</v>
       </c>
       <c r="M5">
-        <v>1.054322607856291</v>
+        <v>1.053378588502098</v>
       </c>
       <c r="N5">
-        <v>1.015928525056915</v>
+        <v>1.016551466779205</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.051565007411908</v>
+        <v>1.050817890257274</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.043744337814182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042740745209036</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023731074457195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018122947298756</v>
+        <v>1.017256938793857</v>
       </c>
       <c r="D6">
-        <v>1.03685134996495</v>
+        <v>1.035396231909576</v>
       </c>
       <c r="E6">
-        <v>1.036014399993534</v>
+        <v>1.035117819062083</v>
       </c>
       <c r="F6">
-        <v>1.045070333454846</v>
+        <v>1.044110969290686</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050540672837135</v>
+        <v>1.049934731926252</v>
       </c>
       <c r="J6">
-        <v>1.036556845896155</v>
+        <v>1.035711296460083</v>
       </c>
       <c r="K6">
-        <v>1.046274558995573</v>
+        <v>1.044835061724379</v>
       </c>
       <c r="L6">
-        <v>1.045446587166003</v>
+        <v>1.044559643790836</v>
       </c>
       <c r="M6">
-        <v>1.054406309869453</v>
+        <v>1.053457041394013</v>
       </c>
       <c r="N6">
-        <v>1.015957967988747</v>
+        <v>1.016573280289064</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.051631250943578</v>
+        <v>1.05087997958619</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043804455818715</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042796739199934</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023744311794829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017031485550162</v>
+        <v>1.016212033434364</v>
       </c>
       <c r="D7">
-        <v>1.036134198496953</v>
+        <v>1.034732357839341</v>
       </c>
       <c r="E7">
-        <v>1.035115141862039</v>
+        <v>1.034263504859337</v>
       </c>
       <c r="F7">
-        <v>1.04426870692042</v>
+        <v>1.043350162149489</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050367415269538</v>
+        <v>1.04978535171557</v>
       </c>
       <c r="J7">
-        <v>1.03600339977615</v>
+        <v>1.035203990193957</v>
       </c>
       <c r="K7">
-        <v>1.045812369233467</v>
+        <v>1.044426047560865</v>
       </c>
       <c r="L7">
-        <v>1.044804588868484</v>
+        <v>1.043962396532757</v>
       </c>
       <c r="M7">
-        <v>1.053857834128076</v>
+        <v>1.052949258780222</v>
       </c>
       <c r="N7">
-        <v>1.015768307343714</v>
+        <v>1.016461056820649</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.05119717561276</v>
+        <v>1.050478109264824</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.043481828981963</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042512129906437</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023666458484544</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012387415012796</v>
+        <v>1.011751317701023</v>
       </c>
       <c r="D8">
-        <v>1.033083943143728</v>
+        <v>1.031898272189132</v>
       </c>
       <c r="E8">
-        <v>1.031299029328413</v>
+        <v>1.030625116173262</v>
       </c>
       <c r="F8">
-        <v>1.040867037781405</v>
+        <v>1.040111771884343</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049607442618375</v>
+        <v>1.049121815504763</v>
       </c>
       <c r="J8">
-        <v>1.033642286869428</v>
+        <v>1.033024045345251</v>
       </c>
       <c r="K8">
-        <v>1.043833670493556</v>
+        <v>1.042662824303238</v>
       </c>
       <c r="L8">
-        <v>1.042071090106592</v>
+        <v>1.041405634262092</v>
       </c>
       <c r="M8">
-        <v>1.051520494024273</v>
+        <v>1.050774491682205</v>
       </c>
       <c r="N8">
-        <v>1.014957923756492</v>
+        <v>1.015919612726823</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.049347352272934</v>
+        <v>1.048756948334528</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04208728357071</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.041270403805943</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023323422140826</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.003895538760967</v>
+        <v>1.003576927947098</v>
       </c>
       <c r="D9">
-        <v>1.027525566125699</v>
+        <v>1.026721798188198</v>
       </c>
       <c r="E9">
-        <v>1.024365111493001</v>
+        <v>1.023999143030996</v>
       </c>
       <c r="F9">
-        <v>1.034688476828296</v>
+        <v>1.034218736968856</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048141541006702</v>
+        <v>1.047825320815347</v>
       </c>
       <c r="J9">
-        <v>1.029311481508474</v>
+        <v>1.029004004897697</v>
       </c>
       <c r="K9">
-        <v>1.0401873055945</v>
+        <v>1.039395715267673</v>
       </c>
       <c r="L9">
-        <v>1.037074874386423</v>
+        <v>1.03671449127367</v>
       </c>
       <c r="M9">
-        <v>1.047242755980738</v>
+        <v>1.046780005315535</v>
       </c>
       <c r="N9">
-        <v>1.013468606353706</v>
+        <v>1.014831561671805</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.045961842588877</v>
+        <v>1.045595609120401</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.039505921043711</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038956919121276</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022665576726374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9980784099305781</v>
+        <v>0.9980143405604309</v>
       </c>
       <c r="D10">
-        <v>1.023758516065338</v>
+        <v>1.02324136696033</v>
       </c>
       <c r="E10">
-        <v>1.019672112763467</v>
+        <v>1.019549446868431</v>
       </c>
       <c r="F10">
-        <v>1.030541162594444</v>
+        <v>1.030292524260968</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047112347449521</v>
+        <v>1.046923778104299</v>
       </c>
       <c r="J10">
-        <v>1.026368475933115</v>
+        <v>1.026306962668374</v>
       </c>
       <c r="K10">
-        <v>1.037711656051989</v>
+        <v>1.037203298819224</v>
       </c>
       <c r="L10">
-        <v>1.033695038590874</v>
+        <v>1.033574478710014</v>
       </c>
       <c r="M10">
-        <v>1.044380045632566</v>
+        <v>1.044135561502678</v>
       </c>
       <c r="N10">
-        <v>1.012460705001191</v>
+        <v>1.014215751387454</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.043747324390416</v>
+        <v>1.043553844347032</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.03777224816854</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037425185641477</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022220342611135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9959627814104063</v>
+        <v>0.9960222122740795</v>
       </c>
       <c r="D11">
-        <v>1.022536600940408</v>
+        <v>1.022138375635755</v>
       </c>
       <c r="E11">
-        <v>1.018159934955184</v>
+        <v>1.01815205942146</v>
       </c>
       <c r="F11">
-        <v>1.029459878708318</v>
+        <v>1.029310963034157</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046878688479434</v>
+        <v>1.046741660214945</v>
       </c>
       <c r="J11">
-        <v>1.025504483243407</v>
+        <v>1.025561413292908</v>
       </c>
       <c r="K11">
-        <v>1.037045667167263</v>
+        <v>1.036654531892587</v>
       </c>
       <c r="L11">
-        <v>1.032747319331548</v>
+        <v>1.032739585515084</v>
       </c>
       <c r="M11">
-        <v>1.043846817961172</v>
+        <v>1.04370050677191</v>
       </c>
       <c r="N11">
-        <v>1.01220496902298</v>
+        <v>1.014270889351656</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.043758903290378</v>
+        <v>1.043643172940806</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.037334108282395</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.037073136898842</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02215079186514</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9953380511840246</v>
+        <v>0.9954306263364709</v>
       </c>
       <c r="D12">
-        <v>1.022236552112931</v>
+        <v>1.021867283673815</v>
       </c>
       <c r="E12">
-        <v>1.017796215279256</v>
+        <v>1.017818609776498</v>
       </c>
       <c r="F12">
-        <v>1.029327150640188</v>
+        <v>1.029203992452781</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046873716574723</v>
+        <v>1.046747674193566</v>
       </c>
       <c r="J12">
-        <v>1.025341031987295</v>
+        <v>1.025429637169397</v>
       </c>
       <c r="K12">
-        <v>1.036949784580347</v>
+        <v>1.036587199329082</v>
       </c>
       <c r="L12">
-        <v>1.032590229518251</v>
+        <v>1.032612214296258</v>
       </c>
       <c r="M12">
-        <v>1.043913261132438</v>
+        <v>1.043792291556963</v>
       </c>
       <c r="N12">
-        <v>1.01218143154806</v>
+        <v>1.014359941651012</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.044136044376551</v>
+        <v>1.044040390963258</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.037266316596353</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037025531842013</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022167371826783</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9958324090911742</v>
+        <v>0.9958789705835881</v>
       </c>
       <c r="D13">
-        <v>1.022642235125087</v>
+        <v>1.022225881380683</v>
       </c>
       <c r="E13">
-        <v>1.018306234800757</v>
+        <v>1.018285232254079</v>
       </c>
       <c r="F13">
-        <v>1.02993532341114</v>
+        <v>1.029774217700189</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047056891486857</v>
+        <v>1.046907340778043</v>
       </c>
       <c r="J13">
-        <v>1.025720931695687</v>
+        <v>1.025765506453972</v>
       </c>
       <c r="K13">
-        <v>1.037305510075643</v>
+        <v>1.036896659231544</v>
       </c>
       <c r="L13">
-        <v>1.033048038023419</v>
+        <v>1.033027417966885</v>
       </c>
       <c r="M13">
-        <v>1.04446844920773</v>
+        <v>1.044310192690474</v>
       </c>
       <c r="N13">
-        <v>1.01234139519482</v>
+        <v>1.014449395160203</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.044850318799001</v>
+        <v>1.044725212901513</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.037515340131432</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.037241597780855</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022255692111535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9966868820623472</v>
+        <v>0.9966660315504878</v>
       </c>
       <c r="D14">
-        <v>1.023247860099442</v>
+        <v>1.022764706222306</v>
       </c>
       <c r="E14">
-        <v>1.019060209079571</v>
+        <v>1.018976038822596</v>
       </c>
       <c r="F14">
-        <v>1.030697907081347</v>
+        <v>1.030481937090301</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047270847855838</v>
+        <v>1.047089661820166</v>
       </c>
       <c r="J14">
-        <v>1.026233995185236</v>
+        <v>1.026214021589312</v>
       </c>
       <c r="K14">
-        <v>1.037760693007738</v>
+        <v>1.037286137842392</v>
       </c>
       <c r="L14">
-        <v>1.03364792185205</v>
+        <v>1.033565264852083</v>
       </c>
       <c r="M14">
-        <v>1.045079472790064</v>
+        <v>1.044867273516568</v>
       </c>
       <c r="N14">
-        <v>1.012536957521233</v>
+        <v>1.014513846328854</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.045505880483995</v>
+        <v>1.045338153914626</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.037838587201663</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037518522935826</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02235070281415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9971431800892608</v>
+        <v>0.9970892755466304</v>
       </c>
       <c r="D15">
-        <v>1.023555816633814</v>
+        <v>1.023040203379654</v>
       </c>
       <c r="E15">
-        <v>1.019441670012527</v>
+        <v>1.019326577623086</v>
       </c>
       <c r="F15">
-        <v>1.031056397838131</v>
+        <v>1.030813615673953</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047367521156057</v>
+        <v>1.047171367345642</v>
       </c>
       <c r="J15">
-        <v>1.02648347945724</v>
+        <v>1.026431822216548</v>
       </c>
       <c r="K15">
-        <v>1.037977230201639</v>
+        <v>1.037470724029914</v>
       </c>
       <c r="L15">
-        <v>1.033936083211625</v>
+        <v>1.033823043972089</v>
       </c>
       <c r="M15">
-        <v>1.045346664187846</v>
+        <v>1.04510808837994</v>
       </c>
       <c r="N15">
-        <v>1.012626963652557</v>
+        <v>1.014534458340256</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.045754453001176</v>
+        <v>1.045565882824159</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.03799753553146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037655448811542</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022391850728127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.99950996635447</v>
+        <v>0.9993055730483276</v>
       </c>
       <c r="D16">
-        <v>1.025076366844523</v>
+        <v>1.024411594358692</v>
       </c>
       <c r="E16">
-        <v>1.021334241662789</v>
+        <v>1.021078191634194</v>
       </c>
       <c r="F16">
-        <v>1.03271732446305</v>
+        <v>1.032351829980483</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047784357596282</v>
+        <v>1.047521464392114</v>
       </c>
       <c r="J16">
-        <v>1.027666192547205</v>
+        <v>1.027469896255803</v>
       </c>
       <c r="K16">
-        <v>1.038971761117069</v>
+        <v>1.038318221921495</v>
       </c>
       <c r="L16">
-        <v>1.035293116234163</v>
+        <v>1.035041431729187</v>
       </c>
       <c r="M16">
-        <v>1.046484939030815</v>
+        <v>1.046125501254932</v>
       </c>
       <c r="N16">
-        <v>1.01302640081559</v>
+        <v>1.014605645353241</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.046615592995177</v>
+        <v>1.046331485536527</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.038703855285326</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.038258109533518</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022559684887161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.000879643089706</v>
+        <v>1.000603869434211</v>
       </c>
       <c r="D17">
-        <v>1.025926734172223</v>
+        <v>1.025188726167031</v>
       </c>
       <c r="E17">
-        <v>1.02239212276223</v>
+        <v>1.022068883535311</v>
       </c>
       <c r="F17">
-        <v>1.033589136988784</v>
+        <v>1.033164392061646</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.04798935075474</v>
+        <v>1.04769459483248</v>
       </c>
       <c r="J17">
-        <v>1.028304059829436</v>
+        <v>1.028038861592905</v>
       </c>
       <c r="K17">
-        <v>1.039494948282794</v>
+        <v>1.03876906402039</v>
       </c>
       <c r="L17">
-        <v>1.036018606703695</v>
+        <v>1.035700722129447</v>
       </c>
       <c r="M17">
-        <v>1.047032788496974</v>
+        <v>1.046614886293984</v>
       </c>
       <c r="N17">
-        <v>1.01323003900564</v>
+        <v>1.014655512471672</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.046920179883843</v>
+        <v>1.046589828201973</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.039076344586739</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038579695387722</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022639365793571</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.001508744752561</v>
+        <v>1.001212689684304</v>
       </c>
       <c r="D18">
-        <v>1.026260677074847</v>
+        <v>1.025500925437812</v>
       </c>
       <c r="E18">
-        <v>1.022807884107651</v>
+        <v>1.022465520582785</v>
       </c>
       <c r="F18">
-        <v>1.033828218871017</v>
+        <v>1.033386089203123</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048022588837788</v>
+        <v>1.047719680290973</v>
       </c>
       <c r="J18">
-        <v>1.028514874451014</v>
+        <v>1.02822996121782</v>
       </c>
       <c r="K18">
-        <v>1.039641006725515</v>
+        <v>1.03889353368339</v>
       </c>
       <c r="L18">
-        <v>1.036244204236881</v>
+        <v>1.035907418955066</v>
       </c>
       <c r="M18">
-        <v>1.047087508739366</v>
+        <v>1.046652388299043</v>
       </c>
       <c r="N18">
-        <v>1.0132769601421</v>
+        <v>1.014648325786397</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.046726980961996</v>
+        <v>1.046382947236609</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.03916801980399</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038654973001653</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022642616225742</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.001483077737562</v>
+        <v>1.001205571957489</v>
       </c>
       <c r="D19">
-        <v>1.026147024638168</v>
+        <v>1.02540675215283</v>
       </c>
       <c r="E19">
-        <v>1.022655135253303</v>
+        <v>1.022330491962117</v>
       </c>
       <c r="F19">
-        <v>1.033506615945788</v>
+        <v>1.033079739946891</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047912534192641</v>
+        <v>1.047620268799921</v>
       </c>
       <c r="J19">
-        <v>1.02835587271282</v>
+        <v>1.028088750101974</v>
       </c>
       <c r="K19">
-        <v>1.039466981400413</v>
+        <v>1.038738612038574</v>
       </c>
       <c r="L19">
-        <v>1.036031433415815</v>
+        <v>1.035712053333236</v>
       </c>
       <c r="M19">
-        <v>1.04670942228691</v>
+        <v>1.046289282947497</v>
       </c>
       <c r="N19">
-        <v>1.013191817649182</v>
+        <v>1.014576400988924</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.046104444233383</v>
+        <v>1.045772148180012</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.039051350547335</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038552435252463</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022582649933357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9996105948997452</v>
+        <v>0.999457369494148</v>
       </c>
       <c r="D20">
-        <v>1.024764760325213</v>
+        <v>1.024156639158955</v>
       </c>
       <c r="E20">
-        <v>1.020910997900671</v>
+        <v>1.020704445924544</v>
       </c>
       <c r="F20">
-        <v>1.031638687937876</v>
+        <v>1.03131625664243</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047398173403655</v>
+        <v>1.047168272100182</v>
       </c>
       <c r="J20">
-        <v>1.027156535717567</v>
+        <v>1.027009224674353</v>
       </c>
       <c r="K20">
-        <v>1.03838569376045</v>
+        <v>1.037787618602726</v>
       </c>
       <c r="L20">
-        <v>1.034595855240918</v>
+        <v>1.034392746983184</v>
       </c>
       <c r="M20">
-        <v>1.045147123517962</v>
+        <v>1.044829926039435</v>
       </c>
       <c r="N20">
-        <v>1.012733652228127</v>
+        <v>1.014310398138444</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.044343899343085</v>
+        <v>1.044092872372633</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.038290751418265</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037884349977145</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022341904617734</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9951641980657916</v>
+        <v>0.9953169429815775</v>
       </c>
       <c r="D21">
-        <v>1.021864024131267</v>
+        <v>1.021556625083246</v>
       </c>
       <c r="E21">
-        <v>1.017299253663532</v>
+        <v>1.017378877289449</v>
       </c>
       <c r="F21">
-        <v>1.028398398365888</v>
+        <v>1.028324878940471</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046566429453057</v>
+        <v>1.046474442259622</v>
       </c>
       <c r="J21">
-        <v>1.024865502831116</v>
+        <v>1.025011774181767</v>
       </c>
       <c r="K21">
-        <v>1.03644268664457</v>
+        <v>1.036140794336423</v>
       </c>
       <c r="L21">
-        <v>1.031960134461282</v>
+        <v>1.03203831572495</v>
       </c>
       <c r="M21">
-        <v>1.042861013813164</v>
+        <v>1.04278878941932</v>
       </c>
       <c r="N21">
-        <v>1.011941344508683</v>
+        <v>1.014180633080525</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.042494005256225</v>
+        <v>1.042436844646308</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.036920198052486</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036723537796204</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022003774729397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9923353703138964</v>
+        <v>0.9926820353288669</v>
       </c>
       <c r="D22">
-        <v>1.020026641010557</v>
+        <v>1.019910221010737</v>
       </c>
       <c r="E22">
-        <v>1.015019179948825</v>
+        <v>1.015279877186027</v>
       </c>
       <c r="F22">
-        <v>1.026369017403619</v>
+        <v>1.026453660342216</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046033289310731</v>
+        <v>1.046029087734393</v>
       </c>
       <c r="J22">
-        <v>1.023415697155408</v>
+        <v>1.023746815670517</v>
       </c>
       <c r="K22">
-        <v>1.03521153893374</v>
+        <v>1.035097308802592</v>
       </c>
       <c r="L22">
-        <v>1.030298862303284</v>
+        <v>1.030554594719041</v>
       </c>
       <c r="M22">
-        <v>1.041435593520634</v>
+        <v>1.041518670271472</v>
       </c>
       <c r="N22">
-        <v>1.011440889313854</v>
+        <v>1.014093033336139</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.041365882898232</v>
+        <v>1.041431632494538</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.036036259367995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035970986864489</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021788482924388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9938305647970563</v>
+        <v>0.9940619478640326</v>
       </c>
       <c r="D23">
-        <v>1.020991956437337</v>
+        <v>1.020765041442181</v>
       </c>
       <c r="E23">
-        <v>1.016222072486306</v>
+        <v>1.016375543305752</v>
       </c>
       <c r="F23">
-        <v>1.027439186337139</v>
+        <v>1.027430922788186</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046312106499814</v>
+        <v>1.046256818511043</v>
       </c>
       <c r="J23">
-        <v>1.024177854882902</v>
+        <v>1.024399165188536</v>
       </c>
       <c r="K23">
-        <v>1.035855264989076</v>
+        <v>1.035632510216161</v>
       </c>
       <c r="L23">
-        <v>1.031173341156543</v>
+        <v>1.031323965099432</v>
       </c>
       <c r="M23">
-        <v>1.042185290507545</v>
+        <v>1.042177175958119</v>
       </c>
       <c r="N23">
-        <v>1.011702941435041</v>
+        <v>1.014093972549756</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.041959216842749</v>
+        <v>1.041952794733881</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.036481789544555</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.03633884393619</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021896830689266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.999625901541932</v>
+        <v>0.999473722454994</v>
       </c>
       <c r="D24">
-        <v>1.024753006879719</v>
+        <v>1.024145882646419</v>
       </c>
       <c r="E24">
-        <v>1.020902772296761</v>
+        <v>1.020697233773678</v>
       </c>
       <c r="F24">
-        <v>1.031605680382021</v>
+        <v>1.031284067206993</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047380902693533</v>
+        <v>1.047151755329438</v>
       </c>
       <c r="J24">
-        <v>1.027138359687498</v>
+        <v>1.026992046062437</v>
       </c>
       <c r="K24">
-        <v>1.038358942405986</v>
+        <v>1.037761835154878</v>
       </c>
       <c r="L24">
-        <v>1.03457249301054</v>
+        <v>1.034370376983946</v>
       </c>
       <c r="M24">
-        <v>1.045099603068116</v>
+        <v>1.044783204182993</v>
       </c>
       <c r="N24">
-        <v>1.012722333358337</v>
+        <v>1.014298010905582</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.044265691518076</v>
+        <v>1.044015284270802</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.038244520585197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.037836134261612</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022330973317257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.006143000951459</v>
+        <v>1.005729957452378</v>
       </c>
       <c r="D25">
-        <v>1.029002323698022</v>
+        <v>1.028090427396105</v>
       </c>
       <c r="E25">
-        <v>1.026197067475108</v>
+        <v>1.025740381721659</v>
       </c>
       <c r="F25">
-        <v>1.036321179218546</v>
+        <v>1.035768685014521</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048544148374371</v>
+        <v>1.048179634545095</v>
       </c>
       <c r="J25">
-        <v>1.030465382545733</v>
+        <v>1.030066012524766</v>
       </c>
       <c r="K25">
-        <v>1.041166500894949</v>
+        <v>1.040267782072396</v>
       </c>
       <c r="L25">
-        <v>1.038401877242967</v>
+        <v>1.037951833005721</v>
       </c>
       <c r="M25">
-        <v>1.048380656599542</v>
+        <v>1.047836000794384</v>
       </c>
       <c r="N25">
-        <v>1.01386720717574</v>
+        <v>1.015089898253879</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.046862407327005</v>
+        <v>1.046431352410534</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.040226743013876</v>
+        <v>1.039604795186471</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022844702109332</v>
       </c>
     </row>
   </sheetData>
